--- a/画面設計書_加藤.xlsx
+++ b/画面設計書_加藤.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m-matsuka\Desktop\GitHub_クローン\commpany_money\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F3607E2-352D-4867-B17B-FF19D8BFD3BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D3896C-22F0-4C47-BC79-CCE1F7DDC9CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="4" activeTab="8" xr2:uid="{F6F11A3B-F159-4D6B-8CFC-F9D999D140F5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{F6F11A3B-F159-4D6B-8CFC-F9D999D140F5}"/>
   </bookViews>
   <sheets>
     <sheet name="フォーマット" sheetId="2" r:id="rId1"/>
     <sheet name="選択画面" sheetId="3" r:id="rId2"/>
-    <sheet name="給与計算画面" sheetId="5" r:id="rId3"/>
-    <sheet name="計算結果画面" sheetId="6" r:id="rId4"/>
+    <sheet name="勤務時間計算画面" sheetId="5" r:id="rId3"/>
+    <sheet name="勤務時間履歴画面" sheetId="6" r:id="rId4"/>
     <sheet name="管理者画面" sheetId="4" r:id="rId5"/>
     <sheet name="ユーザー管理画面" sheetId="7" r:id="rId6"/>
     <sheet name="勤務地管理画面" sheetId="8" r:id="rId7"/>
@@ -171,20 +171,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>給与計算画面</t>
-    <rPh sb="0" eb="6">
-      <t>キュウヨケイサンガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>計算結果画面</t>
-    <rPh sb="0" eb="6">
-      <t>ケイサンケッカガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ユーザー管理画面</t>
     <rPh sb="4" eb="8">
       <t>カンリガメン</t>
@@ -224,6 +210,35 @@
   <si>
     <t>カレンダー画面</t>
     <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勤務時間計算画面</t>
+    <rPh sb="0" eb="4">
+      <t>キンムジカン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケイサン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勤務時間履歴画面</t>
+    <rPh sb="0" eb="2">
+      <t>キンム</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>リレキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
       <t>ガメン</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -640,42 +655,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -717,6 +696,42 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1584,204 +1599,204 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="46" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
-      <c r="U1" s="46"/>
-      <c r="V1" s="46"/>
-      <c r="W1" s="46"/>
-      <c r="X1" s="46"/>
-      <c r="Y1" s="46"/>
-      <c r="Z1" s="46"/>
-      <c r="AA1" s="46"/>
-      <c r="AB1" s="46"/>
-      <c r="AC1" s="46"/>
-      <c r="AD1" s="46"/>
-      <c r="AE1" s="46"/>
-      <c r="AF1" s="45" t="s">
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="AG1" s="45"/>
-      <c r="AH1" s="45"/>
-      <c r="AI1" s="45"/>
-      <c r="AJ1" s="35"/>
-      <c r="AK1" s="35"/>
-      <c r="AL1" s="35"/>
-      <c r="AM1" s="35"/>
-      <c r="AN1" s="35"/>
-      <c r="AO1" s="35"/>
-      <c r="AP1" s="35"/>
-      <c r="AQ1" s="35"/>
-      <c r="AR1" s="35"/>
-      <c r="AS1" s="35"/>
+      <c r="AG1" s="33"/>
+      <c r="AH1" s="33"/>
+      <c r="AI1" s="33"/>
+      <c r="AJ1" s="23"/>
+      <c r="AK1" s="23"/>
+      <c r="AL1" s="23"/>
+      <c r="AM1" s="23"/>
+      <c r="AN1" s="23"/>
+      <c r="AO1" s="23"/>
+      <c r="AP1" s="23"/>
+      <c r="AQ1" s="23"/>
+      <c r="AR1" s="23"/>
+      <c r="AS1" s="23"/>
     </row>
     <row r="2" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="39"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47"/>
-      <c r="U2" s="47"/>
-      <c r="V2" s="47"/>
-      <c r="W2" s="47"/>
-      <c r="X2" s="47"/>
-      <c r="Y2" s="47"/>
-      <c r="Z2" s="47"/>
-      <c r="AA2" s="47"/>
-      <c r="AB2" s="47"/>
-      <c r="AC2" s="47"/>
-      <c r="AD2" s="47"/>
-      <c r="AE2" s="47"/>
-      <c r="AF2" s="45" t="s">
+      <c r="A2" s="27"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="35"/>
+      <c r="V2" s="35"/>
+      <c r="W2" s="35"/>
+      <c r="X2" s="35"/>
+      <c r="Y2" s="35"/>
+      <c r="Z2" s="35"/>
+      <c r="AA2" s="35"/>
+      <c r="AB2" s="35"/>
+      <c r="AC2" s="35"/>
+      <c r="AD2" s="35"/>
+      <c r="AE2" s="35"/>
+      <c r="AF2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="45"/>
-      <c r="AH2" s="45"/>
-      <c r="AI2" s="45"/>
-      <c r="AJ2" s="34"/>
-      <c r="AK2" s="35"/>
-      <c r="AL2" s="35"/>
-      <c r="AM2" s="35"/>
-      <c r="AN2" s="35"/>
-      <c r="AO2" s="35"/>
-      <c r="AP2" s="35"/>
-      <c r="AQ2" s="35"/>
-      <c r="AR2" s="35"/>
-      <c r="AS2" s="35"/>
+      <c r="AG2" s="33"/>
+      <c r="AH2" s="33"/>
+      <c r="AI2" s="33"/>
+      <c r="AJ2" s="22"/>
+      <c r="AK2" s="23"/>
+      <c r="AL2" s="23"/>
+      <c r="AM2" s="23"/>
+      <c r="AN2" s="23"/>
+      <c r="AO2" s="23"/>
+      <c r="AP2" s="23"/>
+      <c r="AQ2" s="23"/>
+      <c r="AR2" s="23"/>
+      <c r="AS2" s="23"/>
     </row>
     <row r="3" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="39"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="47"/>
-      <c r="R3" s="47"/>
-      <c r="S3" s="47"/>
-      <c r="T3" s="47"/>
-      <c r="U3" s="47"/>
-      <c r="V3" s="47"/>
-      <c r="W3" s="47"/>
-      <c r="X3" s="47"/>
-      <c r="Y3" s="47"/>
-      <c r="Z3" s="47"/>
-      <c r="AA3" s="47"/>
-      <c r="AB3" s="47"/>
-      <c r="AC3" s="47"/>
-      <c r="AD3" s="47"/>
-      <c r="AE3" s="47"/>
-      <c r="AF3" s="45" t="s">
+      <c r="A3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="35"/>
+      <c r="S3" s="35"/>
+      <c r="T3" s="35"/>
+      <c r="U3" s="35"/>
+      <c r="V3" s="35"/>
+      <c r="W3" s="35"/>
+      <c r="X3" s="35"/>
+      <c r="Y3" s="35"/>
+      <c r="Z3" s="35"/>
+      <c r="AA3" s="35"/>
+      <c r="AB3" s="35"/>
+      <c r="AC3" s="35"/>
+      <c r="AD3" s="35"/>
+      <c r="AE3" s="35"/>
+      <c r="AF3" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="45"/>
-      <c r="AH3" s="45"/>
-      <c r="AI3" s="45"/>
-      <c r="AJ3" s="35"/>
-      <c r="AK3" s="35"/>
-      <c r="AL3" s="35"/>
-      <c r="AM3" s="35"/>
-      <c r="AN3" s="35"/>
-      <c r="AO3" s="35"/>
-      <c r="AP3" s="35"/>
-      <c r="AQ3" s="35"/>
-      <c r="AR3" s="35"/>
-      <c r="AS3" s="35"/>
+      <c r="AG3" s="33"/>
+      <c r="AH3" s="33"/>
+      <c r="AI3" s="33"/>
+      <c r="AJ3" s="23"/>
+      <c r="AK3" s="23"/>
+      <c r="AL3" s="23"/>
+      <c r="AM3" s="23"/>
+      <c r="AN3" s="23"/>
+      <c r="AO3" s="23"/>
+      <c r="AP3" s="23"/>
+      <c r="AQ3" s="23"/>
+      <c r="AR3" s="23"/>
+      <c r="AS3" s="23"/>
     </row>
     <row r="4" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="42"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="47"/>
-      <c r="S4" s="47"/>
-      <c r="T4" s="47"/>
-      <c r="U4" s="47"/>
-      <c r="V4" s="47"/>
-      <c r="W4" s="47"/>
-      <c r="X4" s="47"/>
-      <c r="Y4" s="47"/>
-      <c r="Z4" s="47"/>
-      <c r="AA4" s="47"/>
-      <c r="AB4" s="47"/>
-      <c r="AC4" s="47"/>
-      <c r="AD4" s="47"/>
-      <c r="AE4" s="47"/>
-      <c r="AF4" s="45" t="s">
+      <c r="A4" s="30"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="35"/>
+      <c r="T4" s="35"/>
+      <c r="U4" s="35"/>
+      <c r="V4" s="35"/>
+      <c r="W4" s="35"/>
+      <c r="X4" s="35"/>
+      <c r="Y4" s="35"/>
+      <c r="Z4" s="35"/>
+      <c r="AA4" s="35"/>
+      <c r="AB4" s="35"/>
+      <c r="AC4" s="35"/>
+      <c r="AD4" s="35"/>
+      <c r="AE4" s="35"/>
+      <c r="AF4" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="AG4" s="45"/>
-      <c r="AH4" s="45"/>
-      <c r="AI4" s="45"/>
-      <c r="AJ4" s="34"/>
-      <c r="AK4" s="35"/>
-      <c r="AL4" s="35"/>
-      <c r="AM4" s="35"/>
-      <c r="AN4" s="35"/>
-      <c r="AO4" s="35"/>
-      <c r="AP4" s="35"/>
-      <c r="AQ4" s="35"/>
-      <c r="AR4" s="35"/>
-      <c r="AS4" s="35"/>
+      <c r="AG4" s="33"/>
+      <c r="AH4" s="33"/>
+      <c r="AI4" s="33"/>
+      <c r="AJ4" s="22"/>
+      <c r="AK4" s="23"/>
+      <c r="AL4" s="23"/>
+      <c r="AM4" s="23"/>
+      <c r="AN4" s="23"/>
+      <c r="AO4" s="23"/>
+      <c r="AP4" s="23"/>
+      <c r="AQ4" s="23"/>
+      <c r="AR4" s="23"/>
+      <c r="AS4" s="23"/>
     </row>
     <row r="5" spans="1:45" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
@@ -2910,255 +2925,255 @@
       <c r="AH34" s="1"/>
     </row>
     <row r="35" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="31" t="s">
+      <c r="A35" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="32"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="23" t="s">
+      <c r="B35" s="45"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23"/>
-      <c r="K35" s="23"/>
-      <c r="L35" s="23"/>
-      <c r="M35" s="23" t="s">
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="36"/>
+      <c r="L35" s="36"/>
+      <c r="M35" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="N35" s="23"/>
-      <c r="O35" s="23"/>
-      <c r="P35" s="23"/>
-      <c r="Q35" s="23"/>
-      <c r="R35" s="23"/>
-      <c r="S35" s="23"/>
-      <c r="T35" s="23" t="s">
+      <c r="N35" s="36"/>
+      <c r="O35" s="36"/>
+      <c r="P35" s="36"/>
+      <c r="Q35" s="36"/>
+      <c r="R35" s="36"/>
+      <c r="S35" s="36"/>
+      <c r="T35" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="U35" s="23"/>
-      <c r="V35" s="23"/>
-      <c r="W35" s="23"/>
-      <c r="X35" s="23"/>
-      <c r="Y35" s="23"/>
-      <c r="Z35" s="23"/>
-      <c r="AA35" s="23"/>
-      <c r="AB35" s="23"/>
-      <c r="AC35" s="23"/>
-      <c r="AD35" s="23"/>
-      <c r="AE35" s="23"/>
-      <c r="AF35" s="23"/>
-      <c r="AG35" s="23"/>
-      <c r="AH35" s="23"/>
-      <c r="AI35" s="23"/>
-      <c r="AJ35" s="23"/>
-      <c r="AK35" s="23"/>
-      <c r="AL35" s="23"/>
-      <c r="AM35" s="23"/>
-      <c r="AN35" s="23"/>
-      <c r="AO35" s="23"/>
-      <c r="AP35" s="23"/>
-      <c r="AQ35" s="23"/>
-      <c r="AR35" s="23"/>
-      <c r="AS35" s="23"/>
+      <c r="U35" s="36"/>
+      <c r="V35" s="36"/>
+      <c r="W35" s="36"/>
+      <c r="X35" s="36"/>
+      <c r="Y35" s="36"/>
+      <c r="Z35" s="36"/>
+      <c r="AA35" s="36"/>
+      <c r="AB35" s="36"/>
+      <c r="AC35" s="36"/>
+      <c r="AD35" s="36"/>
+      <c r="AE35" s="36"/>
+      <c r="AF35" s="36"/>
+      <c r="AG35" s="36"/>
+      <c r="AH35" s="36"/>
+      <c r="AI35" s="36"/>
+      <c r="AJ35" s="36"/>
+      <c r="AK35" s="36"/>
+      <c r="AL35" s="36"/>
+      <c r="AM35" s="36"/>
+      <c r="AN35" s="36"/>
+      <c r="AO35" s="36"/>
+      <c r="AP35" s="36"/>
+      <c r="AQ35" s="36"/>
+      <c r="AR35" s="36"/>
+      <c r="AS35" s="36"/>
     </row>
     <row r="36" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="25" t="s">
+      <c r="A36" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="26"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="22"/>
-      <c r="J36" s="22"/>
-      <c r="K36" s="22"/>
-      <c r="L36" s="22"/>
-      <c r="M36" s="22"/>
-      <c r="N36" s="22"/>
-      <c r="O36" s="22"/>
-      <c r="P36" s="22"/>
-      <c r="Q36" s="22"/>
-      <c r="R36" s="22"/>
-      <c r="S36" s="22"/>
-      <c r="T36" s="24"/>
-      <c r="U36" s="24"/>
-      <c r="V36" s="24"/>
-      <c r="W36" s="24"/>
-      <c r="X36" s="24"/>
-      <c r="Y36" s="24"/>
-      <c r="Z36" s="24"/>
-      <c r="AA36" s="24"/>
-      <c r="AB36" s="24"/>
-      <c r="AC36" s="24"/>
-      <c r="AD36" s="24"/>
-      <c r="AE36" s="24"/>
-      <c r="AF36" s="24"/>
-      <c r="AG36" s="24"/>
-      <c r="AH36" s="24"/>
-      <c r="AI36" s="24"/>
-      <c r="AJ36" s="24"/>
-      <c r="AK36" s="24"/>
-      <c r="AL36" s="24"/>
-      <c r="AM36" s="24"/>
-      <c r="AN36" s="24"/>
-      <c r="AO36" s="24"/>
-      <c r="AP36" s="24"/>
-      <c r="AQ36" s="24"/>
-      <c r="AR36" s="24"/>
-      <c r="AS36" s="24"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="37"/>
+      <c r="I36" s="37"/>
+      <c r="J36" s="37"/>
+      <c r="K36" s="37"/>
+      <c r="L36" s="37"/>
+      <c r="M36" s="37"/>
+      <c r="N36" s="37"/>
+      <c r="O36" s="37"/>
+      <c r="P36" s="37"/>
+      <c r="Q36" s="37"/>
+      <c r="R36" s="37"/>
+      <c r="S36" s="37"/>
+      <c r="T36" s="47"/>
+      <c r="U36" s="47"/>
+      <c r="V36" s="47"/>
+      <c r="W36" s="47"/>
+      <c r="X36" s="47"/>
+      <c r="Y36" s="47"/>
+      <c r="Z36" s="47"/>
+      <c r="AA36" s="47"/>
+      <c r="AB36" s="47"/>
+      <c r="AC36" s="47"/>
+      <c r="AD36" s="47"/>
+      <c r="AE36" s="47"/>
+      <c r="AF36" s="47"/>
+      <c r="AG36" s="47"/>
+      <c r="AH36" s="47"/>
+      <c r="AI36" s="47"/>
+      <c r="AJ36" s="47"/>
+      <c r="AK36" s="47"/>
+      <c r="AL36" s="47"/>
+      <c r="AM36" s="47"/>
+      <c r="AN36" s="47"/>
+      <c r="AO36" s="47"/>
+      <c r="AP36" s="47"/>
+      <c r="AQ36" s="47"/>
+      <c r="AR36" s="47"/>
+      <c r="AS36" s="47"/>
     </row>
     <row r="37" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="25" t="s">
+      <c r="A37" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="26"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="22"/>
-      <c r="J37" s="22"/>
-      <c r="K37" s="22"/>
-      <c r="L37" s="22"/>
-      <c r="M37" s="22"/>
-      <c r="N37" s="22"/>
-      <c r="O37" s="22"/>
-      <c r="P37" s="22"/>
-      <c r="Q37" s="22"/>
-      <c r="R37" s="22"/>
-      <c r="S37" s="22"/>
-      <c r="T37" s="24"/>
-      <c r="U37" s="24"/>
-      <c r="V37" s="24"/>
-      <c r="W37" s="24"/>
-      <c r="X37" s="24"/>
-      <c r="Y37" s="24"/>
-      <c r="Z37" s="24"/>
-      <c r="AA37" s="24"/>
-      <c r="AB37" s="24"/>
-      <c r="AC37" s="24"/>
-      <c r="AD37" s="24"/>
-      <c r="AE37" s="24"/>
-      <c r="AF37" s="24"/>
-      <c r="AG37" s="24"/>
-      <c r="AH37" s="24"/>
-      <c r="AI37" s="24"/>
-      <c r="AJ37" s="24"/>
-      <c r="AK37" s="24"/>
-      <c r="AL37" s="24"/>
-      <c r="AM37" s="24"/>
-      <c r="AN37" s="24"/>
-      <c r="AO37" s="24"/>
-      <c r="AP37" s="24"/>
-      <c r="AQ37" s="24"/>
-      <c r="AR37" s="24"/>
-      <c r="AS37" s="24"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="37"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="37"/>
+      <c r="K37" s="37"/>
+      <c r="L37" s="37"/>
+      <c r="M37" s="37"/>
+      <c r="N37" s="37"/>
+      <c r="O37" s="37"/>
+      <c r="P37" s="37"/>
+      <c r="Q37" s="37"/>
+      <c r="R37" s="37"/>
+      <c r="S37" s="37"/>
+      <c r="T37" s="47"/>
+      <c r="U37" s="47"/>
+      <c r="V37" s="47"/>
+      <c r="W37" s="47"/>
+      <c r="X37" s="47"/>
+      <c r="Y37" s="47"/>
+      <c r="Z37" s="47"/>
+      <c r="AA37" s="47"/>
+      <c r="AB37" s="47"/>
+      <c r="AC37" s="47"/>
+      <c r="AD37" s="47"/>
+      <c r="AE37" s="47"/>
+      <c r="AF37" s="47"/>
+      <c r="AG37" s="47"/>
+      <c r="AH37" s="47"/>
+      <c r="AI37" s="47"/>
+      <c r="AJ37" s="47"/>
+      <c r="AK37" s="47"/>
+      <c r="AL37" s="47"/>
+      <c r="AM37" s="47"/>
+      <c r="AN37" s="47"/>
+      <c r="AO37" s="47"/>
+      <c r="AP37" s="47"/>
+      <c r="AQ37" s="47"/>
+      <c r="AR37" s="47"/>
+      <c r="AS37" s="47"/>
     </row>
     <row r="38" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="28" t="s">
+      <c r="A38" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="B38" s="29"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="22"/>
-      <c r="J38" s="22"/>
-      <c r="K38" s="22"/>
-      <c r="L38" s="22"/>
-      <c r="M38" s="22"/>
-      <c r="N38" s="22"/>
-      <c r="O38" s="22"/>
-      <c r="P38" s="22"/>
-      <c r="Q38" s="22"/>
-      <c r="R38" s="22"/>
-      <c r="S38" s="22"/>
-      <c r="T38" s="24"/>
-      <c r="U38" s="24"/>
-      <c r="V38" s="24"/>
-      <c r="W38" s="24"/>
-      <c r="X38" s="24"/>
-      <c r="Y38" s="24"/>
-      <c r="Z38" s="24"/>
-      <c r="AA38" s="24"/>
-      <c r="AB38" s="24"/>
-      <c r="AC38" s="24"/>
-      <c r="AD38" s="24"/>
-      <c r="AE38" s="24"/>
-      <c r="AF38" s="24"/>
-      <c r="AG38" s="24"/>
-      <c r="AH38" s="24"/>
-      <c r="AI38" s="24"/>
-      <c r="AJ38" s="24"/>
-      <c r="AK38" s="24"/>
-      <c r="AL38" s="24"/>
-      <c r="AM38" s="24"/>
-      <c r="AN38" s="24"/>
-      <c r="AO38" s="24"/>
-      <c r="AP38" s="24"/>
-      <c r="AQ38" s="24"/>
-      <c r="AR38" s="24"/>
-      <c r="AS38" s="24"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="37"/>
+      <c r="K38" s="37"/>
+      <c r="L38" s="37"/>
+      <c r="M38" s="37"/>
+      <c r="N38" s="37"/>
+      <c r="O38" s="37"/>
+      <c r="P38" s="37"/>
+      <c r="Q38" s="37"/>
+      <c r="R38" s="37"/>
+      <c r="S38" s="37"/>
+      <c r="T38" s="47"/>
+      <c r="U38" s="47"/>
+      <c r="V38" s="47"/>
+      <c r="W38" s="47"/>
+      <c r="X38" s="47"/>
+      <c r="Y38" s="47"/>
+      <c r="Z38" s="47"/>
+      <c r="AA38" s="47"/>
+      <c r="AB38" s="47"/>
+      <c r="AC38" s="47"/>
+      <c r="AD38" s="47"/>
+      <c r="AE38" s="47"/>
+      <c r="AF38" s="47"/>
+      <c r="AG38" s="47"/>
+      <c r="AH38" s="47"/>
+      <c r="AI38" s="47"/>
+      <c r="AJ38" s="47"/>
+      <c r="AK38" s="47"/>
+      <c r="AL38" s="47"/>
+      <c r="AM38" s="47"/>
+      <c r="AN38" s="47"/>
+      <c r="AO38" s="47"/>
+      <c r="AP38" s="47"/>
+      <c r="AQ38" s="47"/>
+      <c r="AR38" s="47"/>
+      <c r="AS38" s="47"/>
     </row>
     <row r="39" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="25" t="s">
+      <c r="A39" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="26"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="22"/>
-      <c r="I39" s="22"/>
-      <c r="J39" s="22"/>
-      <c r="K39" s="22"/>
-      <c r="L39" s="22"/>
-      <c r="M39" s="22"/>
-      <c r="N39" s="22"/>
-      <c r="O39" s="22"/>
-      <c r="P39" s="22"/>
-      <c r="Q39" s="22"/>
-      <c r="R39" s="22"/>
-      <c r="S39" s="22"/>
-      <c r="T39" s="24"/>
-      <c r="U39" s="24"/>
-      <c r="V39" s="24"/>
-      <c r="W39" s="24"/>
-      <c r="X39" s="24"/>
-      <c r="Y39" s="24"/>
-      <c r="Z39" s="24"/>
-      <c r="AA39" s="24"/>
-      <c r="AB39" s="24"/>
-      <c r="AC39" s="24"/>
-      <c r="AD39" s="24"/>
-      <c r="AE39" s="24"/>
-      <c r="AF39" s="24"/>
-      <c r="AG39" s="24"/>
-      <c r="AH39" s="24"/>
-      <c r="AI39" s="24"/>
-      <c r="AJ39" s="24"/>
-      <c r="AK39" s="24"/>
-      <c r="AL39" s="24"/>
-      <c r="AM39" s="24"/>
-      <c r="AN39" s="24"/>
-      <c r="AO39" s="24"/>
-      <c r="AP39" s="24"/>
-      <c r="AQ39" s="24"/>
-      <c r="AR39" s="24"/>
-      <c r="AS39" s="24"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="37"/>
+      <c r="K39" s="37"/>
+      <c r="L39" s="37"/>
+      <c r="M39" s="37"/>
+      <c r="N39" s="37"/>
+      <c r="O39" s="37"/>
+      <c r="P39" s="37"/>
+      <c r="Q39" s="37"/>
+      <c r="R39" s="37"/>
+      <c r="S39" s="37"/>
+      <c r="T39" s="47"/>
+      <c r="U39" s="47"/>
+      <c r="V39" s="47"/>
+      <c r="W39" s="47"/>
+      <c r="X39" s="47"/>
+      <c r="Y39" s="47"/>
+      <c r="Z39" s="47"/>
+      <c r="AA39" s="47"/>
+      <c r="AB39" s="47"/>
+      <c r="AC39" s="47"/>
+      <c r="AD39" s="47"/>
+      <c r="AE39" s="47"/>
+      <c r="AF39" s="47"/>
+      <c r="AG39" s="47"/>
+      <c r="AH39" s="47"/>
+      <c r="AI39" s="47"/>
+      <c r="AJ39" s="47"/>
+      <c r="AK39" s="47"/>
+      <c r="AL39" s="47"/>
+      <c r="AM39" s="47"/>
+      <c r="AN39" s="47"/>
+      <c r="AO39" s="47"/>
+      <c r="AP39" s="47"/>
+      <c r="AQ39" s="47"/>
+      <c r="AR39" s="47"/>
+      <c r="AS39" s="47"/>
     </row>
     <row r="40" spans="1:45" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="41" spans="1:45" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -3280,6 +3295,26 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="31">
+    <mergeCell ref="M36:S36"/>
+    <mergeCell ref="M37:S37"/>
+    <mergeCell ref="M38:S38"/>
+    <mergeCell ref="M39:S39"/>
+    <mergeCell ref="T35:AS35"/>
+    <mergeCell ref="T36:AS36"/>
+    <mergeCell ref="T37:AS37"/>
+    <mergeCell ref="T38:AS38"/>
+    <mergeCell ref="T39:AS39"/>
+    <mergeCell ref="M35:S35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="D35:L35"/>
+    <mergeCell ref="D36:L36"/>
+    <mergeCell ref="D37:L37"/>
+    <mergeCell ref="D38:L38"/>
+    <mergeCell ref="D39:L39"/>
     <mergeCell ref="AJ4:AS4"/>
     <mergeCell ref="A1:F4"/>
     <mergeCell ref="AF1:AI1"/>
@@ -3291,26 +3326,6 @@
     <mergeCell ref="AF4:AI4"/>
     <mergeCell ref="G1:AE1"/>
     <mergeCell ref="G2:AE4"/>
-    <mergeCell ref="D35:L35"/>
-    <mergeCell ref="D36:L36"/>
-    <mergeCell ref="D37:L37"/>
-    <mergeCell ref="D38:L38"/>
-    <mergeCell ref="D39:L39"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="M36:S36"/>
-    <mergeCell ref="M37:S37"/>
-    <mergeCell ref="M38:S38"/>
-    <mergeCell ref="M39:S39"/>
-    <mergeCell ref="T35:AS35"/>
-    <mergeCell ref="T36:AS36"/>
-    <mergeCell ref="T37:AS37"/>
-    <mergeCell ref="T38:AS38"/>
-    <mergeCell ref="T39:AS39"/>
-    <mergeCell ref="M35:S35"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3333,206 +3348,206 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="46" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
-      <c r="U1" s="46"/>
-      <c r="V1" s="46"/>
-      <c r="W1" s="46"/>
-      <c r="X1" s="46"/>
-      <c r="Y1" s="46"/>
-      <c r="Z1" s="46"/>
-      <c r="AA1" s="46"/>
-      <c r="AB1" s="46"/>
-      <c r="AC1" s="46"/>
-      <c r="AD1" s="46"/>
-      <c r="AE1" s="46"/>
-      <c r="AF1" s="45" t="s">
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="AG1" s="45"/>
-      <c r="AH1" s="45"/>
-      <c r="AI1" s="45"/>
-      <c r="AJ1" s="35"/>
-      <c r="AK1" s="35"/>
-      <c r="AL1" s="35"/>
-      <c r="AM1" s="35"/>
-      <c r="AN1" s="35"/>
-      <c r="AO1" s="35"/>
-      <c r="AP1" s="35"/>
-      <c r="AQ1" s="35"/>
-      <c r="AR1" s="35"/>
-      <c r="AS1" s="35"/>
+      <c r="AG1" s="33"/>
+      <c r="AH1" s="33"/>
+      <c r="AI1" s="33"/>
+      <c r="AJ1" s="23"/>
+      <c r="AK1" s="23"/>
+      <c r="AL1" s="23"/>
+      <c r="AM1" s="23"/>
+      <c r="AN1" s="23"/>
+      <c r="AO1" s="23"/>
+      <c r="AP1" s="23"/>
+      <c r="AQ1" s="23"/>
+      <c r="AR1" s="23"/>
+      <c r="AS1" s="23"/>
     </row>
     <row r="2" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="39"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="47" t="s">
+      <c r="A2" s="27"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47"/>
-      <c r="U2" s="47"/>
-      <c r="V2" s="47"/>
-      <c r="W2" s="47"/>
-      <c r="X2" s="47"/>
-      <c r="Y2" s="47"/>
-      <c r="Z2" s="47"/>
-      <c r="AA2" s="47"/>
-      <c r="AB2" s="47"/>
-      <c r="AC2" s="47"/>
-      <c r="AD2" s="47"/>
-      <c r="AE2" s="47"/>
-      <c r="AF2" s="45" t="s">
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="35"/>
+      <c r="V2" s="35"/>
+      <c r="W2" s="35"/>
+      <c r="X2" s="35"/>
+      <c r="Y2" s="35"/>
+      <c r="Z2" s="35"/>
+      <c r="AA2" s="35"/>
+      <c r="AB2" s="35"/>
+      <c r="AC2" s="35"/>
+      <c r="AD2" s="35"/>
+      <c r="AE2" s="35"/>
+      <c r="AF2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="45"/>
-      <c r="AH2" s="45"/>
-      <c r="AI2" s="45"/>
-      <c r="AJ2" s="34"/>
-      <c r="AK2" s="35"/>
-      <c r="AL2" s="35"/>
-      <c r="AM2" s="35"/>
-      <c r="AN2" s="35"/>
-      <c r="AO2" s="35"/>
-      <c r="AP2" s="35"/>
-      <c r="AQ2" s="35"/>
-      <c r="AR2" s="35"/>
-      <c r="AS2" s="35"/>
+      <c r="AG2" s="33"/>
+      <c r="AH2" s="33"/>
+      <c r="AI2" s="33"/>
+      <c r="AJ2" s="22"/>
+      <c r="AK2" s="23"/>
+      <c r="AL2" s="23"/>
+      <c r="AM2" s="23"/>
+      <c r="AN2" s="23"/>
+      <c r="AO2" s="23"/>
+      <c r="AP2" s="23"/>
+      <c r="AQ2" s="23"/>
+      <c r="AR2" s="23"/>
+      <c r="AS2" s="23"/>
     </row>
     <row r="3" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="39"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="47"/>
-      <c r="R3" s="47"/>
-      <c r="S3" s="47"/>
-      <c r="T3" s="47"/>
-      <c r="U3" s="47"/>
-      <c r="V3" s="47"/>
-      <c r="W3" s="47"/>
-      <c r="X3" s="47"/>
-      <c r="Y3" s="47"/>
-      <c r="Z3" s="47"/>
-      <c r="AA3" s="47"/>
-      <c r="AB3" s="47"/>
-      <c r="AC3" s="47"/>
-      <c r="AD3" s="47"/>
-      <c r="AE3" s="47"/>
-      <c r="AF3" s="45" t="s">
+      <c r="A3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="35"/>
+      <c r="S3" s="35"/>
+      <c r="T3" s="35"/>
+      <c r="U3" s="35"/>
+      <c r="V3" s="35"/>
+      <c r="W3" s="35"/>
+      <c r="X3" s="35"/>
+      <c r="Y3" s="35"/>
+      <c r="Z3" s="35"/>
+      <c r="AA3" s="35"/>
+      <c r="AB3" s="35"/>
+      <c r="AC3" s="35"/>
+      <c r="AD3" s="35"/>
+      <c r="AE3" s="35"/>
+      <c r="AF3" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="45"/>
-      <c r="AH3" s="45"/>
-      <c r="AI3" s="45"/>
-      <c r="AJ3" s="35"/>
-      <c r="AK3" s="35"/>
-      <c r="AL3" s="35"/>
-      <c r="AM3" s="35"/>
-      <c r="AN3" s="35"/>
-      <c r="AO3" s="35"/>
-      <c r="AP3" s="35"/>
-      <c r="AQ3" s="35"/>
-      <c r="AR3" s="35"/>
-      <c r="AS3" s="35"/>
+      <c r="AG3" s="33"/>
+      <c r="AH3" s="33"/>
+      <c r="AI3" s="33"/>
+      <c r="AJ3" s="23"/>
+      <c r="AK3" s="23"/>
+      <c r="AL3" s="23"/>
+      <c r="AM3" s="23"/>
+      <c r="AN3" s="23"/>
+      <c r="AO3" s="23"/>
+      <c r="AP3" s="23"/>
+      <c r="AQ3" s="23"/>
+      <c r="AR3" s="23"/>
+      <c r="AS3" s="23"/>
     </row>
     <row r="4" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="42"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="47"/>
-      <c r="S4" s="47"/>
-      <c r="T4" s="47"/>
-      <c r="U4" s="47"/>
-      <c r="V4" s="47"/>
-      <c r="W4" s="47"/>
-      <c r="X4" s="47"/>
-      <c r="Y4" s="47"/>
-      <c r="Z4" s="47"/>
-      <c r="AA4" s="47"/>
-      <c r="AB4" s="47"/>
-      <c r="AC4" s="47"/>
-      <c r="AD4" s="47"/>
-      <c r="AE4" s="47"/>
-      <c r="AF4" s="45" t="s">
+      <c r="A4" s="30"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="35"/>
+      <c r="T4" s="35"/>
+      <c r="U4" s="35"/>
+      <c r="V4" s="35"/>
+      <c r="W4" s="35"/>
+      <c r="X4" s="35"/>
+      <c r="Y4" s="35"/>
+      <c r="Z4" s="35"/>
+      <c r="AA4" s="35"/>
+      <c r="AB4" s="35"/>
+      <c r="AC4" s="35"/>
+      <c r="AD4" s="35"/>
+      <c r="AE4" s="35"/>
+      <c r="AF4" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="AG4" s="45"/>
-      <c r="AH4" s="45"/>
-      <c r="AI4" s="45"/>
-      <c r="AJ4" s="34"/>
-      <c r="AK4" s="35"/>
-      <c r="AL4" s="35"/>
-      <c r="AM4" s="35"/>
-      <c r="AN4" s="35"/>
-      <c r="AO4" s="35"/>
-      <c r="AP4" s="35"/>
-      <c r="AQ4" s="35"/>
-      <c r="AR4" s="35"/>
-      <c r="AS4" s="35"/>
+      <c r="AG4" s="33"/>
+      <c r="AH4" s="33"/>
+      <c r="AI4" s="33"/>
+      <c r="AJ4" s="22"/>
+      <c r="AK4" s="23"/>
+      <c r="AL4" s="23"/>
+      <c r="AM4" s="23"/>
+      <c r="AN4" s="23"/>
+      <c r="AO4" s="23"/>
+      <c r="AP4" s="23"/>
+      <c r="AQ4" s="23"/>
+      <c r="AR4" s="23"/>
+      <c r="AS4" s="23"/>
     </row>
     <row r="5" spans="1:45" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
@@ -4661,255 +4676,255 @@
       <c r="AH34" s="1"/>
     </row>
     <row r="35" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="31" t="s">
+      <c r="A35" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="32"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="23" t="s">
+      <c r="B35" s="45"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23"/>
-      <c r="K35" s="23"/>
-      <c r="L35" s="23"/>
-      <c r="M35" s="23" t="s">
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="36"/>
+      <c r="L35" s="36"/>
+      <c r="M35" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="N35" s="23"/>
-      <c r="O35" s="23"/>
-      <c r="P35" s="23"/>
-      <c r="Q35" s="23"/>
-      <c r="R35" s="23"/>
-      <c r="S35" s="23"/>
-      <c r="T35" s="23" t="s">
+      <c r="N35" s="36"/>
+      <c r="O35" s="36"/>
+      <c r="P35" s="36"/>
+      <c r="Q35" s="36"/>
+      <c r="R35" s="36"/>
+      <c r="S35" s="36"/>
+      <c r="T35" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="U35" s="23"/>
-      <c r="V35" s="23"/>
-      <c r="W35" s="23"/>
-      <c r="X35" s="23"/>
-      <c r="Y35" s="23"/>
-      <c r="Z35" s="23"/>
-      <c r="AA35" s="23"/>
-      <c r="AB35" s="23"/>
-      <c r="AC35" s="23"/>
-      <c r="AD35" s="23"/>
-      <c r="AE35" s="23"/>
-      <c r="AF35" s="23"/>
-      <c r="AG35" s="23"/>
-      <c r="AH35" s="23"/>
-      <c r="AI35" s="23"/>
-      <c r="AJ35" s="23"/>
-      <c r="AK35" s="23"/>
-      <c r="AL35" s="23"/>
-      <c r="AM35" s="23"/>
-      <c r="AN35" s="23"/>
-      <c r="AO35" s="23"/>
-      <c r="AP35" s="23"/>
-      <c r="AQ35" s="23"/>
-      <c r="AR35" s="23"/>
-      <c r="AS35" s="23"/>
+      <c r="U35" s="36"/>
+      <c r="V35" s="36"/>
+      <c r="W35" s="36"/>
+      <c r="X35" s="36"/>
+      <c r="Y35" s="36"/>
+      <c r="Z35" s="36"/>
+      <c r="AA35" s="36"/>
+      <c r="AB35" s="36"/>
+      <c r="AC35" s="36"/>
+      <c r="AD35" s="36"/>
+      <c r="AE35" s="36"/>
+      <c r="AF35" s="36"/>
+      <c r="AG35" s="36"/>
+      <c r="AH35" s="36"/>
+      <c r="AI35" s="36"/>
+      <c r="AJ35" s="36"/>
+      <c r="AK35" s="36"/>
+      <c r="AL35" s="36"/>
+      <c r="AM35" s="36"/>
+      <c r="AN35" s="36"/>
+      <c r="AO35" s="36"/>
+      <c r="AP35" s="36"/>
+      <c r="AQ35" s="36"/>
+      <c r="AR35" s="36"/>
+      <c r="AS35" s="36"/>
     </row>
     <row r="36" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="25" t="s">
+      <c r="A36" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="26"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="22"/>
-      <c r="J36" s="22"/>
-      <c r="K36" s="22"/>
-      <c r="L36" s="22"/>
-      <c r="M36" s="22"/>
-      <c r="N36" s="22"/>
-      <c r="O36" s="22"/>
-      <c r="P36" s="22"/>
-      <c r="Q36" s="22"/>
-      <c r="R36" s="22"/>
-      <c r="S36" s="22"/>
-      <c r="T36" s="24"/>
-      <c r="U36" s="24"/>
-      <c r="V36" s="24"/>
-      <c r="W36" s="24"/>
-      <c r="X36" s="24"/>
-      <c r="Y36" s="24"/>
-      <c r="Z36" s="24"/>
-      <c r="AA36" s="24"/>
-      <c r="AB36" s="24"/>
-      <c r="AC36" s="24"/>
-      <c r="AD36" s="24"/>
-      <c r="AE36" s="24"/>
-      <c r="AF36" s="24"/>
-      <c r="AG36" s="24"/>
-      <c r="AH36" s="24"/>
-      <c r="AI36" s="24"/>
-      <c r="AJ36" s="24"/>
-      <c r="AK36" s="24"/>
-      <c r="AL36" s="24"/>
-      <c r="AM36" s="24"/>
-      <c r="AN36" s="24"/>
-      <c r="AO36" s="24"/>
-      <c r="AP36" s="24"/>
-      <c r="AQ36" s="24"/>
-      <c r="AR36" s="24"/>
-      <c r="AS36" s="24"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="37"/>
+      <c r="I36" s="37"/>
+      <c r="J36" s="37"/>
+      <c r="K36" s="37"/>
+      <c r="L36" s="37"/>
+      <c r="M36" s="37"/>
+      <c r="N36" s="37"/>
+      <c r="O36" s="37"/>
+      <c r="P36" s="37"/>
+      <c r="Q36" s="37"/>
+      <c r="R36" s="37"/>
+      <c r="S36" s="37"/>
+      <c r="T36" s="47"/>
+      <c r="U36" s="47"/>
+      <c r="V36" s="47"/>
+      <c r="W36" s="47"/>
+      <c r="X36" s="47"/>
+      <c r="Y36" s="47"/>
+      <c r="Z36" s="47"/>
+      <c r="AA36" s="47"/>
+      <c r="AB36" s="47"/>
+      <c r="AC36" s="47"/>
+      <c r="AD36" s="47"/>
+      <c r="AE36" s="47"/>
+      <c r="AF36" s="47"/>
+      <c r="AG36" s="47"/>
+      <c r="AH36" s="47"/>
+      <c r="AI36" s="47"/>
+      <c r="AJ36" s="47"/>
+      <c r="AK36" s="47"/>
+      <c r="AL36" s="47"/>
+      <c r="AM36" s="47"/>
+      <c r="AN36" s="47"/>
+      <c r="AO36" s="47"/>
+      <c r="AP36" s="47"/>
+      <c r="AQ36" s="47"/>
+      <c r="AR36" s="47"/>
+      <c r="AS36" s="47"/>
     </row>
     <row r="37" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="25" t="s">
+      <c r="A37" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="26"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="22"/>
-      <c r="J37" s="22"/>
-      <c r="K37" s="22"/>
-      <c r="L37" s="22"/>
-      <c r="M37" s="22"/>
-      <c r="N37" s="22"/>
-      <c r="O37" s="22"/>
-      <c r="P37" s="22"/>
-      <c r="Q37" s="22"/>
-      <c r="R37" s="22"/>
-      <c r="S37" s="22"/>
-      <c r="T37" s="24"/>
-      <c r="U37" s="24"/>
-      <c r="V37" s="24"/>
-      <c r="W37" s="24"/>
-      <c r="X37" s="24"/>
-      <c r="Y37" s="24"/>
-      <c r="Z37" s="24"/>
-      <c r="AA37" s="24"/>
-      <c r="AB37" s="24"/>
-      <c r="AC37" s="24"/>
-      <c r="AD37" s="24"/>
-      <c r="AE37" s="24"/>
-      <c r="AF37" s="24"/>
-      <c r="AG37" s="24"/>
-      <c r="AH37" s="24"/>
-      <c r="AI37" s="24"/>
-      <c r="AJ37" s="24"/>
-      <c r="AK37" s="24"/>
-      <c r="AL37" s="24"/>
-      <c r="AM37" s="24"/>
-      <c r="AN37" s="24"/>
-      <c r="AO37" s="24"/>
-      <c r="AP37" s="24"/>
-      <c r="AQ37" s="24"/>
-      <c r="AR37" s="24"/>
-      <c r="AS37" s="24"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="37"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="37"/>
+      <c r="K37" s="37"/>
+      <c r="L37" s="37"/>
+      <c r="M37" s="37"/>
+      <c r="N37" s="37"/>
+      <c r="O37" s="37"/>
+      <c r="P37" s="37"/>
+      <c r="Q37" s="37"/>
+      <c r="R37" s="37"/>
+      <c r="S37" s="37"/>
+      <c r="T37" s="47"/>
+      <c r="U37" s="47"/>
+      <c r="V37" s="47"/>
+      <c r="W37" s="47"/>
+      <c r="X37" s="47"/>
+      <c r="Y37" s="47"/>
+      <c r="Z37" s="47"/>
+      <c r="AA37" s="47"/>
+      <c r="AB37" s="47"/>
+      <c r="AC37" s="47"/>
+      <c r="AD37" s="47"/>
+      <c r="AE37" s="47"/>
+      <c r="AF37" s="47"/>
+      <c r="AG37" s="47"/>
+      <c r="AH37" s="47"/>
+      <c r="AI37" s="47"/>
+      <c r="AJ37" s="47"/>
+      <c r="AK37" s="47"/>
+      <c r="AL37" s="47"/>
+      <c r="AM37" s="47"/>
+      <c r="AN37" s="47"/>
+      <c r="AO37" s="47"/>
+      <c r="AP37" s="47"/>
+      <c r="AQ37" s="47"/>
+      <c r="AR37" s="47"/>
+      <c r="AS37" s="47"/>
     </row>
     <row r="38" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="28" t="s">
+      <c r="A38" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="B38" s="29"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="22"/>
-      <c r="J38" s="22"/>
-      <c r="K38" s="22"/>
-      <c r="L38" s="22"/>
-      <c r="M38" s="22"/>
-      <c r="N38" s="22"/>
-      <c r="O38" s="22"/>
-      <c r="P38" s="22"/>
-      <c r="Q38" s="22"/>
-      <c r="R38" s="22"/>
-      <c r="S38" s="22"/>
-      <c r="T38" s="24"/>
-      <c r="U38" s="24"/>
-      <c r="V38" s="24"/>
-      <c r="W38" s="24"/>
-      <c r="X38" s="24"/>
-      <c r="Y38" s="24"/>
-      <c r="Z38" s="24"/>
-      <c r="AA38" s="24"/>
-      <c r="AB38" s="24"/>
-      <c r="AC38" s="24"/>
-      <c r="AD38" s="24"/>
-      <c r="AE38" s="24"/>
-      <c r="AF38" s="24"/>
-      <c r="AG38" s="24"/>
-      <c r="AH38" s="24"/>
-      <c r="AI38" s="24"/>
-      <c r="AJ38" s="24"/>
-      <c r="AK38" s="24"/>
-      <c r="AL38" s="24"/>
-      <c r="AM38" s="24"/>
-      <c r="AN38" s="24"/>
-      <c r="AO38" s="24"/>
-      <c r="AP38" s="24"/>
-      <c r="AQ38" s="24"/>
-      <c r="AR38" s="24"/>
-      <c r="AS38" s="24"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="37"/>
+      <c r="K38" s="37"/>
+      <c r="L38" s="37"/>
+      <c r="M38" s="37"/>
+      <c r="N38" s="37"/>
+      <c r="O38" s="37"/>
+      <c r="P38" s="37"/>
+      <c r="Q38" s="37"/>
+      <c r="R38" s="37"/>
+      <c r="S38" s="37"/>
+      <c r="T38" s="47"/>
+      <c r="U38" s="47"/>
+      <c r="V38" s="47"/>
+      <c r="W38" s="47"/>
+      <c r="X38" s="47"/>
+      <c r="Y38" s="47"/>
+      <c r="Z38" s="47"/>
+      <c r="AA38" s="47"/>
+      <c r="AB38" s="47"/>
+      <c r="AC38" s="47"/>
+      <c r="AD38" s="47"/>
+      <c r="AE38" s="47"/>
+      <c r="AF38" s="47"/>
+      <c r="AG38" s="47"/>
+      <c r="AH38" s="47"/>
+      <c r="AI38" s="47"/>
+      <c r="AJ38" s="47"/>
+      <c r="AK38" s="47"/>
+      <c r="AL38" s="47"/>
+      <c r="AM38" s="47"/>
+      <c r="AN38" s="47"/>
+      <c r="AO38" s="47"/>
+      <c r="AP38" s="47"/>
+      <c r="AQ38" s="47"/>
+      <c r="AR38" s="47"/>
+      <c r="AS38" s="47"/>
     </row>
     <row r="39" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="25" t="s">
+      <c r="A39" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="26"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="22"/>
-      <c r="I39" s="22"/>
-      <c r="J39" s="22"/>
-      <c r="K39" s="22"/>
-      <c r="L39" s="22"/>
-      <c r="M39" s="22"/>
-      <c r="N39" s="22"/>
-      <c r="O39" s="22"/>
-      <c r="P39" s="22"/>
-      <c r="Q39" s="22"/>
-      <c r="R39" s="22"/>
-      <c r="S39" s="22"/>
-      <c r="T39" s="24"/>
-      <c r="U39" s="24"/>
-      <c r="V39" s="24"/>
-      <c r="W39" s="24"/>
-      <c r="X39" s="24"/>
-      <c r="Y39" s="24"/>
-      <c r="Z39" s="24"/>
-      <c r="AA39" s="24"/>
-      <c r="AB39" s="24"/>
-      <c r="AC39" s="24"/>
-      <c r="AD39" s="24"/>
-      <c r="AE39" s="24"/>
-      <c r="AF39" s="24"/>
-      <c r="AG39" s="24"/>
-      <c r="AH39" s="24"/>
-      <c r="AI39" s="24"/>
-      <c r="AJ39" s="24"/>
-      <c r="AK39" s="24"/>
-      <c r="AL39" s="24"/>
-      <c r="AM39" s="24"/>
-      <c r="AN39" s="24"/>
-      <c r="AO39" s="24"/>
-      <c r="AP39" s="24"/>
-      <c r="AQ39" s="24"/>
-      <c r="AR39" s="24"/>
-      <c r="AS39" s="24"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="37"/>
+      <c r="K39" s="37"/>
+      <c r="L39" s="37"/>
+      <c r="M39" s="37"/>
+      <c r="N39" s="37"/>
+      <c r="O39" s="37"/>
+      <c r="P39" s="37"/>
+      <c r="Q39" s="37"/>
+      <c r="R39" s="37"/>
+      <c r="S39" s="37"/>
+      <c r="T39" s="47"/>
+      <c r="U39" s="47"/>
+      <c r="V39" s="47"/>
+      <c r="W39" s="47"/>
+      <c r="X39" s="47"/>
+      <c r="Y39" s="47"/>
+      <c r="Z39" s="47"/>
+      <c r="AA39" s="47"/>
+      <c r="AB39" s="47"/>
+      <c r="AC39" s="47"/>
+      <c r="AD39" s="47"/>
+      <c r="AE39" s="47"/>
+      <c r="AF39" s="47"/>
+      <c r="AG39" s="47"/>
+      <c r="AH39" s="47"/>
+      <c r="AI39" s="47"/>
+      <c r="AJ39" s="47"/>
+      <c r="AK39" s="47"/>
+      <c r="AL39" s="47"/>
+      <c r="AM39" s="47"/>
+      <c r="AN39" s="47"/>
+      <c r="AO39" s="47"/>
+      <c r="AP39" s="47"/>
+      <c r="AQ39" s="47"/>
+      <c r="AR39" s="47"/>
+      <c r="AS39" s="47"/>
     </row>
     <row r="40" spans="1:45" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="41" spans="1:45" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5024,23 +5039,6 @@
     <row r="142" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="D39:L39"/>
-    <mergeCell ref="M39:S39"/>
-    <mergeCell ref="T39:AS39"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="D37:L37"/>
-    <mergeCell ref="M37:S37"/>
-    <mergeCell ref="T37:AS37"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="D38:L38"/>
-    <mergeCell ref="M38:S38"/>
-    <mergeCell ref="T38:AS38"/>
-    <mergeCell ref="AJ4:AS4"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="D35:L35"/>
-    <mergeCell ref="M35:S35"/>
-    <mergeCell ref="T35:AS35"/>
     <mergeCell ref="A36:C36"/>
     <mergeCell ref="D36:L36"/>
     <mergeCell ref="M36:S36"/>
@@ -5055,6 +5053,23 @@
     <mergeCell ref="AF3:AI3"/>
     <mergeCell ref="AJ3:AS3"/>
     <mergeCell ref="AF4:AI4"/>
+    <mergeCell ref="AJ4:AS4"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="D35:L35"/>
+    <mergeCell ref="M35:S35"/>
+    <mergeCell ref="T35:AS35"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="D39:L39"/>
+    <mergeCell ref="M39:S39"/>
+    <mergeCell ref="T39:AS39"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="D37:L37"/>
+    <mergeCell ref="M37:S37"/>
+    <mergeCell ref="T37:AS37"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="D38:L38"/>
+    <mergeCell ref="M38:S38"/>
+    <mergeCell ref="T38:AS38"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5077,206 +5092,206 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="46" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
-      <c r="U1" s="46"/>
-      <c r="V1" s="46"/>
-      <c r="W1" s="46"/>
-      <c r="X1" s="46"/>
-      <c r="Y1" s="46"/>
-      <c r="Z1" s="46"/>
-      <c r="AA1" s="46"/>
-      <c r="AB1" s="46"/>
-      <c r="AC1" s="46"/>
-      <c r="AD1" s="46"/>
-      <c r="AE1" s="46"/>
-      <c r="AF1" s="45" t="s">
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="AG1" s="45"/>
-      <c r="AH1" s="45"/>
-      <c r="AI1" s="45"/>
-      <c r="AJ1" s="35"/>
-      <c r="AK1" s="35"/>
-      <c r="AL1" s="35"/>
-      <c r="AM1" s="35"/>
-      <c r="AN1" s="35"/>
-      <c r="AO1" s="35"/>
-      <c r="AP1" s="35"/>
-      <c r="AQ1" s="35"/>
-      <c r="AR1" s="35"/>
-      <c r="AS1" s="35"/>
+      <c r="AG1" s="33"/>
+      <c r="AH1" s="33"/>
+      <c r="AI1" s="33"/>
+      <c r="AJ1" s="23"/>
+      <c r="AK1" s="23"/>
+      <c r="AL1" s="23"/>
+      <c r="AM1" s="23"/>
+      <c r="AN1" s="23"/>
+      <c r="AO1" s="23"/>
+      <c r="AP1" s="23"/>
+      <c r="AQ1" s="23"/>
+      <c r="AR1" s="23"/>
+      <c r="AS1" s="23"/>
     </row>
     <row r="2" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="39"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="47" t="s">
-        <v>17</v>
+      <c r="A2" s="27"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="35" t="s">
+        <v>22</v>
       </c>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47"/>
-      <c r="U2" s="47"/>
-      <c r="V2" s="47"/>
-      <c r="W2" s="47"/>
-      <c r="X2" s="47"/>
-      <c r="Y2" s="47"/>
-      <c r="Z2" s="47"/>
-      <c r="AA2" s="47"/>
-      <c r="AB2" s="47"/>
-      <c r="AC2" s="47"/>
-      <c r="AD2" s="47"/>
-      <c r="AE2" s="47"/>
-      <c r="AF2" s="45" t="s">
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="35"/>
+      <c r="V2" s="35"/>
+      <c r="W2" s="35"/>
+      <c r="X2" s="35"/>
+      <c r="Y2" s="35"/>
+      <c r="Z2" s="35"/>
+      <c r="AA2" s="35"/>
+      <c r="AB2" s="35"/>
+      <c r="AC2" s="35"/>
+      <c r="AD2" s="35"/>
+      <c r="AE2" s="35"/>
+      <c r="AF2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="45"/>
-      <c r="AH2" s="45"/>
-      <c r="AI2" s="45"/>
-      <c r="AJ2" s="34"/>
-      <c r="AK2" s="35"/>
-      <c r="AL2" s="35"/>
-      <c r="AM2" s="35"/>
-      <c r="AN2" s="35"/>
-      <c r="AO2" s="35"/>
-      <c r="AP2" s="35"/>
-      <c r="AQ2" s="35"/>
-      <c r="AR2" s="35"/>
-      <c r="AS2" s="35"/>
+      <c r="AG2" s="33"/>
+      <c r="AH2" s="33"/>
+      <c r="AI2" s="33"/>
+      <c r="AJ2" s="22"/>
+      <c r="AK2" s="23"/>
+      <c r="AL2" s="23"/>
+      <c r="AM2" s="23"/>
+      <c r="AN2" s="23"/>
+      <c r="AO2" s="23"/>
+      <c r="AP2" s="23"/>
+      <c r="AQ2" s="23"/>
+      <c r="AR2" s="23"/>
+      <c r="AS2" s="23"/>
     </row>
     <row r="3" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="39"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="47"/>
-      <c r="R3" s="47"/>
-      <c r="S3" s="47"/>
-      <c r="T3" s="47"/>
-      <c r="U3" s="47"/>
-      <c r="V3" s="47"/>
-      <c r="W3" s="47"/>
-      <c r="X3" s="47"/>
-      <c r="Y3" s="47"/>
-      <c r="Z3" s="47"/>
-      <c r="AA3" s="47"/>
-      <c r="AB3" s="47"/>
-      <c r="AC3" s="47"/>
-      <c r="AD3" s="47"/>
-      <c r="AE3" s="47"/>
-      <c r="AF3" s="45" t="s">
+      <c r="A3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="35"/>
+      <c r="S3" s="35"/>
+      <c r="T3" s="35"/>
+      <c r="U3" s="35"/>
+      <c r="V3" s="35"/>
+      <c r="W3" s="35"/>
+      <c r="X3" s="35"/>
+      <c r="Y3" s="35"/>
+      <c r="Z3" s="35"/>
+      <c r="AA3" s="35"/>
+      <c r="AB3" s="35"/>
+      <c r="AC3" s="35"/>
+      <c r="AD3" s="35"/>
+      <c r="AE3" s="35"/>
+      <c r="AF3" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="45"/>
-      <c r="AH3" s="45"/>
-      <c r="AI3" s="45"/>
-      <c r="AJ3" s="35"/>
-      <c r="AK3" s="35"/>
-      <c r="AL3" s="35"/>
-      <c r="AM3" s="35"/>
-      <c r="AN3" s="35"/>
-      <c r="AO3" s="35"/>
-      <c r="AP3" s="35"/>
-      <c r="AQ3" s="35"/>
-      <c r="AR3" s="35"/>
-      <c r="AS3" s="35"/>
+      <c r="AG3" s="33"/>
+      <c r="AH3" s="33"/>
+      <c r="AI3" s="33"/>
+      <c r="AJ3" s="23"/>
+      <c r="AK3" s="23"/>
+      <c r="AL3" s="23"/>
+      <c r="AM3" s="23"/>
+      <c r="AN3" s="23"/>
+      <c r="AO3" s="23"/>
+      <c r="AP3" s="23"/>
+      <c r="AQ3" s="23"/>
+      <c r="AR3" s="23"/>
+      <c r="AS3" s="23"/>
     </row>
     <row r="4" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="42"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="47"/>
-      <c r="S4" s="47"/>
-      <c r="T4" s="47"/>
-      <c r="U4" s="47"/>
-      <c r="V4" s="47"/>
-      <c r="W4" s="47"/>
-      <c r="X4" s="47"/>
-      <c r="Y4" s="47"/>
-      <c r="Z4" s="47"/>
-      <c r="AA4" s="47"/>
-      <c r="AB4" s="47"/>
-      <c r="AC4" s="47"/>
-      <c r="AD4" s="47"/>
-      <c r="AE4" s="47"/>
-      <c r="AF4" s="45" t="s">
+      <c r="A4" s="30"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="35"/>
+      <c r="T4" s="35"/>
+      <c r="U4" s="35"/>
+      <c r="V4" s="35"/>
+      <c r="W4" s="35"/>
+      <c r="X4" s="35"/>
+      <c r="Y4" s="35"/>
+      <c r="Z4" s="35"/>
+      <c r="AA4" s="35"/>
+      <c r="AB4" s="35"/>
+      <c r="AC4" s="35"/>
+      <c r="AD4" s="35"/>
+      <c r="AE4" s="35"/>
+      <c r="AF4" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="AG4" s="45"/>
-      <c r="AH4" s="45"/>
-      <c r="AI4" s="45"/>
-      <c r="AJ4" s="34"/>
-      <c r="AK4" s="35"/>
-      <c r="AL4" s="35"/>
-      <c r="AM4" s="35"/>
-      <c r="AN4" s="35"/>
-      <c r="AO4" s="35"/>
-      <c r="AP4" s="35"/>
-      <c r="AQ4" s="35"/>
-      <c r="AR4" s="35"/>
-      <c r="AS4" s="35"/>
+      <c r="AG4" s="33"/>
+      <c r="AH4" s="33"/>
+      <c r="AI4" s="33"/>
+      <c r="AJ4" s="22"/>
+      <c r="AK4" s="23"/>
+      <c r="AL4" s="23"/>
+      <c r="AM4" s="23"/>
+      <c r="AN4" s="23"/>
+      <c r="AO4" s="23"/>
+      <c r="AP4" s="23"/>
+      <c r="AQ4" s="23"/>
+      <c r="AR4" s="23"/>
+      <c r="AS4" s="23"/>
     </row>
     <row r="5" spans="1:45" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
@@ -6405,255 +6420,255 @@
       <c r="AH34" s="1"/>
     </row>
     <row r="35" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="31" t="s">
+      <c r="A35" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="32"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="23" t="s">
+      <c r="B35" s="45"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23"/>
-      <c r="K35" s="23"/>
-      <c r="L35" s="23"/>
-      <c r="M35" s="23" t="s">
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="36"/>
+      <c r="L35" s="36"/>
+      <c r="M35" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="N35" s="23"/>
-      <c r="O35" s="23"/>
-      <c r="P35" s="23"/>
-      <c r="Q35" s="23"/>
-      <c r="R35" s="23"/>
-      <c r="S35" s="23"/>
-      <c r="T35" s="23" t="s">
+      <c r="N35" s="36"/>
+      <c r="O35" s="36"/>
+      <c r="P35" s="36"/>
+      <c r="Q35" s="36"/>
+      <c r="R35" s="36"/>
+      <c r="S35" s="36"/>
+      <c r="T35" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="U35" s="23"/>
-      <c r="V35" s="23"/>
-      <c r="W35" s="23"/>
-      <c r="X35" s="23"/>
-      <c r="Y35" s="23"/>
-      <c r="Z35" s="23"/>
-      <c r="AA35" s="23"/>
-      <c r="AB35" s="23"/>
-      <c r="AC35" s="23"/>
-      <c r="AD35" s="23"/>
-      <c r="AE35" s="23"/>
-      <c r="AF35" s="23"/>
-      <c r="AG35" s="23"/>
-      <c r="AH35" s="23"/>
-      <c r="AI35" s="23"/>
-      <c r="AJ35" s="23"/>
-      <c r="AK35" s="23"/>
-      <c r="AL35" s="23"/>
-      <c r="AM35" s="23"/>
-      <c r="AN35" s="23"/>
-      <c r="AO35" s="23"/>
-      <c r="AP35" s="23"/>
-      <c r="AQ35" s="23"/>
-      <c r="AR35" s="23"/>
-      <c r="AS35" s="23"/>
+      <c r="U35" s="36"/>
+      <c r="V35" s="36"/>
+      <c r="W35" s="36"/>
+      <c r="X35" s="36"/>
+      <c r="Y35" s="36"/>
+      <c r="Z35" s="36"/>
+      <c r="AA35" s="36"/>
+      <c r="AB35" s="36"/>
+      <c r="AC35" s="36"/>
+      <c r="AD35" s="36"/>
+      <c r="AE35" s="36"/>
+      <c r="AF35" s="36"/>
+      <c r="AG35" s="36"/>
+      <c r="AH35" s="36"/>
+      <c r="AI35" s="36"/>
+      <c r="AJ35" s="36"/>
+      <c r="AK35" s="36"/>
+      <c r="AL35" s="36"/>
+      <c r="AM35" s="36"/>
+      <c r="AN35" s="36"/>
+      <c r="AO35" s="36"/>
+      <c r="AP35" s="36"/>
+      <c r="AQ35" s="36"/>
+      <c r="AR35" s="36"/>
+      <c r="AS35" s="36"/>
     </row>
     <row r="36" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="25" t="s">
+      <c r="A36" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="26"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="22"/>
-      <c r="J36" s="22"/>
-      <c r="K36" s="22"/>
-      <c r="L36" s="22"/>
-      <c r="M36" s="22"/>
-      <c r="N36" s="22"/>
-      <c r="O36" s="22"/>
-      <c r="P36" s="22"/>
-      <c r="Q36" s="22"/>
-      <c r="R36" s="22"/>
-      <c r="S36" s="22"/>
-      <c r="T36" s="24"/>
-      <c r="U36" s="24"/>
-      <c r="V36" s="24"/>
-      <c r="W36" s="24"/>
-      <c r="X36" s="24"/>
-      <c r="Y36" s="24"/>
-      <c r="Z36" s="24"/>
-      <c r="AA36" s="24"/>
-      <c r="AB36" s="24"/>
-      <c r="AC36" s="24"/>
-      <c r="AD36" s="24"/>
-      <c r="AE36" s="24"/>
-      <c r="AF36" s="24"/>
-      <c r="AG36" s="24"/>
-      <c r="AH36" s="24"/>
-      <c r="AI36" s="24"/>
-      <c r="AJ36" s="24"/>
-      <c r="AK36" s="24"/>
-      <c r="AL36" s="24"/>
-      <c r="AM36" s="24"/>
-      <c r="AN36" s="24"/>
-      <c r="AO36" s="24"/>
-      <c r="AP36" s="24"/>
-      <c r="AQ36" s="24"/>
-      <c r="AR36" s="24"/>
-      <c r="AS36" s="24"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="37"/>
+      <c r="I36" s="37"/>
+      <c r="J36" s="37"/>
+      <c r="K36" s="37"/>
+      <c r="L36" s="37"/>
+      <c r="M36" s="37"/>
+      <c r="N36" s="37"/>
+      <c r="O36" s="37"/>
+      <c r="P36" s="37"/>
+      <c r="Q36" s="37"/>
+      <c r="R36" s="37"/>
+      <c r="S36" s="37"/>
+      <c r="T36" s="47"/>
+      <c r="U36" s="47"/>
+      <c r="V36" s="47"/>
+      <c r="W36" s="47"/>
+      <c r="X36" s="47"/>
+      <c r="Y36" s="47"/>
+      <c r="Z36" s="47"/>
+      <c r="AA36" s="47"/>
+      <c r="AB36" s="47"/>
+      <c r="AC36" s="47"/>
+      <c r="AD36" s="47"/>
+      <c r="AE36" s="47"/>
+      <c r="AF36" s="47"/>
+      <c r="AG36" s="47"/>
+      <c r="AH36" s="47"/>
+      <c r="AI36" s="47"/>
+      <c r="AJ36" s="47"/>
+      <c r="AK36" s="47"/>
+      <c r="AL36" s="47"/>
+      <c r="AM36" s="47"/>
+      <c r="AN36" s="47"/>
+      <c r="AO36" s="47"/>
+      <c r="AP36" s="47"/>
+      <c r="AQ36" s="47"/>
+      <c r="AR36" s="47"/>
+      <c r="AS36" s="47"/>
     </row>
     <row r="37" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="25" t="s">
+      <c r="A37" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="26"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="22"/>
-      <c r="J37" s="22"/>
-      <c r="K37" s="22"/>
-      <c r="L37" s="22"/>
-      <c r="M37" s="22"/>
-      <c r="N37" s="22"/>
-      <c r="O37" s="22"/>
-      <c r="P37" s="22"/>
-      <c r="Q37" s="22"/>
-      <c r="R37" s="22"/>
-      <c r="S37" s="22"/>
-      <c r="T37" s="24"/>
-      <c r="U37" s="24"/>
-      <c r="V37" s="24"/>
-      <c r="W37" s="24"/>
-      <c r="X37" s="24"/>
-      <c r="Y37" s="24"/>
-      <c r="Z37" s="24"/>
-      <c r="AA37" s="24"/>
-      <c r="AB37" s="24"/>
-      <c r="AC37" s="24"/>
-      <c r="AD37" s="24"/>
-      <c r="AE37" s="24"/>
-      <c r="AF37" s="24"/>
-      <c r="AG37" s="24"/>
-      <c r="AH37" s="24"/>
-      <c r="AI37" s="24"/>
-      <c r="AJ37" s="24"/>
-      <c r="AK37" s="24"/>
-      <c r="AL37" s="24"/>
-      <c r="AM37" s="24"/>
-      <c r="AN37" s="24"/>
-      <c r="AO37" s="24"/>
-      <c r="AP37" s="24"/>
-      <c r="AQ37" s="24"/>
-      <c r="AR37" s="24"/>
-      <c r="AS37" s="24"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="37"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="37"/>
+      <c r="K37" s="37"/>
+      <c r="L37" s="37"/>
+      <c r="M37" s="37"/>
+      <c r="N37" s="37"/>
+      <c r="O37" s="37"/>
+      <c r="P37" s="37"/>
+      <c r="Q37" s="37"/>
+      <c r="R37" s="37"/>
+      <c r="S37" s="37"/>
+      <c r="T37" s="47"/>
+      <c r="U37" s="47"/>
+      <c r="V37" s="47"/>
+      <c r="W37" s="47"/>
+      <c r="X37" s="47"/>
+      <c r="Y37" s="47"/>
+      <c r="Z37" s="47"/>
+      <c r="AA37" s="47"/>
+      <c r="AB37" s="47"/>
+      <c r="AC37" s="47"/>
+      <c r="AD37" s="47"/>
+      <c r="AE37" s="47"/>
+      <c r="AF37" s="47"/>
+      <c r="AG37" s="47"/>
+      <c r="AH37" s="47"/>
+      <c r="AI37" s="47"/>
+      <c r="AJ37" s="47"/>
+      <c r="AK37" s="47"/>
+      <c r="AL37" s="47"/>
+      <c r="AM37" s="47"/>
+      <c r="AN37" s="47"/>
+      <c r="AO37" s="47"/>
+      <c r="AP37" s="47"/>
+      <c r="AQ37" s="47"/>
+      <c r="AR37" s="47"/>
+      <c r="AS37" s="47"/>
     </row>
     <row r="38" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="28" t="s">
+      <c r="A38" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="B38" s="29"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="22"/>
-      <c r="J38" s="22"/>
-      <c r="K38" s="22"/>
-      <c r="L38" s="22"/>
-      <c r="M38" s="22"/>
-      <c r="N38" s="22"/>
-      <c r="O38" s="22"/>
-      <c r="P38" s="22"/>
-      <c r="Q38" s="22"/>
-      <c r="R38" s="22"/>
-      <c r="S38" s="22"/>
-      <c r="T38" s="24"/>
-      <c r="U38" s="24"/>
-      <c r="V38" s="24"/>
-      <c r="W38" s="24"/>
-      <c r="X38" s="24"/>
-      <c r="Y38" s="24"/>
-      <c r="Z38" s="24"/>
-      <c r="AA38" s="24"/>
-      <c r="AB38" s="24"/>
-      <c r="AC38" s="24"/>
-      <c r="AD38" s="24"/>
-      <c r="AE38" s="24"/>
-      <c r="AF38" s="24"/>
-      <c r="AG38" s="24"/>
-      <c r="AH38" s="24"/>
-      <c r="AI38" s="24"/>
-      <c r="AJ38" s="24"/>
-      <c r="AK38" s="24"/>
-      <c r="AL38" s="24"/>
-      <c r="AM38" s="24"/>
-      <c r="AN38" s="24"/>
-      <c r="AO38" s="24"/>
-      <c r="AP38" s="24"/>
-      <c r="AQ38" s="24"/>
-      <c r="AR38" s="24"/>
-      <c r="AS38" s="24"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="37"/>
+      <c r="K38" s="37"/>
+      <c r="L38" s="37"/>
+      <c r="M38" s="37"/>
+      <c r="N38" s="37"/>
+      <c r="O38" s="37"/>
+      <c r="P38" s="37"/>
+      <c r="Q38" s="37"/>
+      <c r="R38" s="37"/>
+      <c r="S38" s="37"/>
+      <c r="T38" s="47"/>
+      <c r="U38" s="47"/>
+      <c r="V38" s="47"/>
+      <c r="W38" s="47"/>
+      <c r="X38" s="47"/>
+      <c r="Y38" s="47"/>
+      <c r="Z38" s="47"/>
+      <c r="AA38" s="47"/>
+      <c r="AB38" s="47"/>
+      <c r="AC38" s="47"/>
+      <c r="AD38" s="47"/>
+      <c r="AE38" s="47"/>
+      <c r="AF38" s="47"/>
+      <c r="AG38" s="47"/>
+      <c r="AH38" s="47"/>
+      <c r="AI38" s="47"/>
+      <c r="AJ38" s="47"/>
+      <c r="AK38" s="47"/>
+      <c r="AL38" s="47"/>
+      <c r="AM38" s="47"/>
+      <c r="AN38" s="47"/>
+      <c r="AO38" s="47"/>
+      <c r="AP38" s="47"/>
+      <c r="AQ38" s="47"/>
+      <c r="AR38" s="47"/>
+      <c r="AS38" s="47"/>
     </row>
     <row r="39" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="25" t="s">
+      <c r="A39" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="26"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="22"/>
-      <c r="I39" s="22"/>
-      <c r="J39" s="22"/>
-      <c r="K39" s="22"/>
-      <c r="L39" s="22"/>
-      <c r="M39" s="22"/>
-      <c r="N39" s="22"/>
-      <c r="O39" s="22"/>
-      <c r="P39" s="22"/>
-      <c r="Q39" s="22"/>
-      <c r="R39" s="22"/>
-      <c r="S39" s="22"/>
-      <c r="T39" s="24"/>
-      <c r="U39" s="24"/>
-      <c r="V39" s="24"/>
-      <c r="W39" s="24"/>
-      <c r="X39" s="24"/>
-      <c r="Y39" s="24"/>
-      <c r="Z39" s="24"/>
-      <c r="AA39" s="24"/>
-      <c r="AB39" s="24"/>
-      <c r="AC39" s="24"/>
-      <c r="AD39" s="24"/>
-      <c r="AE39" s="24"/>
-      <c r="AF39" s="24"/>
-      <c r="AG39" s="24"/>
-      <c r="AH39" s="24"/>
-      <c r="AI39" s="24"/>
-      <c r="AJ39" s="24"/>
-      <c r="AK39" s="24"/>
-      <c r="AL39" s="24"/>
-      <c r="AM39" s="24"/>
-      <c r="AN39" s="24"/>
-      <c r="AO39" s="24"/>
-      <c r="AP39" s="24"/>
-      <c r="AQ39" s="24"/>
-      <c r="AR39" s="24"/>
-      <c r="AS39" s="24"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="37"/>
+      <c r="K39" s="37"/>
+      <c r="L39" s="37"/>
+      <c r="M39" s="37"/>
+      <c r="N39" s="37"/>
+      <c r="O39" s="37"/>
+      <c r="P39" s="37"/>
+      <c r="Q39" s="37"/>
+      <c r="R39" s="37"/>
+      <c r="S39" s="37"/>
+      <c r="T39" s="47"/>
+      <c r="U39" s="47"/>
+      <c r="V39" s="47"/>
+      <c r="W39" s="47"/>
+      <c r="X39" s="47"/>
+      <c r="Y39" s="47"/>
+      <c r="Z39" s="47"/>
+      <c r="AA39" s="47"/>
+      <c r="AB39" s="47"/>
+      <c r="AC39" s="47"/>
+      <c r="AD39" s="47"/>
+      <c r="AE39" s="47"/>
+      <c r="AF39" s="47"/>
+      <c r="AG39" s="47"/>
+      <c r="AH39" s="47"/>
+      <c r="AI39" s="47"/>
+      <c r="AJ39" s="47"/>
+      <c r="AK39" s="47"/>
+      <c r="AL39" s="47"/>
+      <c r="AM39" s="47"/>
+      <c r="AN39" s="47"/>
+      <c r="AO39" s="47"/>
+      <c r="AP39" s="47"/>
+      <c r="AQ39" s="47"/>
+      <c r="AR39" s="47"/>
+      <c r="AS39" s="47"/>
     </row>
     <row r="40" spans="1:45" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="41" spans="1:45" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -6768,23 +6783,6 @@
     <row r="142" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="D39:L39"/>
-    <mergeCell ref="M39:S39"/>
-    <mergeCell ref="T39:AS39"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="D37:L37"/>
-    <mergeCell ref="M37:S37"/>
-    <mergeCell ref="T37:AS37"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="D38:L38"/>
-    <mergeCell ref="M38:S38"/>
-    <mergeCell ref="T38:AS38"/>
-    <mergeCell ref="AJ4:AS4"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="D35:L35"/>
-    <mergeCell ref="M35:S35"/>
-    <mergeCell ref="T35:AS35"/>
     <mergeCell ref="A36:C36"/>
     <mergeCell ref="D36:L36"/>
     <mergeCell ref="M36:S36"/>
@@ -6799,6 +6797,23 @@
     <mergeCell ref="AF3:AI3"/>
     <mergeCell ref="AJ3:AS3"/>
     <mergeCell ref="AF4:AI4"/>
+    <mergeCell ref="AJ4:AS4"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="D35:L35"/>
+    <mergeCell ref="M35:S35"/>
+    <mergeCell ref="T35:AS35"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="D39:L39"/>
+    <mergeCell ref="M39:S39"/>
+    <mergeCell ref="T39:AS39"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="D37:L37"/>
+    <mergeCell ref="M37:S37"/>
+    <mergeCell ref="T37:AS37"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="D38:L38"/>
+    <mergeCell ref="M38:S38"/>
+    <mergeCell ref="T38:AS38"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6811,7 +6826,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0D0F480-1048-43DC-96AB-1C0CE540409B}">
   <dimension ref="A1:CN142"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -6821,206 +6836,206 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="46" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
-      <c r="U1" s="46"/>
-      <c r="V1" s="46"/>
-      <c r="W1" s="46"/>
-      <c r="X1" s="46"/>
-      <c r="Y1" s="46"/>
-      <c r="Z1" s="46"/>
-      <c r="AA1" s="46"/>
-      <c r="AB1" s="46"/>
-      <c r="AC1" s="46"/>
-      <c r="AD1" s="46"/>
-      <c r="AE1" s="46"/>
-      <c r="AF1" s="45" t="s">
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="AG1" s="45"/>
-      <c r="AH1" s="45"/>
-      <c r="AI1" s="45"/>
-      <c r="AJ1" s="35"/>
-      <c r="AK1" s="35"/>
-      <c r="AL1" s="35"/>
-      <c r="AM1" s="35"/>
-      <c r="AN1" s="35"/>
-      <c r="AO1" s="35"/>
-      <c r="AP1" s="35"/>
-      <c r="AQ1" s="35"/>
-      <c r="AR1" s="35"/>
-      <c r="AS1" s="35"/>
+      <c r="AG1" s="33"/>
+      <c r="AH1" s="33"/>
+      <c r="AI1" s="33"/>
+      <c r="AJ1" s="23"/>
+      <c r="AK1" s="23"/>
+      <c r="AL1" s="23"/>
+      <c r="AM1" s="23"/>
+      <c r="AN1" s="23"/>
+      <c r="AO1" s="23"/>
+      <c r="AP1" s="23"/>
+      <c r="AQ1" s="23"/>
+      <c r="AR1" s="23"/>
+      <c r="AS1" s="23"/>
     </row>
     <row r="2" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="39"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="47" t="s">
-        <v>18</v>
+      <c r="A2" s="27"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="35" t="s">
+        <v>23</v>
       </c>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47"/>
-      <c r="U2" s="47"/>
-      <c r="V2" s="47"/>
-      <c r="W2" s="47"/>
-      <c r="X2" s="47"/>
-      <c r="Y2" s="47"/>
-      <c r="Z2" s="47"/>
-      <c r="AA2" s="47"/>
-      <c r="AB2" s="47"/>
-      <c r="AC2" s="47"/>
-      <c r="AD2" s="47"/>
-      <c r="AE2" s="47"/>
-      <c r="AF2" s="45" t="s">
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="35"/>
+      <c r="V2" s="35"/>
+      <c r="W2" s="35"/>
+      <c r="X2" s="35"/>
+      <c r="Y2" s="35"/>
+      <c r="Z2" s="35"/>
+      <c r="AA2" s="35"/>
+      <c r="AB2" s="35"/>
+      <c r="AC2" s="35"/>
+      <c r="AD2" s="35"/>
+      <c r="AE2" s="35"/>
+      <c r="AF2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="45"/>
-      <c r="AH2" s="45"/>
-      <c r="AI2" s="45"/>
-      <c r="AJ2" s="34"/>
-      <c r="AK2" s="35"/>
-      <c r="AL2" s="35"/>
-      <c r="AM2" s="35"/>
-      <c r="AN2" s="35"/>
-      <c r="AO2" s="35"/>
-      <c r="AP2" s="35"/>
-      <c r="AQ2" s="35"/>
-      <c r="AR2" s="35"/>
-      <c r="AS2" s="35"/>
+      <c r="AG2" s="33"/>
+      <c r="AH2" s="33"/>
+      <c r="AI2" s="33"/>
+      <c r="AJ2" s="22"/>
+      <c r="AK2" s="23"/>
+      <c r="AL2" s="23"/>
+      <c r="AM2" s="23"/>
+      <c r="AN2" s="23"/>
+      <c r="AO2" s="23"/>
+      <c r="AP2" s="23"/>
+      <c r="AQ2" s="23"/>
+      <c r="AR2" s="23"/>
+      <c r="AS2" s="23"/>
     </row>
     <row r="3" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="39"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="47"/>
-      <c r="R3" s="47"/>
-      <c r="S3" s="47"/>
-      <c r="T3" s="47"/>
-      <c r="U3" s="47"/>
-      <c r="V3" s="47"/>
-      <c r="W3" s="47"/>
-      <c r="X3" s="47"/>
-      <c r="Y3" s="47"/>
-      <c r="Z3" s="47"/>
-      <c r="AA3" s="47"/>
-      <c r="AB3" s="47"/>
-      <c r="AC3" s="47"/>
-      <c r="AD3" s="47"/>
-      <c r="AE3" s="47"/>
-      <c r="AF3" s="45" t="s">
+      <c r="A3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="35"/>
+      <c r="S3" s="35"/>
+      <c r="T3" s="35"/>
+      <c r="U3" s="35"/>
+      <c r="V3" s="35"/>
+      <c r="W3" s="35"/>
+      <c r="X3" s="35"/>
+      <c r="Y3" s="35"/>
+      <c r="Z3" s="35"/>
+      <c r="AA3" s="35"/>
+      <c r="AB3" s="35"/>
+      <c r="AC3" s="35"/>
+      <c r="AD3" s="35"/>
+      <c r="AE3" s="35"/>
+      <c r="AF3" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="45"/>
-      <c r="AH3" s="45"/>
-      <c r="AI3" s="45"/>
-      <c r="AJ3" s="35"/>
-      <c r="AK3" s="35"/>
-      <c r="AL3" s="35"/>
-      <c r="AM3" s="35"/>
-      <c r="AN3" s="35"/>
-      <c r="AO3" s="35"/>
-      <c r="AP3" s="35"/>
-      <c r="AQ3" s="35"/>
-      <c r="AR3" s="35"/>
-      <c r="AS3" s="35"/>
+      <c r="AG3" s="33"/>
+      <c r="AH3" s="33"/>
+      <c r="AI3" s="33"/>
+      <c r="AJ3" s="23"/>
+      <c r="AK3" s="23"/>
+      <c r="AL3" s="23"/>
+      <c r="AM3" s="23"/>
+      <c r="AN3" s="23"/>
+      <c r="AO3" s="23"/>
+      <c r="AP3" s="23"/>
+      <c r="AQ3" s="23"/>
+      <c r="AR3" s="23"/>
+      <c r="AS3" s="23"/>
     </row>
     <row r="4" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="42"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="47"/>
-      <c r="S4" s="47"/>
-      <c r="T4" s="47"/>
-      <c r="U4" s="47"/>
-      <c r="V4" s="47"/>
-      <c r="W4" s="47"/>
-      <c r="X4" s="47"/>
-      <c r="Y4" s="47"/>
-      <c r="Z4" s="47"/>
-      <c r="AA4" s="47"/>
-      <c r="AB4" s="47"/>
-      <c r="AC4" s="47"/>
-      <c r="AD4" s="47"/>
-      <c r="AE4" s="47"/>
-      <c r="AF4" s="45" t="s">
+      <c r="A4" s="30"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="35"/>
+      <c r="T4" s="35"/>
+      <c r="U4" s="35"/>
+      <c r="V4" s="35"/>
+      <c r="W4" s="35"/>
+      <c r="X4" s="35"/>
+      <c r="Y4" s="35"/>
+      <c r="Z4" s="35"/>
+      <c r="AA4" s="35"/>
+      <c r="AB4" s="35"/>
+      <c r="AC4" s="35"/>
+      <c r="AD4" s="35"/>
+      <c r="AE4" s="35"/>
+      <c r="AF4" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="AG4" s="45"/>
-      <c r="AH4" s="45"/>
-      <c r="AI4" s="45"/>
-      <c r="AJ4" s="34"/>
-      <c r="AK4" s="35"/>
-      <c r="AL4" s="35"/>
-      <c r="AM4" s="35"/>
-      <c r="AN4" s="35"/>
-      <c r="AO4" s="35"/>
-      <c r="AP4" s="35"/>
-      <c r="AQ4" s="35"/>
-      <c r="AR4" s="35"/>
-      <c r="AS4" s="35"/>
+      <c r="AG4" s="33"/>
+      <c r="AH4" s="33"/>
+      <c r="AI4" s="33"/>
+      <c r="AJ4" s="22"/>
+      <c r="AK4" s="23"/>
+      <c r="AL4" s="23"/>
+      <c r="AM4" s="23"/>
+      <c r="AN4" s="23"/>
+      <c r="AO4" s="23"/>
+      <c r="AP4" s="23"/>
+      <c r="AQ4" s="23"/>
+      <c r="AR4" s="23"/>
+      <c r="AS4" s="23"/>
     </row>
     <row r="5" spans="1:45" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
@@ -8149,255 +8164,255 @@
       <c r="AH34" s="1"/>
     </row>
     <row r="35" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="31" t="s">
+      <c r="A35" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="32"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="23" t="s">
+      <c r="B35" s="45"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23"/>
-      <c r="K35" s="23"/>
-      <c r="L35" s="23"/>
-      <c r="M35" s="23" t="s">
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="36"/>
+      <c r="L35" s="36"/>
+      <c r="M35" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="N35" s="23"/>
-      <c r="O35" s="23"/>
-      <c r="P35" s="23"/>
-      <c r="Q35" s="23"/>
-      <c r="R35" s="23"/>
-      <c r="S35" s="23"/>
-      <c r="T35" s="23" t="s">
+      <c r="N35" s="36"/>
+      <c r="O35" s="36"/>
+      <c r="P35" s="36"/>
+      <c r="Q35" s="36"/>
+      <c r="R35" s="36"/>
+      <c r="S35" s="36"/>
+      <c r="T35" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="U35" s="23"/>
-      <c r="V35" s="23"/>
-      <c r="W35" s="23"/>
-      <c r="X35" s="23"/>
-      <c r="Y35" s="23"/>
-      <c r="Z35" s="23"/>
-      <c r="AA35" s="23"/>
-      <c r="AB35" s="23"/>
-      <c r="AC35" s="23"/>
-      <c r="AD35" s="23"/>
-      <c r="AE35" s="23"/>
-      <c r="AF35" s="23"/>
-      <c r="AG35" s="23"/>
-      <c r="AH35" s="23"/>
-      <c r="AI35" s="23"/>
-      <c r="AJ35" s="23"/>
-      <c r="AK35" s="23"/>
-      <c r="AL35" s="23"/>
-      <c r="AM35" s="23"/>
-      <c r="AN35" s="23"/>
-      <c r="AO35" s="23"/>
-      <c r="AP35" s="23"/>
-      <c r="AQ35" s="23"/>
-      <c r="AR35" s="23"/>
-      <c r="AS35" s="23"/>
+      <c r="U35" s="36"/>
+      <c r="V35" s="36"/>
+      <c r="W35" s="36"/>
+      <c r="X35" s="36"/>
+      <c r="Y35" s="36"/>
+      <c r="Z35" s="36"/>
+      <c r="AA35" s="36"/>
+      <c r="AB35" s="36"/>
+      <c r="AC35" s="36"/>
+      <c r="AD35" s="36"/>
+      <c r="AE35" s="36"/>
+      <c r="AF35" s="36"/>
+      <c r="AG35" s="36"/>
+      <c r="AH35" s="36"/>
+      <c r="AI35" s="36"/>
+      <c r="AJ35" s="36"/>
+      <c r="AK35" s="36"/>
+      <c r="AL35" s="36"/>
+      <c r="AM35" s="36"/>
+      <c r="AN35" s="36"/>
+      <c r="AO35" s="36"/>
+      <c r="AP35" s="36"/>
+      <c r="AQ35" s="36"/>
+      <c r="AR35" s="36"/>
+      <c r="AS35" s="36"/>
     </row>
     <row r="36" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="25" t="s">
+      <c r="A36" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="26"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="22"/>
-      <c r="J36" s="22"/>
-      <c r="K36" s="22"/>
-      <c r="L36" s="22"/>
-      <c r="M36" s="22"/>
-      <c r="N36" s="22"/>
-      <c r="O36" s="22"/>
-      <c r="P36" s="22"/>
-      <c r="Q36" s="22"/>
-      <c r="R36" s="22"/>
-      <c r="S36" s="22"/>
-      <c r="T36" s="24"/>
-      <c r="U36" s="24"/>
-      <c r="V36" s="24"/>
-      <c r="W36" s="24"/>
-      <c r="X36" s="24"/>
-      <c r="Y36" s="24"/>
-      <c r="Z36" s="24"/>
-      <c r="AA36" s="24"/>
-      <c r="AB36" s="24"/>
-      <c r="AC36" s="24"/>
-      <c r="AD36" s="24"/>
-      <c r="AE36" s="24"/>
-      <c r="AF36" s="24"/>
-      <c r="AG36" s="24"/>
-      <c r="AH36" s="24"/>
-      <c r="AI36" s="24"/>
-      <c r="AJ36" s="24"/>
-      <c r="AK36" s="24"/>
-      <c r="AL36" s="24"/>
-      <c r="AM36" s="24"/>
-      <c r="AN36" s="24"/>
-      <c r="AO36" s="24"/>
-      <c r="AP36" s="24"/>
-      <c r="AQ36" s="24"/>
-      <c r="AR36" s="24"/>
-      <c r="AS36" s="24"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="37"/>
+      <c r="I36" s="37"/>
+      <c r="J36" s="37"/>
+      <c r="K36" s="37"/>
+      <c r="L36" s="37"/>
+      <c r="M36" s="37"/>
+      <c r="N36" s="37"/>
+      <c r="O36" s="37"/>
+      <c r="P36" s="37"/>
+      <c r="Q36" s="37"/>
+      <c r="R36" s="37"/>
+      <c r="S36" s="37"/>
+      <c r="T36" s="47"/>
+      <c r="U36" s="47"/>
+      <c r="V36" s="47"/>
+      <c r="W36" s="47"/>
+      <c r="X36" s="47"/>
+      <c r="Y36" s="47"/>
+      <c r="Z36" s="47"/>
+      <c r="AA36" s="47"/>
+      <c r="AB36" s="47"/>
+      <c r="AC36" s="47"/>
+      <c r="AD36" s="47"/>
+      <c r="AE36" s="47"/>
+      <c r="AF36" s="47"/>
+      <c r="AG36" s="47"/>
+      <c r="AH36" s="47"/>
+      <c r="AI36" s="47"/>
+      <c r="AJ36" s="47"/>
+      <c r="AK36" s="47"/>
+      <c r="AL36" s="47"/>
+      <c r="AM36" s="47"/>
+      <c r="AN36" s="47"/>
+      <c r="AO36" s="47"/>
+      <c r="AP36" s="47"/>
+      <c r="AQ36" s="47"/>
+      <c r="AR36" s="47"/>
+      <c r="AS36" s="47"/>
     </row>
     <row r="37" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="25" t="s">
+      <c r="A37" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="26"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="22"/>
-      <c r="J37" s="22"/>
-      <c r="K37" s="22"/>
-      <c r="L37" s="22"/>
-      <c r="M37" s="22"/>
-      <c r="N37" s="22"/>
-      <c r="O37" s="22"/>
-      <c r="P37" s="22"/>
-      <c r="Q37" s="22"/>
-      <c r="R37" s="22"/>
-      <c r="S37" s="22"/>
-      <c r="T37" s="24"/>
-      <c r="U37" s="24"/>
-      <c r="V37" s="24"/>
-      <c r="W37" s="24"/>
-      <c r="X37" s="24"/>
-      <c r="Y37" s="24"/>
-      <c r="Z37" s="24"/>
-      <c r="AA37" s="24"/>
-      <c r="AB37" s="24"/>
-      <c r="AC37" s="24"/>
-      <c r="AD37" s="24"/>
-      <c r="AE37" s="24"/>
-      <c r="AF37" s="24"/>
-      <c r="AG37" s="24"/>
-      <c r="AH37" s="24"/>
-      <c r="AI37" s="24"/>
-      <c r="AJ37" s="24"/>
-      <c r="AK37" s="24"/>
-      <c r="AL37" s="24"/>
-      <c r="AM37" s="24"/>
-      <c r="AN37" s="24"/>
-      <c r="AO37" s="24"/>
-      <c r="AP37" s="24"/>
-      <c r="AQ37" s="24"/>
-      <c r="AR37" s="24"/>
-      <c r="AS37" s="24"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="37"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="37"/>
+      <c r="K37" s="37"/>
+      <c r="L37" s="37"/>
+      <c r="M37" s="37"/>
+      <c r="N37" s="37"/>
+      <c r="O37" s="37"/>
+      <c r="P37" s="37"/>
+      <c r="Q37" s="37"/>
+      <c r="R37" s="37"/>
+      <c r="S37" s="37"/>
+      <c r="T37" s="47"/>
+      <c r="U37" s="47"/>
+      <c r="V37" s="47"/>
+      <c r="W37" s="47"/>
+      <c r="X37" s="47"/>
+      <c r="Y37" s="47"/>
+      <c r="Z37" s="47"/>
+      <c r="AA37" s="47"/>
+      <c r="AB37" s="47"/>
+      <c r="AC37" s="47"/>
+      <c r="AD37" s="47"/>
+      <c r="AE37" s="47"/>
+      <c r="AF37" s="47"/>
+      <c r="AG37" s="47"/>
+      <c r="AH37" s="47"/>
+      <c r="AI37" s="47"/>
+      <c r="AJ37" s="47"/>
+      <c r="AK37" s="47"/>
+      <c r="AL37" s="47"/>
+      <c r="AM37" s="47"/>
+      <c r="AN37" s="47"/>
+      <c r="AO37" s="47"/>
+      <c r="AP37" s="47"/>
+      <c r="AQ37" s="47"/>
+      <c r="AR37" s="47"/>
+      <c r="AS37" s="47"/>
     </row>
     <row r="38" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="28" t="s">
+      <c r="A38" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="B38" s="29"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="22"/>
-      <c r="J38" s="22"/>
-      <c r="K38" s="22"/>
-      <c r="L38" s="22"/>
-      <c r="M38" s="22"/>
-      <c r="N38" s="22"/>
-      <c r="O38" s="22"/>
-      <c r="P38" s="22"/>
-      <c r="Q38" s="22"/>
-      <c r="R38" s="22"/>
-      <c r="S38" s="22"/>
-      <c r="T38" s="24"/>
-      <c r="U38" s="24"/>
-      <c r="V38" s="24"/>
-      <c r="W38" s="24"/>
-      <c r="X38" s="24"/>
-      <c r="Y38" s="24"/>
-      <c r="Z38" s="24"/>
-      <c r="AA38" s="24"/>
-      <c r="AB38" s="24"/>
-      <c r="AC38" s="24"/>
-      <c r="AD38" s="24"/>
-      <c r="AE38" s="24"/>
-      <c r="AF38" s="24"/>
-      <c r="AG38" s="24"/>
-      <c r="AH38" s="24"/>
-      <c r="AI38" s="24"/>
-      <c r="AJ38" s="24"/>
-      <c r="AK38" s="24"/>
-      <c r="AL38" s="24"/>
-      <c r="AM38" s="24"/>
-      <c r="AN38" s="24"/>
-      <c r="AO38" s="24"/>
-      <c r="AP38" s="24"/>
-      <c r="AQ38" s="24"/>
-      <c r="AR38" s="24"/>
-      <c r="AS38" s="24"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="37"/>
+      <c r="K38" s="37"/>
+      <c r="L38" s="37"/>
+      <c r="M38" s="37"/>
+      <c r="N38" s="37"/>
+      <c r="O38" s="37"/>
+      <c r="P38" s="37"/>
+      <c r="Q38" s="37"/>
+      <c r="R38" s="37"/>
+      <c r="S38" s="37"/>
+      <c r="T38" s="47"/>
+      <c r="U38" s="47"/>
+      <c r="V38" s="47"/>
+      <c r="W38" s="47"/>
+      <c r="X38" s="47"/>
+      <c r="Y38" s="47"/>
+      <c r="Z38" s="47"/>
+      <c r="AA38" s="47"/>
+      <c r="AB38" s="47"/>
+      <c r="AC38" s="47"/>
+      <c r="AD38" s="47"/>
+      <c r="AE38" s="47"/>
+      <c r="AF38" s="47"/>
+      <c r="AG38" s="47"/>
+      <c r="AH38" s="47"/>
+      <c r="AI38" s="47"/>
+      <c r="AJ38" s="47"/>
+      <c r="AK38" s="47"/>
+      <c r="AL38" s="47"/>
+      <c r="AM38" s="47"/>
+      <c r="AN38" s="47"/>
+      <c r="AO38" s="47"/>
+      <c r="AP38" s="47"/>
+      <c r="AQ38" s="47"/>
+      <c r="AR38" s="47"/>
+      <c r="AS38" s="47"/>
     </row>
     <row r="39" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="25" t="s">
+      <c r="A39" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="26"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="22"/>
-      <c r="I39" s="22"/>
-      <c r="J39" s="22"/>
-      <c r="K39" s="22"/>
-      <c r="L39" s="22"/>
-      <c r="M39" s="22"/>
-      <c r="N39" s="22"/>
-      <c r="O39" s="22"/>
-      <c r="P39" s="22"/>
-      <c r="Q39" s="22"/>
-      <c r="R39" s="22"/>
-      <c r="S39" s="22"/>
-      <c r="T39" s="24"/>
-      <c r="U39" s="24"/>
-      <c r="V39" s="24"/>
-      <c r="W39" s="24"/>
-      <c r="X39" s="24"/>
-      <c r="Y39" s="24"/>
-      <c r="Z39" s="24"/>
-      <c r="AA39" s="24"/>
-      <c r="AB39" s="24"/>
-      <c r="AC39" s="24"/>
-      <c r="AD39" s="24"/>
-      <c r="AE39" s="24"/>
-      <c r="AF39" s="24"/>
-      <c r="AG39" s="24"/>
-      <c r="AH39" s="24"/>
-      <c r="AI39" s="24"/>
-      <c r="AJ39" s="24"/>
-      <c r="AK39" s="24"/>
-      <c r="AL39" s="24"/>
-      <c r="AM39" s="24"/>
-      <c r="AN39" s="24"/>
-      <c r="AO39" s="24"/>
-      <c r="AP39" s="24"/>
-      <c r="AQ39" s="24"/>
-      <c r="AR39" s="24"/>
-      <c r="AS39" s="24"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="37"/>
+      <c r="K39" s="37"/>
+      <c r="L39" s="37"/>
+      <c r="M39" s="37"/>
+      <c r="N39" s="37"/>
+      <c r="O39" s="37"/>
+      <c r="P39" s="37"/>
+      <c r="Q39" s="37"/>
+      <c r="R39" s="37"/>
+      <c r="S39" s="37"/>
+      <c r="T39" s="47"/>
+      <c r="U39" s="47"/>
+      <c r="V39" s="47"/>
+      <c r="W39" s="47"/>
+      <c r="X39" s="47"/>
+      <c r="Y39" s="47"/>
+      <c r="Z39" s="47"/>
+      <c r="AA39" s="47"/>
+      <c r="AB39" s="47"/>
+      <c r="AC39" s="47"/>
+      <c r="AD39" s="47"/>
+      <c r="AE39" s="47"/>
+      <c r="AF39" s="47"/>
+      <c r="AG39" s="47"/>
+      <c r="AH39" s="47"/>
+      <c r="AI39" s="47"/>
+      <c r="AJ39" s="47"/>
+      <c r="AK39" s="47"/>
+      <c r="AL39" s="47"/>
+      <c r="AM39" s="47"/>
+      <c r="AN39" s="47"/>
+      <c r="AO39" s="47"/>
+      <c r="AP39" s="47"/>
+      <c r="AQ39" s="47"/>
+      <c r="AR39" s="47"/>
+      <c r="AS39" s="47"/>
     </row>
     <row r="40" spans="1:45" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="41" spans="1:45" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -8512,23 +8527,6 @@
     <row r="142" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="D39:L39"/>
-    <mergeCell ref="M39:S39"/>
-    <mergeCell ref="T39:AS39"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="D37:L37"/>
-    <mergeCell ref="M37:S37"/>
-    <mergeCell ref="T37:AS37"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="D38:L38"/>
-    <mergeCell ref="M38:S38"/>
-    <mergeCell ref="T38:AS38"/>
-    <mergeCell ref="AJ4:AS4"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="D35:L35"/>
-    <mergeCell ref="M35:S35"/>
-    <mergeCell ref="T35:AS35"/>
     <mergeCell ref="A36:C36"/>
     <mergeCell ref="D36:L36"/>
     <mergeCell ref="M36:S36"/>
@@ -8543,6 +8541,23 @@
     <mergeCell ref="AF3:AI3"/>
     <mergeCell ref="AJ3:AS3"/>
     <mergeCell ref="AF4:AI4"/>
+    <mergeCell ref="AJ4:AS4"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="D35:L35"/>
+    <mergeCell ref="M35:S35"/>
+    <mergeCell ref="T35:AS35"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="D39:L39"/>
+    <mergeCell ref="M39:S39"/>
+    <mergeCell ref="T39:AS39"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="D37:L37"/>
+    <mergeCell ref="M37:S37"/>
+    <mergeCell ref="T37:AS37"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="D38:L38"/>
+    <mergeCell ref="M38:S38"/>
+    <mergeCell ref="T38:AS38"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8565,206 +8580,206 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="46" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
-      <c r="U1" s="46"/>
-      <c r="V1" s="46"/>
-      <c r="W1" s="46"/>
-      <c r="X1" s="46"/>
-      <c r="Y1" s="46"/>
-      <c r="Z1" s="46"/>
-      <c r="AA1" s="46"/>
-      <c r="AB1" s="46"/>
-      <c r="AC1" s="46"/>
-      <c r="AD1" s="46"/>
-      <c r="AE1" s="46"/>
-      <c r="AF1" s="45" t="s">
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="AG1" s="45"/>
-      <c r="AH1" s="45"/>
-      <c r="AI1" s="45"/>
-      <c r="AJ1" s="35"/>
-      <c r="AK1" s="35"/>
-      <c r="AL1" s="35"/>
-      <c r="AM1" s="35"/>
-      <c r="AN1" s="35"/>
-      <c r="AO1" s="35"/>
-      <c r="AP1" s="35"/>
-      <c r="AQ1" s="35"/>
-      <c r="AR1" s="35"/>
-      <c r="AS1" s="35"/>
+      <c r="AG1" s="33"/>
+      <c r="AH1" s="33"/>
+      <c r="AI1" s="33"/>
+      <c r="AJ1" s="23"/>
+      <c r="AK1" s="23"/>
+      <c r="AL1" s="23"/>
+      <c r="AM1" s="23"/>
+      <c r="AN1" s="23"/>
+      <c r="AO1" s="23"/>
+      <c r="AP1" s="23"/>
+      <c r="AQ1" s="23"/>
+      <c r="AR1" s="23"/>
+      <c r="AS1" s="23"/>
     </row>
     <row r="2" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="39"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="47" t="s">
-        <v>21</v>
+      <c r="A2" s="27"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="35" t="s">
+        <v>19</v>
       </c>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47"/>
-      <c r="U2" s="47"/>
-      <c r="V2" s="47"/>
-      <c r="W2" s="47"/>
-      <c r="X2" s="47"/>
-      <c r="Y2" s="47"/>
-      <c r="Z2" s="47"/>
-      <c r="AA2" s="47"/>
-      <c r="AB2" s="47"/>
-      <c r="AC2" s="47"/>
-      <c r="AD2" s="47"/>
-      <c r="AE2" s="47"/>
-      <c r="AF2" s="45" t="s">
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="35"/>
+      <c r="V2" s="35"/>
+      <c r="W2" s="35"/>
+      <c r="X2" s="35"/>
+      <c r="Y2" s="35"/>
+      <c r="Z2" s="35"/>
+      <c r="AA2" s="35"/>
+      <c r="AB2" s="35"/>
+      <c r="AC2" s="35"/>
+      <c r="AD2" s="35"/>
+      <c r="AE2" s="35"/>
+      <c r="AF2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="45"/>
-      <c r="AH2" s="45"/>
-      <c r="AI2" s="45"/>
-      <c r="AJ2" s="34"/>
-      <c r="AK2" s="35"/>
-      <c r="AL2" s="35"/>
-      <c r="AM2" s="35"/>
-      <c r="AN2" s="35"/>
-      <c r="AO2" s="35"/>
-      <c r="AP2" s="35"/>
-      <c r="AQ2" s="35"/>
-      <c r="AR2" s="35"/>
-      <c r="AS2" s="35"/>
+      <c r="AG2" s="33"/>
+      <c r="AH2" s="33"/>
+      <c r="AI2" s="33"/>
+      <c r="AJ2" s="22"/>
+      <c r="AK2" s="23"/>
+      <c r="AL2" s="23"/>
+      <c r="AM2" s="23"/>
+      <c r="AN2" s="23"/>
+      <c r="AO2" s="23"/>
+      <c r="AP2" s="23"/>
+      <c r="AQ2" s="23"/>
+      <c r="AR2" s="23"/>
+      <c r="AS2" s="23"/>
     </row>
     <row r="3" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="39"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="47"/>
-      <c r="R3" s="47"/>
-      <c r="S3" s="47"/>
-      <c r="T3" s="47"/>
-      <c r="U3" s="47"/>
-      <c r="V3" s="47"/>
-      <c r="W3" s="47"/>
-      <c r="X3" s="47"/>
-      <c r="Y3" s="47"/>
-      <c r="Z3" s="47"/>
-      <c r="AA3" s="47"/>
-      <c r="AB3" s="47"/>
-      <c r="AC3" s="47"/>
-      <c r="AD3" s="47"/>
-      <c r="AE3" s="47"/>
-      <c r="AF3" s="45" t="s">
+      <c r="A3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="35"/>
+      <c r="S3" s="35"/>
+      <c r="T3" s="35"/>
+      <c r="U3" s="35"/>
+      <c r="V3" s="35"/>
+      <c r="W3" s="35"/>
+      <c r="X3" s="35"/>
+      <c r="Y3" s="35"/>
+      <c r="Z3" s="35"/>
+      <c r="AA3" s="35"/>
+      <c r="AB3" s="35"/>
+      <c r="AC3" s="35"/>
+      <c r="AD3" s="35"/>
+      <c r="AE3" s="35"/>
+      <c r="AF3" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="45"/>
-      <c r="AH3" s="45"/>
-      <c r="AI3" s="45"/>
-      <c r="AJ3" s="35"/>
-      <c r="AK3" s="35"/>
-      <c r="AL3" s="35"/>
-      <c r="AM3" s="35"/>
-      <c r="AN3" s="35"/>
-      <c r="AO3" s="35"/>
-      <c r="AP3" s="35"/>
-      <c r="AQ3" s="35"/>
-      <c r="AR3" s="35"/>
-      <c r="AS3" s="35"/>
+      <c r="AG3" s="33"/>
+      <c r="AH3" s="33"/>
+      <c r="AI3" s="33"/>
+      <c r="AJ3" s="23"/>
+      <c r="AK3" s="23"/>
+      <c r="AL3" s="23"/>
+      <c r="AM3" s="23"/>
+      <c r="AN3" s="23"/>
+      <c r="AO3" s="23"/>
+      <c r="AP3" s="23"/>
+      <c r="AQ3" s="23"/>
+      <c r="AR3" s="23"/>
+      <c r="AS3" s="23"/>
     </row>
     <row r="4" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="42"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="47"/>
-      <c r="S4" s="47"/>
-      <c r="T4" s="47"/>
-      <c r="U4" s="47"/>
-      <c r="V4" s="47"/>
-      <c r="W4" s="47"/>
-      <c r="X4" s="47"/>
-      <c r="Y4" s="47"/>
-      <c r="Z4" s="47"/>
-      <c r="AA4" s="47"/>
-      <c r="AB4" s="47"/>
-      <c r="AC4" s="47"/>
-      <c r="AD4" s="47"/>
-      <c r="AE4" s="47"/>
-      <c r="AF4" s="45" t="s">
+      <c r="A4" s="30"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="35"/>
+      <c r="T4" s="35"/>
+      <c r="U4" s="35"/>
+      <c r="V4" s="35"/>
+      <c r="W4" s="35"/>
+      <c r="X4" s="35"/>
+      <c r="Y4" s="35"/>
+      <c r="Z4" s="35"/>
+      <c r="AA4" s="35"/>
+      <c r="AB4" s="35"/>
+      <c r="AC4" s="35"/>
+      <c r="AD4" s="35"/>
+      <c r="AE4" s="35"/>
+      <c r="AF4" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="AG4" s="45"/>
-      <c r="AH4" s="45"/>
-      <c r="AI4" s="45"/>
-      <c r="AJ4" s="34"/>
-      <c r="AK4" s="35"/>
-      <c r="AL4" s="35"/>
-      <c r="AM4" s="35"/>
-      <c r="AN4" s="35"/>
-      <c r="AO4" s="35"/>
-      <c r="AP4" s="35"/>
-      <c r="AQ4" s="35"/>
-      <c r="AR4" s="35"/>
-      <c r="AS4" s="35"/>
+      <c r="AG4" s="33"/>
+      <c r="AH4" s="33"/>
+      <c r="AI4" s="33"/>
+      <c r="AJ4" s="22"/>
+      <c r="AK4" s="23"/>
+      <c r="AL4" s="23"/>
+      <c r="AM4" s="23"/>
+      <c r="AN4" s="23"/>
+      <c r="AO4" s="23"/>
+      <c r="AP4" s="23"/>
+      <c r="AQ4" s="23"/>
+      <c r="AR4" s="23"/>
+      <c r="AS4" s="23"/>
     </row>
     <row r="5" spans="1:45" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
@@ -9893,255 +9908,255 @@
       <c r="AH34" s="1"/>
     </row>
     <row r="35" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="31" t="s">
+      <c r="A35" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="32"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="23" t="s">
+      <c r="B35" s="45"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23"/>
-      <c r="K35" s="23"/>
-      <c r="L35" s="23"/>
-      <c r="M35" s="23" t="s">
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="36"/>
+      <c r="L35" s="36"/>
+      <c r="M35" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="N35" s="23"/>
-      <c r="O35" s="23"/>
-      <c r="P35" s="23"/>
-      <c r="Q35" s="23"/>
-      <c r="R35" s="23"/>
-      <c r="S35" s="23"/>
-      <c r="T35" s="23" t="s">
+      <c r="N35" s="36"/>
+      <c r="O35" s="36"/>
+      <c r="P35" s="36"/>
+      <c r="Q35" s="36"/>
+      <c r="R35" s="36"/>
+      <c r="S35" s="36"/>
+      <c r="T35" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="U35" s="23"/>
-      <c r="V35" s="23"/>
-      <c r="W35" s="23"/>
-      <c r="X35" s="23"/>
-      <c r="Y35" s="23"/>
-      <c r="Z35" s="23"/>
-      <c r="AA35" s="23"/>
-      <c r="AB35" s="23"/>
-      <c r="AC35" s="23"/>
-      <c r="AD35" s="23"/>
-      <c r="AE35" s="23"/>
-      <c r="AF35" s="23"/>
-      <c r="AG35" s="23"/>
-      <c r="AH35" s="23"/>
-      <c r="AI35" s="23"/>
-      <c r="AJ35" s="23"/>
-      <c r="AK35" s="23"/>
-      <c r="AL35" s="23"/>
-      <c r="AM35" s="23"/>
-      <c r="AN35" s="23"/>
-      <c r="AO35" s="23"/>
-      <c r="AP35" s="23"/>
-      <c r="AQ35" s="23"/>
-      <c r="AR35" s="23"/>
-      <c r="AS35" s="23"/>
+      <c r="U35" s="36"/>
+      <c r="V35" s="36"/>
+      <c r="W35" s="36"/>
+      <c r="X35" s="36"/>
+      <c r="Y35" s="36"/>
+      <c r="Z35" s="36"/>
+      <c r="AA35" s="36"/>
+      <c r="AB35" s="36"/>
+      <c r="AC35" s="36"/>
+      <c r="AD35" s="36"/>
+      <c r="AE35" s="36"/>
+      <c r="AF35" s="36"/>
+      <c r="AG35" s="36"/>
+      <c r="AH35" s="36"/>
+      <c r="AI35" s="36"/>
+      <c r="AJ35" s="36"/>
+      <c r="AK35" s="36"/>
+      <c r="AL35" s="36"/>
+      <c r="AM35" s="36"/>
+      <c r="AN35" s="36"/>
+      <c r="AO35" s="36"/>
+      <c r="AP35" s="36"/>
+      <c r="AQ35" s="36"/>
+      <c r="AR35" s="36"/>
+      <c r="AS35" s="36"/>
     </row>
     <row r="36" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="25" t="s">
+      <c r="A36" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="26"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="22"/>
-      <c r="J36" s="22"/>
-      <c r="K36" s="22"/>
-      <c r="L36" s="22"/>
-      <c r="M36" s="22"/>
-      <c r="N36" s="22"/>
-      <c r="O36" s="22"/>
-      <c r="P36" s="22"/>
-      <c r="Q36" s="22"/>
-      <c r="R36" s="22"/>
-      <c r="S36" s="22"/>
-      <c r="T36" s="24"/>
-      <c r="U36" s="24"/>
-      <c r="V36" s="24"/>
-      <c r="W36" s="24"/>
-      <c r="X36" s="24"/>
-      <c r="Y36" s="24"/>
-      <c r="Z36" s="24"/>
-      <c r="AA36" s="24"/>
-      <c r="AB36" s="24"/>
-      <c r="AC36" s="24"/>
-      <c r="AD36" s="24"/>
-      <c r="AE36" s="24"/>
-      <c r="AF36" s="24"/>
-      <c r="AG36" s="24"/>
-      <c r="AH36" s="24"/>
-      <c r="AI36" s="24"/>
-      <c r="AJ36" s="24"/>
-      <c r="AK36" s="24"/>
-      <c r="AL36" s="24"/>
-      <c r="AM36" s="24"/>
-      <c r="AN36" s="24"/>
-      <c r="AO36" s="24"/>
-      <c r="AP36" s="24"/>
-      <c r="AQ36" s="24"/>
-      <c r="AR36" s="24"/>
-      <c r="AS36" s="24"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="37"/>
+      <c r="I36" s="37"/>
+      <c r="J36" s="37"/>
+      <c r="K36" s="37"/>
+      <c r="L36" s="37"/>
+      <c r="M36" s="37"/>
+      <c r="N36" s="37"/>
+      <c r="O36" s="37"/>
+      <c r="P36" s="37"/>
+      <c r="Q36" s="37"/>
+      <c r="R36" s="37"/>
+      <c r="S36" s="37"/>
+      <c r="T36" s="47"/>
+      <c r="U36" s="47"/>
+      <c r="V36" s="47"/>
+      <c r="W36" s="47"/>
+      <c r="X36" s="47"/>
+      <c r="Y36" s="47"/>
+      <c r="Z36" s="47"/>
+      <c r="AA36" s="47"/>
+      <c r="AB36" s="47"/>
+      <c r="AC36" s="47"/>
+      <c r="AD36" s="47"/>
+      <c r="AE36" s="47"/>
+      <c r="AF36" s="47"/>
+      <c r="AG36" s="47"/>
+      <c r="AH36" s="47"/>
+      <c r="AI36" s="47"/>
+      <c r="AJ36" s="47"/>
+      <c r="AK36" s="47"/>
+      <c r="AL36" s="47"/>
+      <c r="AM36" s="47"/>
+      <c r="AN36" s="47"/>
+      <c r="AO36" s="47"/>
+      <c r="AP36" s="47"/>
+      <c r="AQ36" s="47"/>
+      <c r="AR36" s="47"/>
+      <c r="AS36" s="47"/>
     </row>
     <row r="37" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="25" t="s">
+      <c r="A37" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="26"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="22"/>
-      <c r="J37" s="22"/>
-      <c r="K37" s="22"/>
-      <c r="L37" s="22"/>
-      <c r="M37" s="22"/>
-      <c r="N37" s="22"/>
-      <c r="O37" s="22"/>
-      <c r="P37" s="22"/>
-      <c r="Q37" s="22"/>
-      <c r="R37" s="22"/>
-      <c r="S37" s="22"/>
-      <c r="T37" s="24"/>
-      <c r="U37" s="24"/>
-      <c r="V37" s="24"/>
-      <c r="W37" s="24"/>
-      <c r="X37" s="24"/>
-      <c r="Y37" s="24"/>
-      <c r="Z37" s="24"/>
-      <c r="AA37" s="24"/>
-      <c r="AB37" s="24"/>
-      <c r="AC37" s="24"/>
-      <c r="AD37" s="24"/>
-      <c r="AE37" s="24"/>
-      <c r="AF37" s="24"/>
-      <c r="AG37" s="24"/>
-      <c r="AH37" s="24"/>
-      <c r="AI37" s="24"/>
-      <c r="AJ37" s="24"/>
-      <c r="AK37" s="24"/>
-      <c r="AL37" s="24"/>
-      <c r="AM37" s="24"/>
-      <c r="AN37" s="24"/>
-      <c r="AO37" s="24"/>
-      <c r="AP37" s="24"/>
-      <c r="AQ37" s="24"/>
-      <c r="AR37" s="24"/>
-      <c r="AS37" s="24"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="37"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="37"/>
+      <c r="K37" s="37"/>
+      <c r="L37" s="37"/>
+      <c r="M37" s="37"/>
+      <c r="N37" s="37"/>
+      <c r="O37" s="37"/>
+      <c r="P37" s="37"/>
+      <c r="Q37" s="37"/>
+      <c r="R37" s="37"/>
+      <c r="S37" s="37"/>
+      <c r="T37" s="47"/>
+      <c r="U37" s="47"/>
+      <c r="V37" s="47"/>
+      <c r="W37" s="47"/>
+      <c r="X37" s="47"/>
+      <c r="Y37" s="47"/>
+      <c r="Z37" s="47"/>
+      <c r="AA37" s="47"/>
+      <c r="AB37" s="47"/>
+      <c r="AC37" s="47"/>
+      <c r="AD37" s="47"/>
+      <c r="AE37" s="47"/>
+      <c r="AF37" s="47"/>
+      <c r="AG37" s="47"/>
+      <c r="AH37" s="47"/>
+      <c r="AI37" s="47"/>
+      <c r="AJ37" s="47"/>
+      <c r="AK37" s="47"/>
+      <c r="AL37" s="47"/>
+      <c r="AM37" s="47"/>
+      <c r="AN37" s="47"/>
+      <c r="AO37" s="47"/>
+      <c r="AP37" s="47"/>
+      <c r="AQ37" s="47"/>
+      <c r="AR37" s="47"/>
+      <c r="AS37" s="47"/>
     </row>
     <row r="38" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="28" t="s">
+      <c r="A38" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="B38" s="29"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="22"/>
-      <c r="J38" s="22"/>
-      <c r="K38" s="22"/>
-      <c r="L38" s="22"/>
-      <c r="M38" s="22"/>
-      <c r="N38" s="22"/>
-      <c r="O38" s="22"/>
-      <c r="P38" s="22"/>
-      <c r="Q38" s="22"/>
-      <c r="R38" s="22"/>
-      <c r="S38" s="22"/>
-      <c r="T38" s="24"/>
-      <c r="U38" s="24"/>
-      <c r="V38" s="24"/>
-      <c r="W38" s="24"/>
-      <c r="X38" s="24"/>
-      <c r="Y38" s="24"/>
-      <c r="Z38" s="24"/>
-      <c r="AA38" s="24"/>
-      <c r="AB38" s="24"/>
-      <c r="AC38" s="24"/>
-      <c r="AD38" s="24"/>
-      <c r="AE38" s="24"/>
-      <c r="AF38" s="24"/>
-      <c r="AG38" s="24"/>
-      <c r="AH38" s="24"/>
-      <c r="AI38" s="24"/>
-      <c r="AJ38" s="24"/>
-      <c r="AK38" s="24"/>
-      <c r="AL38" s="24"/>
-      <c r="AM38" s="24"/>
-      <c r="AN38" s="24"/>
-      <c r="AO38" s="24"/>
-      <c r="AP38" s="24"/>
-      <c r="AQ38" s="24"/>
-      <c r="AR38" s="24"/>
-      <c r="AS38" s="24"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="37"/>
+      <c r="K38" s="37"/>
+      <c r="L38" s="37"/>
+      <c r="M38" s="37"/>
+      <c r="N38" s="37"/>
+      <c r="O38" s="37"/>
+      <c r="P38" s="37"/>
+      <c r="Q38" s="37"/>
+      <c r="R38" s="37"/>
+      <c r="S38" s="37"/>
+      <c r="T38" s="47"/>
+      <c r="U38" s="47"/>
+      <c r="V38" s="47"/>
+      <c r="W38" s="47"/>
+      <c r="X38" s="47"/>
+      <c r="Y38" s="47"/>
+      <c r="Z38" s="47"/>
+      <c r="AA38" s="47"/>
+      <c r="AB38" s="47"/>
+      <c r="AC38" s="47"/>
+      <c r="AD38" s="47"/>
+      <c r="AE38" s="47"/>
+      <c r="AF38" s="47"/>
+      <c r="AG38" s="47"/>
+      <c r="AH38" s="47"/>
+      <c r="AI38" s="47"/>
+      <c r="AJ38" s="47"/>
+      <c r="AK38" s="47"/>
+      <c r="AL38" s="47"/>
+      <c r="AM38" s="47"/>
+      <c r="AN38" s="47"/>
+      <c r="AO38" s="47"/>
+      <c r="AP38" s="47"/>
+      <c r="AQ38" s="47"/>
+      <c r="AR38" s="47"/>
+      <c r="AS38" s="47"/>
     </row>
     <row r="39" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="25" t="s">
+      <c r="A39" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="26"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="22"/>
-      <c r="I39" s="22"/>
-      <c r="J39" s="22"/>
-      <c r="K39" s="22"/>
-      <c r="L39" s="22"/>
-      <c r="M39" s="22"/>
-      <c r="N39" s="22"/>
-      <c r="O39" s="22"/>
-      <c r="P39" s="22"/>
-      <c r="Q39" s="22"/>
-      <c r="R39" s="22"/>
-      <c r="S39" s="22"/>
-      <c r="T39" s="24"/>
-      <c r="U39" s="24"/>
-      <c r="V39" s="24"/>
-      <c r="W39" s="24"/>
-      <c r="X39" s="24"/>
-      <c r="Y39" s="24"/>
-      <c r="Z39" s="24"/>
-      <c r="AA39" s="24"/>
-      <c r="AB39" s="24"/>
-      <c r="AC39" s="24"/>
-      <c r="AD39" s="24"/>
-      <c r="AE39" s="24"/>
-      <c r="AF39" s="24"/>
-      <c r="AG39" s="24"/>
-      <c r="AH39" s="24"/>
-      <c r="AI39" s="24"/>
-      <c r="AJ39" s="24"/>
-      <c r="AK39" s="24"/>
-      <c r="AL39" s="24"/>
-      <c r="AM39" s="24"/>
-      <c r="AN39" s="24"/>
-      <c r="AO39" s="24"/>
-      <c r="AP39" s="24"/>
-      <c r="AQ39" s="24"/>
-      <c r="AR39" s="24"/>
-      <c r="AS39" s="24"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="37"/>
+      <c r="K39" s="37"/>
+      <c r="L39" s="37"/>
+      <c r="M39" s="37"/>
+      <c r="N39" s="37"/>
+      <c r="O39" s="37"/>
+      <c r="P39" s="37"/>
+      <c r="Q39" s="37"/>
+      <c r="R39" s="37"/>
+      <c r="S39" s="37"/>
+      <c r="T39" s="47"/>
+      <c r="U39" s="47"/>
+      <c r="V39" s="47"/>
+      <c r="W39" s="47"/>
+      <c r="X39" s="47"/>
+      <c r="Y39" s="47"/>
+      <c r="Z39" s="47"/>
+      <c r="AA39" s="47"/>
+      <c r="AB39" s="47"/>
+      <c r="AC39" s="47"/>
+      <c r="AD39" s="47"/>
+      <c r="AE39" s="47"/>
+      <c r="AF39" s="47"/>
+      <c r="AG39" s="47"/>
+      <c r="AH39" s="47"/>
+      <c r="AI39" s="47"/>
+      <c r="AJ39" s="47"/>
+      <c r="AK39" s="47"/>
+      <c r="AL39" s="47"/>
+      <c r="AM39" s="47"/>
+      <c r="AN39" s="47"/>
+      <c r="AO39" s="47"/>
+      <c r="AP39" s="47"/>
+      <c r="AQ39" s="47"/>
+      <c r="AR39" s="47"/>
+      <c r="AS39" s="47"/>
     </row>
     <row r="40" spans="1:45" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="41" spans="1:45" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -10256,23 +10271,6 @@
     <row r="142" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="D39:L39"/>
-    <mergeCell ref="M39:S39"/>
-    <mergeCell ref="T39:AS39"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="D37:L37"/>
-    <mergeCell ref="M37:S37"/>
-    <mergeCell ref="T37:AS37"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="D38:L38"/>
-    <mergeCell ref="M38:S38"/>
-    <mergeCell ref="T38:AS38"/>
-    <mergeCell ref="AJ4:AS4"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="D35:L35"/>
-    <mergeCell ref="M35:S35"/>
-    <mergeCell ref="T35:AS35"/>
     <mergeCell ref="A36:C36"/>
     <mergeCell ref="D36:L36"/>
     <mergeCell ref="M36:S36"/>
@@ -10287,6 +10285,23 @@
     <mergeCell ref="AF3:AI3"/>
     <mergeCell ref="AJ3:AS3"/>
     <mergeCell ref="AF4:AI4"/>
+    <mergeCell ref="AJ4:AS4"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="D35:L35"/>
+    <mergeCell ref="M35:S35"/>
+    <mergeCell ref="T35:AS35"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="D39:L39"/>
+    <mergeCell ref="M39:S39"/>
+    <mergeCell ref="T39:AS39"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="D37:L37"/>
+    <mergeCell ref="M37:S37"/>
+    <mergeCell ref="T37:AS37"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="D38:L38"/>
+    <mergeCell ref="M38:S38"/>
+    <mergeCell ref="T38:AS38"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10309,206 +10324,206 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="46" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
-      <c r="U1" s="46"/>
-      <c r="V1" s="46"/>
-      <c r="W1" s="46"/>
-      <c r="X1" s="46"/>
-      <c r="Y1" s="46"/>
-      <c r="Z1" s="46"/>
-      <c r="AA1" s="46"/>
-      <c r="AB1" s="46"/>
-      <c r="AC1" s="46"/>
-      <c r="AD1" s="46"/>
-      <c r="AE1" s="46"/>
-      <c r="AF1" s="45" t="s">
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="AG1" s="45"/>
-      <c r="AH1" s="45"/>
-      <c r="AI1" s="45"/>
-      <c r="AJ1" s="35"/>
-      <c r="AK1" s="35"/>
-      <c r="AL1" s="35"/>
-      <c r="AM1" s="35"/>
-      <c r="AN1" s="35"/>
-      <c r="AO1" s="35"/>
-      <c r="AP1" s="35"/>
-      <c r="AQ1" s="35"/>
-      <c r="AR1" s="35"/>
-      <c r="AS1" s="35"/>
+      <c r="AG1" s="33"/>
+      <c r="AH1" s="33"/>
+      <c r="AI1" s="33"/>
+      <c r="AJ1" s="23"/>
+      <c r="AK1" s="23"/>
+      <c r="AL1" s="23"/>
+      <c r="AM1" s="23"/>
+      <c r="AN1" s="23"/>
+      <c r="AO1" s="23"/>
+      <c r="AP1" s="23"/>
+      <c r="AQ1" s="23"/>
+      <c r="AR1" s="23"/>
+      <c r="AS1" s="23"/>
     </row>
     <row r="2" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="39"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="47" t="s">
-        <v>19</v>
+      <c r="A2" s="27"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="35" t="s">
+        <v>17</v>
       </c>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47"/>
-      <c r="U2" s="47"/>
-      <c r="V2" s="47"/>
-      <c r="W2" s="47"/>
-      <c r="X2" s="47"/>
-      <c r="Y2" s="47"/>
-      <c r="Z2" s="47"/>
-      <c r="AA2" s="47"/>
-      <c r="AB2" s="47"/>
-      <c r="AC2" s="47"/>
-      <c r="AD2" s="47"/>
-      <c r="AE2" s="47"/>
-      <c r="AF2" s="45" t="s">
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="35"/>
+      <c r="V2" s="35"/>
+      <c r="W2" s="35"/>
+      <c r="X2" s="35"/>
+      <c r="Y2" s="35"/>
+      <c r="Z2" s="35"/>
+      <c r="AA2" s="35"/>
+      <c r="AB2" s="35"/>
+      <c r="AC2" s="35"/>
+      <c r="AD2" s="35"/>
+      <c r="AE2" s="35"/>
+      <c r="AF2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="45"/>
-      <c r="AH2" s="45"/>
-      <c r="AI2" s="45"/>
-      <c r="AJ2" s="34"/>
-      <c r="AK2" s="35"/>
-      <c r="AL2" s="35"/>
-      <c r="AM2" s="35"/>
-      <c r="AN2" s="35"/>
-      <c r="AO2" s="35"/>
-      <c r="AP2" s="35"/>
-      <c r="AQ2" s="35"/>
-      <c r="AR2" s="35"/>
-      <c r="AS2" s="35"/>
+      <c r="AG2" s="33"/>
+      <c r="AH2" s="33"/>
+      <c r="AI2" s="33"/>
+      <c r="AJ2" s="22"/>
+      <c r="AK2" s="23"/>
+      <c r="AL2" s="23"/>
+      <c r="AM2" s="23"/>
+      <c r="AN2" s="23"/>
+      <c r="AO2" s="23"/>
+      <c r="AP2" s="23"/>
+      <c r="AQ2" s="23"/>
+      <c r="AR2" s="23"/>
+      <c r="AS2" s="23"/>
     </row>
     <row r="3" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="39"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="47"/>
-      <c r="R3" s="47"/>
-      <c r="S3" s="47"/>
-      <c r="T3" s="47"/>
-      <c r="U3" s="47"/>
-      <c r="V3" s="47"/>
-      <c r="W3" s="47"/>
-      <c r="X3" s="47"/>
-      <c r="Y3" s="47"/>
-      <c r="Z3" s="47"/>
-      <c r="AA3" s="47"/>
-      <c r="AB3" s="47"/>
-      <c r="AC3" s="47"/>
-      <c r="AD3" s="47"/>
-      <c r="AE3" s="47"/>
-      <c r="AF3" s="45" t="s">
+      <c r="A3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="35"/>
+      <c r="S3" s="35"/>
+      <c r="T3" s="35"/>
+      <c r="U3" s="35"/>
+      <c r="V3" s="35"/>
+      <c r="W3" s="35"/>
+      <c r="X3" s="35"/>
+      <c r="Y3" s="35"/>
+      <c r="Z3" s="35"/>
+      <c r="AA3" s="35"/>
+      <c r="AB3" s="35"/>
+      <c r="AC3" s="35"/>
+      <c r="AD3" s="35"/>
+      <c r="AE3" s="35"/>
+      <c r="AF3" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="45"/>
-      <c r="AH3" s="45"/>
-      <c r="AI3" s="45"/>
-      <c r="AJ3" s="35"/>
-      <c r="AK3" s="35"/>
-      <c r="AL3" s="35"/>
-      <c r="AM3" s="35"/>
-      <c r="AN3" s="35"/>
-      <c r="AO3" s="35"/>
-      <c r="AP3" s="35"/>
-      <c r="AQ3" s="35"/>
-      <c r="AR3" s="35"/>
-      <c r="AS3" s="35"/>
+      <c r="AG3" s="33"/>
+      <c r="AH3" s="33"/>
+      <c r="AI3" s="33"/>
+      <c r="AJ3" s="23"/>
+      <c r="AK3" s="23"/>
+      <c r="AL3" s="23"/>
+      <c r="AM3" s="23"/>
+      <c r="AN3" s="23"/>
+      <c r="AO3" s="23"/>
+      <c r="AP3" s="23"/>
+      <c r="AQ3" s="23"/>
+      <c r="AR3" s="23"/>
+      <c r="AS3" s="23"/>
     </row>
     <row r="4" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="42"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="47"/>
-      <c r="S4" s="47"/>
-      <c r="T4" s="47"/>
-      <c r="U4" s="47"/>
-      <c r="V4" s="47"/>
-      <c r="W4" s="47"/>
-      <c r="X4" s="47"/>
-      <c r="Y4" s="47"/>
-      <c r="Z4" s="47"/>
-      <c r="AA4" s="47"/>
-      <c r="AB4" s="47"/>
-      <c r="AC4" s="47"/>
-      <c r="AD4" s="47"/>
-      <c r="AE4" s="47"/>
-      <c r="AF4" s="45" t="s">
+      <c r="A4" s="30"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="35"/>
+      <c r="T4" s="35"/>
+      <c r="U4" s="35"/>
+      <c r="V4" s="35"/>
+      <c r="W4" s="35"/>
+      <c r="X4" s="35"/>
+      <c r="Y4" s="35"/>
+      <c r="Z4" s="35"/>
+      <c r="AA4" s="35"/>
+      <c r="AB4" s="35"/>
+      <c r="AC4" s="35"/>
+      <c r="AD4" s="35"/>
+      <c r="AE4" s="35"/>
+      <c r="AF4" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="AG4" s="45"/>
-      <c r="AH4" s="45"/>
-      <c r="AI4" s="45"/>
-      <c r="AJ4" s="34"/>
-      <c r="AK4" s="35"/>
-      <c r="AL4" s="35"/>
-      <c r="AM4" s="35"/>
-      <c r="AN4" s="35"/>
-      <c r="AO4" s="35"/>
-      <c r="AP4" s="35"/>
-      <c r="AQ4" s="35"/>
-      <c r="AR4" s="35"/>
-      <c r="AS4" s="35"/>
+      <c r="AG4" s="33"/>
+      <c r="AH4" s="33"/>
+      <c r="AI4" s="33"/>
+      <c r="AJ4" s="22"/>
+      <c r="AK4" s="23"/>
+      <c r="AL4" s="23"/>
+      <c r="AM4" s="23"/>
+      <c r="AN4" s="23"/>
+      <c r="AO4" s="23"/>
+      <c r="AP4" s="23"/>
+      <c r="AQ4" s="23"/>
+      <c r="AR4" s="23"/>
+      <c r="AS4" s="23"/>
     </row>
     <row r="5" spans="1:45" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
@@ -11637,255 +11652,255 @@
       <c r="AH34" s="1"/>
     </row>
     <row r="35" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="31" t="s">
+      <c r="A35" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="32"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="23" t="s">
+      <c r="B35" s="45"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23"/>
-      <c r="K35" s="23"/>
-      <c r="L35" s="23"/>
-      <c r="M35" s="23" t="s">
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="36"/>
+      <c r="L35" s="36"/>
+      <c r="M35" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="N35" s="23"/>
-      <c r="O35" s="23"/>
-      <c r="P35" s="23"/>
-      <c r="Q35" s="23"/>
-      <c r="R35" s="23"/>
-      <c r="S35" s="23"/>
-      <c r="T35" s="23" t="s">
+      <c r="N35" s="36"/>
+      <c r="O35" s="36"/>
+      <c r="P35" s="36"/>
+      <c r="Q35" s="36"/>
+      <c r="R35" s="36"/>
+      <c r="S35" s="36"/>
+      <c r="T35" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="U35" s="23"/>
-      <c r="V35" s="23"/>
-      <c r="W35" s="23"/>
-      <c r="X35" s="23"/>
-      <c r="Y35" s="23"/>
-      <c r="Z35" s="23"/>
-      <c r="AA35" s="23"/>
-      <c r="AB35" s="23"/>
-      <c r="AC35" s="23"/>
-      <c r="AD35" s="23"/>
-      <c r="AE35" s="23"/>
-      <c r="AF35" s="23"/>
-      <c r="AG35" s="23"/>
-      <c r="AH35" s="23"/>
-      <c r="AI35" s="23"/>
-      <c r="AJ35" s="23"/>
-      <c r="AK35" s="23"/>
-      <c r="AL35" s="23"/>
-      <c r="AM35" s="23"/>
-      <c r="AN35" s="23"/>
-      <c r="AO35" s="23"/>
-      <c r="AP35" s="23"/>
-      <c r="AQ35" s="23"/>
-      <c r="AR35" s="23"/>
-      <c r="AS35" s="23"/>
+      <c r="U35" s="36"/>
+      <c r="V35" s="36"/>
+      <c r="W35" s="36"/>
+      <c r="X35" s="36"/>
+      <c r="Y35" s="36"/>
+      <c r="Z35" s="36"/>
+      <c r="AA35" s="36"/>
+      <c r="AB35" s="36"/>
+      <c r="AC35" s="36"/>
+      <c r="AD35" s="36"/>
+      <c r="AE35" s="36"/>
+      <c r="AF35" s="36"/>
+      <c r="AG35" s="36"/>
+      <c r="AH35" s="36"/>
+      <c r="AI35" s="36"/>
+      <c r="AJ35" s="36"/>
+      <c r="AK35" s="36"/>
+      <c r="AL35" s="36"/>
+      <c r="AM35" s="36"/>
+      <c r="AN35" s="36"/>
+      <c r="AO35" s="36"/>
+      <c r="AP35" s="36"/>
+      <c r="AQ35" s="36"/>
+      <c r="AR35" s="36"/>
+      <c r="AS35" s="36"/>
     </row>
     <row r="36" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="25" t="s">
+      <c r="A36" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="26"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="22"/>
-      <c r="J36" s="22"/>
-      <c r="K36" s="22"/>
-      <c r="L36" s="22"/>
-      <c r="M36" s="22"/>
-      <c r="N36" s="22"/>
-      <c r="O36" s="22"/>
-      <c r="P36" s="22"/>
-      <c r="Q36" s="22"/>
-      <c r="R36" s="22"/>
-      <c r="S36" s="22"/>
-      <c r="T36" s="24"/>
-      <c r="U36" s="24"/>
-      <c r="V36" s="24"/>
-      <c r="W36" s="24"/>
-      <c r="X36" s="24"/>
-      <c r="Y36" s="24"/>
-      <c r="Z36" s="24"/>
-      <c r="AA36" s="24"/>
-      <c r="AB36" s="24"/>
-      <c r="AC36" s="24"/>
-      <c r="AD36" s="24"/>
-      <c r="AE36" s="24"/>
-      <c r="AF36" s="24"/>
-      <c r="AG36" s="24"/>
-      <c r="AH36" s="24"/>
-      <c r="AI36" s="24"/>
-      <c r="AJ36" s="24"/>
-      <c r="AK36" s="24"/>
-      <c r="AL36" s="24"/>
-      <c r="AM36" s="24"/>
-      <c r="AN36" s="24"/>
-      <c r="AO36" s="24"/>
-      <c r="AP36" s="24"/>
-      <c r="AQ36" s="24"/>
-      <c r="AR36" s="24"/>
-      <c r="AS36" s="24"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="37"/>
+      <c r="I36" s="37"/>
+      <c r="J36" s="37"/>
+      <c r="K36" s="37"/>
+      <c r="L36" s="37"/>
+      <c r="M36" s="37"/>
+      <c r="N36" s="37"/>
+      <c r="O36" s="37"/>
+      <c r="P36" s="37"/>
+      <c r="Q36" s="37"/>
+      <c r="R36" s="37"/>
+      <c r="S36" s="37"/>
+      <c r="T36" s="47"/>
+      <c r="U36" s="47"/>
+      <c r="V36" s="47"/>
+      <c r="W36" s="47"/>
+      <c r="X36" s="47"/>
+      <c r="Y36" s="47"/>
+      <c r="Z36" s="47"/>
+      <c r="AA36" s="47"/>
+      <c r="AB36" s="47"/>
+      <c r="AC36" s="47"/>
+      <c r="AD36" s="47"/>
+      <c r="AE36" s="47"/>
+      <c r="AF36" s="47"/>
+      <c r="AG36" s="47"/>
+      <c r="AH36" s="47"/>
+      <c r="AI36" s="47"/>
+      <c r="AJ36" s="47"/>
+      <c r="AK36" s="47"/>
+      <c r="AL36" s="47"/>
+      <c r="AM36" s="47"/>
+      <c r="AN36" s="47"/>
+      <c r="AO36" s="47"/>
+      <c r="AP36" s="47"/>
+      <c r="AQ36" s="47"/>
+      <c r="AR36" s="47"/>
+      <c r="AS36" s="47"/>
     </row>
     <row r="37" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="25" t="s">
+      <c r="A37" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="26"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="22"/>
-      <c r="J37" s="22"/>
-      <c r="K37" s="22"/>
-      <c r="L37" s="22"/>
-      <c r="M37" s="22"/>
-      <c r="N37" s="22"/>
-      <c r="O37" s="22"/>
-      <c r="P37" s="22"/>
-      <c r="Q37" s="22"/>
-      <c r="R37" s="22"/>
-      <c r="S37" s="22"/>
-      <c r="T37" s="24"/>
-      <c r="U37" s="24"/>
-      <c r="V37" s="24"/>
-      <c r="W37" s="24"/>
-      <c r="X37" s="24"/>
-      <c r="Y37" s="24"/>
-      <c r="Z37" s="24"/>
-      <c r="AA37" s="24"/>
-      <c r="AB37" s="24"/>
-      <c r="AC37" s="24"/>
-      <c r="AD37" s="24"/>
-      <c r="AE37" s="24"/>
-      <c r="AF37" s="24"/>
-      <c r="AG37" s="24"/>
-      <c r="AH37" s="24"/>
-      <c r="AI37" s="24"/>
-      <c r="AJ37" s="24"/>
-      <c r="AK37" s="24"/>
-      <c r="AL37" s="24"/>
-      <c r="AM37" s="24"/>
-      <c r="AN37" s="24"/>
-      <c r="AO37" s="24"/>
-      <c r="AP37" s="24"/>
-      <c r="AQ37" s="24"/>
-      <c r="AR37" s="24"/>
-      <c r="AS37" s="24"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="37"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="37"/>
+      <c r="K37" s="37"/>
+      <c r="L37" s="37"/>
+      <c r="M37" s="37"/>
+      <c r="N37" s="37"/>
+      <c r="O37" s="37"/>
+      <c r="P37" s="37"/>
+      <c r="Q37" s="37"/>
+      <c r="R37" s="37"/>
+      <c r="S37" s="37"/>
+      <c r="T37" s="47"/>
+      <c r="U37" s="47"/>
+      <c r="V37" s="47"/>
+      <c r="W37" s="47"/>
+      <c r="X37" s="47"/>
+      <c r="Y37" s="47"/>
+      <c r="Z37" s="47"/>
+      <c r="AA37" s="47"/>
+      <c r="AB37" s="47"/>
+      <c r="AC37" s="47"/>
+      <c r="AD37" s="47"/>
+      <c r="AE37" s="47"/>
+      <c r="AF37" s="47"/>
+      <c r="AG37" s="47"/>
+      <c r="AH37" s="47"/>
+      <c r="AI37" s="47"/>
+      <c r="AJ37" s="47"/>
+      <c r="AK37" s="47"/>
+      <c r="AL37" s="47"/>
+      <c r="AM37" s="47"/>
+      <c r="AN37" s="47"/>
+      <c r="AO37" s="47"/>
+      <c r="AP37" s="47"/>
+      <c r="AQ37" s="47"/>
+      <c r="AR37" s="47"/>
+      <c r="AS37" s="47"/>
     </row>
     <row r="38" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="28" t="s">
+      <c r="A38" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="B38" s="29"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="22"/>
-      <c r="J38" s="22"/>
-      <c r="K38" s="22"/>
-      <c r="L38" s="22"/>
-      <c r="M38" s="22"/>
-      <c r="N38" s="22"/>
-      <c r="O38" s="22"/>
-      <c r="P38" s="22"/>
-      <c r="Q38" s="22"/>
-      <c r="R38" s="22"/>
-      <c r="S38" s="22"/>
-      <c r="T38" s="24"/>
-      <c r="U38" s="24"/>
-      <c r="V38" s="24"/>
-      <c r="W38" s="24"/>
-      <c r="X38" s="24"/>
-      <c r="Y38" s="24"/>
-      <c r="Z38" s="24"/>
-      <c r="AA38" s="24"/>
-      <c r="AB38" s="24"/>
-      <c r="AC38" s="24"/>
-      <c r="AD38" s="24"/>
-      <c r="AE38" s="24"/>
-      <c r="AF38" s="24"/>
-      <c r="AG38" s="24"/>
-      <c r="AH38" s="24"/>
-      <c r="AI38" s="24"/>
-      <c r="AJ38" s="24"/>
-      <c r="AK38" s="24"/>
-      <c r="AL38" s="24"/>
-      <c r="AM38" s="24"/>
-      <c r="AN38" s="24"/>
-      <c r="AO38" s="24"/>
-      <c r="AP38" s="24"/>
-      <c r="AQ38" s="24"/>
-      <c r="AR38" s="24"/>
-      <c r="AS38" s="24"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="37"/>
+      <c r="K38" s="37"/>
+      <c r="L38" s="37"/>
+      <c r="M38" s="37"/>
+      <c r="N38" s="37"/>
+      <c r="O38" s="37"/>
+      <c r="P38" s="37"/>
+      <c r="Q38" s="37"/>
+      <c r="R38" s="37"/>
+      <c r="S38" s="37"/>
+      <c r="T38" s="47"/>
+      <c r="U38" s="47"/>
+      <c r="V38" s="47"/>
+      <c r="W38" s="47"/>
+      <c r="X38" s="47"/>
+      <c r="Y38" s="47"/>
+      <c r="Z38" s="47"/>
+      <c r="AA38" s="47"/>
+      <c r="AB38" s="47"/>
+      <c r="AC38" s="47"/>
+      <c r="AD38" s="47"/>
+      <c r="AE38" s="47"/>
+      <c r="AF38" s="47"/>
+      <c r="AG38" s="47"/>
+      <c r="AH38" s="47"/>
+      <c r="AI38" s="47"/>
+      <c r="AJ38" s="47"/>
+      <c r="AK38" s="47"/>
+      <c r="AL38" s="47"/>
+      <c r="AM38" s="47"/>
+      <c r="AN38" s="47"/>
+      <c r="AO38" s="47"/>
+      <c r="AP38" s="47"/>
+      <c r="AQ38" s="47"/>
+      <c r="AR38" s="47"/>
+      <c r="AS38" s="47"/>
     </row>
     <row r="39" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="25" t="s">
+      <c r="A39" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="26"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="22"/>
-      <c r="I39" s="22"/>
-      <c r="J39" s="22"/>
-      <c r="K39" s="22"/>
-      <c r="L39" s="22"/>
-      <c r="M39" s="22"/>
-      <c r="N39" s="22"/>
-      <c r="O39" s="22"/>
-      <c r="P39" s="22"/>
-      <c r="Q39" s="22"/>
-      <c r="R39" s="22"/>
-      <c r="S39" s="22"/>
-      <c r="T39" s="24"/>
-      <c r="U39" s="24"/>
-      <c r="V39" s="24"/>
-      <c r="W39" s="24"/>
-      <c r="X39" s="24"/>
-      <c r="Y39" s="24"/>
-      <c r="Z39" s="24"/>
-      <c r="AA39" s="24"/>
-      <c r="AB39" s="24"/>
-      <c r="AC39" s="24"/>
-      <c r="AD39" s="24"/>
-      <c r="AE39" s="24"/>
-      <c r="AF39" s="24"/>
-      <c r="AG39" s="24"/>
-      <c r="AH39" s="24"/>
-      <c r="AI39" s="24"/>
-      <c r="AJ39" s="24"/>
-      <c r="AK39" s="24"/>
-      <c r="AL39" s="24"/>
-      <c r="AM39" s="24"/>
-      <c r="AN39" s="24"/>
-      <c r="AO39" s="24"/>
-      <c r="AP39" s="24"/>
-      <c r="AQ39" s="24"/>
-      <c r="AR39" s="24"/>
-      <c r="AS39" s="24"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="37"/>
+      <c r="K39" s="37"/>
+      <c r="L39" s="37"/>
+      <c r="M39" s="37"/>
+      <c r="N39" s="37"/>
+      <c r="O39" s="37"/>
+      <c r="P39" s="37"/>
+      <c r="Q39" s="37"/>
+      <c r="R39" s="37"/>
+      <c r="S39" s="37"/>
+      <c r="T39" s="47"/>
+      <c r="U39" s="47"/>
+      <c r="V39" s="47"/>
+      <c r="W39" s="47"/>
+      <c r="X39" s="47"/>
+      <c r="Y39" s="47"/>
+      <c r="Z39" s="47"/>
+      <c r="AA39" s="47"/>
+      <c r="AB39" s="47"/>
+      <c r="AC39" s="47"/>
+      <c r="AD39" s="47"/>
+      <c r="AE39" s="47"/>
+      <c r="AF39" s="47"/>
+      <c r="AG39" s="47"/>
+      <c r="AH39" s="47"/>
+      <c r="AI39" s="47"/>
+      <c r="AJ39" s="47"/>
+      <c r="AK39" s="47"/>
+      <c r="AL39" s="47"/>
+      <c r="AM39" s="47"/>
+      <c r="AN39" s="47"/>
+      <c r="AO39" s="47"/>
+      <c r="AP39" s="47"/>
+      <c r="AQ39" s="47"/>
+      <c r="AR39" s="47"/>
+      <c r="AS39" s="47"/>
     </row>
     <row r="40" spans="1:45" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="41" spans="1:45" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -12000,23 +12015,6 @@
     <row r="142" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="D39:L39"/>
-    <mergeCell ref="M39:S39"/>
-    <mergeCell ref="T39:AS39"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="D37:L37"/>
-    <mergeCell ref="M37:S37"/>
-    <mergeCell ref="T37:AS37"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="D38:L38"/>
-    <mergeCell ref="M38:S38"/>
-    <mergeCell ref="T38:AS38"/>
-    <mergeCell ref="AJ4:AS4"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="D35:L35"/>
-    <mergeCell ref="M35:S35"/>
-    <mergeCell ref="T35:AS35"/>
     <mergeCell ref="A36:C36"/>
     <mergeCell ref="D36:L36"/>
     <mergeCell ref="M36:S36"/>
@@ -12031,6 +12029,23 @@
     <mergeCell ref="AF3:AI3"/>
     <mergeCell ref="AJ3:AS3"/>
     <mergeCell ref="AF4:AI4"/>
+    <mergeCell ref="AJ4:AS4"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="D35:L35"/>
+    <mergeCell ref="M35:S35"/>
+    <mergeCell ref="T35:AS35"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="D39:L39"/>
+    <mergeCell ref="M39:S39"/>
+    <mergeCell ref="T39:AS39"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="D37:L37"/>
+    <mergeCell ref="M37:S37"/>
+    <mergeCell ref="T37:AS37"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="D38:L38"/>
+    <mergeCell ref="M38:S38"/>
+    <mergeCell ref="T38:AS38"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12053,206 +12068,206 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="46" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
-      <c r="U1" s="46"/>
-      <c r="V1" s="46"/>
-      <c r="W1" s="46"/>
-      <c r="X1" s="46"/>
-      <c r="Y1" s="46"/>
-      <c r="Z1" s="46"/>
-      <c r="AA1" s="46"/>
-      <c r="AB1" s="46"/>
-      <c r="AC1" s="46"/>
-      <c r="AD1" s="46"/>
-      <c r="AE1" s="46"/>
-      <c r="AF1" s="45" t="s">
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="AG1" s="45"/>
-      <c r="AH1" s="45"/>
-      <c r="AI1" s="45"/>
-      <c r="AJ1" s="35"/>
-      <c r="AK1" s="35"/>
-      <c r="AL1" s="35"/>
-      <c r="AM1" s="35"/>
-      <c r="AN1" s="35"/>
-      <c r="AO1" s="35"/>
-      <c r="AP1" s="35"/>
-      <c r="AQ1" s="35"/>
-      <c r="AR1" s="35"/>
-      <c r="AS1" s="35"/>
+      <c r="AG1" s="33"/>
+      <c r="AH1" s="33"/>
+      <c r="AI1" s="33"/>
+      <c r="AJ1" s="23"/>
+      <c r="AK1" s="23"/>
+      <c r="AL1" s="23"/>
+      <c r="AM1" s="23"/>
+      <c r="AN1" s="23"/>
+      <c r="AO1" s="23"/>
+      <c r="AP1" s="23"/>
+      <c r="AQ1" s="23"/>
+      <c r="AR1" s="23"/>
+      <c r="AS1" s="23"/>
     </row>
     <row r="2" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="39"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="47" t="s">
-        <v>20</v>
+      <c r="A2" s="27"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="35" t="s">
+        <v>18</v>
       </c>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47"/>
-      <c r="U2" s="47"/>
-      <c r="V2" s="47"/>
-      <c r="W2" s="47"/>
-      <c r="X2" s="47"/>
-      <c r="Y2" s="47"/>
-      <c r="Z2" s="47"/>
-      <c r="AA2" s="47"/>
-      <c r="AB2" s="47"/>
-      <c r="AC2" s="47"/>
-      <c r="AD2" s="47"/>
-      <c r="AE2" s="47"/>
-      <c r="AF2" s="45" t="s">
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="35"/>
+      <c r="V2" s="35"/>
+      <c r="W2" s="35"/>
+      <c r="X2" s="35"/>
+      <c r="Y2" s="35"/>
+      <c r="Z2" s="35"/>
+      <c r="AA2" s="35"/>
+      <c r="AB2" s="35"/>
+      <c r="AC2" s="35"/>
+      <c r="AD2" s="35"/>
+      <c r="AE2" s="35"/>
+      <c r="AF2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="45"/>
-      <c r="AH2" s="45"/>
-      <c r="AI2" s="45"/>
-      <c r="AJ2" s="34"/>
-      <c r="AK2" s="35"/>
-      <c r="AL2" s="35"/>
-      <c r="AM2" s="35"/>
-      <c r="AN2" s="35"/>
-      <c r="AO2" s="35"/>
-      <c r="AP2" s="35"/>
-      <c r="AQ2" s="35"/>
-      <c r="AR2" s="35"/>
-      <c r="AS2" s="35"/>
+      <c r="AG2" s="33"/>
+      <c r="AH2" s="33"/>
+      <c r="AI2" s="33"/>
+      <c r="AJ2" s="22"/>
+      <c r="AK2" s="23"/>
+      <c r="AL2" s="23"/>
+      <c r="AM2" s="23"/>
+      <c r="AN2" s="23"/>
+      <c r="AO2" s="23"/>
+      <c r="AP2" s="23"/>
+      <c r="AQ2" s="23"/>
+      <c r="AR2" s="23"/>
+      <c r="AS2" s="23"/>
     </row>
     <row r="3" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="39"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="47"/>
-      <c r="R3" s="47"/>
-      <c r="S3" s="47"/>
-      <c r="T3" s="47"/>
-      <c r="U3" s="47"/>
-      <c r="V3" s="47"/>
-      <c r="W3" s="47"/>
-      <c r="X3" s="47"/>
-      <c r="Y3" s="47"/>
-      <c r="Z3" s="47"/>
-      <c r="AA3" s="47"/>
-      <c r="AB3" s="47"/>
-      <c r="AC3" s="47"/>
-      <c r="AD3" s="47"/>
-      <c r="AE3" s="47"/>
-      <c r="AF3" s="45" t="s">
+      <c r="A3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="35"/>
+      <c r="S3" s="35"/>
+      <c r="T3" s="35"/>
+      <c r="U3" s="35"/>
+      <c r="V3" s="35"/>
+      <c r="W3" s="35"/>
+      <c r="X3" s="35"/>
+      <c r="Y3" s="35"/>
+      <c r="Z3" s="35"/>
+      <c r="AA3" s="35"/>
+      <c r="AB3" s="35"/>
+      <c r="AC3" s="35"/>
+      <c r="AD3" s="35"/>
+      <c r="AE3" s="35"/>
+      <c r="AF3" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="45"/>
-      <c r="AH3" s="45"/>
-      <c r="AI3" s="45"/>
-      <c r="AJ3" s="35"/>
-      <c r="AK3" s="35"/>
-      <c r="AL3" s="35"/>
-      <c r="AM3" s="35"/>
-      <c r="AN3" s="35"/>
-      <c r="AO3" s="35"/>
-      <c r="AP3" s="35"/>
-      <c r="AQ3" s="35"/>
-      <c r="AR3" s="35"/>
-      <c r="AS3" s="35"/>
+      <c r="AG3" s="33"/>
+      <c r="AH3" s="33"/>
+      <c r="AI3" s="33"/>
+      <c r="AJ3" s="23"/>
+      <c r="AK3" s="23"/>
+      <c r="AL3" s="23"/>
+      <c r="AM3" s="23"/>
+      <c r="AN3" s="23"/>
+      <c r="AO3" s="23"/>
+      <c r="AP3" s="23"/>
+      <c r="AQ3" s="23"/>
+      <c r="AR3" s="23"/>
+      <c r="AS3" s="23"/>
     </row>
     <row r="4" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="42"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="47"/>
-      <c r="S4" s="47"/>
-      <c r="T4" s="47"/>
-      <c r="U4" s="47"/>
-      <c r="V4" s="47"/>
-      <c r="W4" s="47"/>
-      <c r="X4" s="47"/>
-      <c r="Y4" s="47"/>
-      <c r="Z4" s="47"/>
-      <c r="AA4" s="47"/>
-      <c r="AB4" s="47"/>
-      <c r="AC4" s="47"/>
-      <c r="AD4" s="47"/>
-      <c r="AE4" s="47"/>
-      <c r="AF4" s="45" t="s">
+      <c r="A4" s="30"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="35"/>
+      <c r="T4" s="35"/>
+      <c r="U4" s="35"/>
+      <c r="V4" s="35"/>
+      <c r="W4" s="35"/>
+      <c r="X4" s="35"/>
+      <c r="Y4" s="35"/>
+      <c r="Z4" s="35"/>
+      <c r="AA4" s="35"/>
+      <c r="AB4" s="35"/>
+      <c r="AC4" s="35"/>
+      <c r="AD4" s="35"/>
+      <c r="AE4" s="35"/>
+      <c r="AF4" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="AG4" s="45"/>
-      <c r="AH4" s="45"/>
-      <c r="AI4" s="45"/>
-      <c r="AJ4" s="34"/>
-      <c r="AK4" s="35"/>
-      <c r="AL4" s="35"/>
-      <c r="AM4" s="35"/>
-      <c r="AN4" s="35"/>
-      <c r="AO4" s="35"/>
-      <c r="AP4" s="35"/>
-      <c r="AQ4" s="35"/>
-      <c r="AR4" s="35"/>
-      <c r="AS4" s="35"/>
+      <c r="AG4" s="33"/>
+      <c r="AH4" s="33"/>
+      <c r="AI4" s="33"/>
+      <c r="AJ4" s="22"/>
+      <c r="AK4" s="23"/>
+      <c r="AL4" s="23"/>
+      <c r="AM4" s="23"/>
+      <c r="AN4" s="23"/>
+      <c r="AO4" s="23"/>
+      <c r="AP4" s="23"/>
+      <c r="AQ4" s="23"/>
+      <c r="AR4" s="23"/>
+      <c r="AS4" s="23"/>
     </row>
     <row r="5" spans="1:45" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
@@ -13381,255 +13396,255 @@
       <c r="AH34" s="1"/>
     </row>
     <row r="35" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="31" t="s">
+      <c r="A35" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="32"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="23" t="s">
+      <c r="B35" s="45"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23"/>
-      <c r="K35" s="23"/>
-      <c r="L35" s="23"/>
-      <c r="M35" s="23" t="s">
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="36"/>
+      <c r="L35" s="36"/>
+      <c r="M35" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="N35" s="23"/>
-      <c r="O35" s="23"/>
-      <c r="P35" s="23"/>
-      <c r="Q35" s="23"/>
-      <c r="R35" s="23"/>
-      <c r="S35" s="23"/>
-      <c r="T35" s="23" t="s">
+      <c r="N35" s="36"/>
+      <c r="O35" s="36"/>
+      <c r="P35" s="36"/>
+      <c r="Q35" s="36"/>
+      <c r="R35" s="36"/>
+      <c r="S35" s="36"/>
+      <c r="T35" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="U35" s="23"/>
-      <c r="V35" s="23"/>
-      <c r="W35" s="23"/>
-      <c r="X35" s="23"/>
-      <c r="Y35" s="23"/>
-      <c r="Z35" s="23"/>
-      <c r="AA35" s="23"/>
-      <c r="AB35" s="23"/>
-      <c r="AC35" s="23"/>
-      <c r="AD35" s="23"/>
-      <c r="AE35" s="23"/>
-      <c r="AF35" s="23"/>
-      <c r="AG35" s="23"/>
-      <c r="AH35" s="23"/>
-      <c r="AI35" s="23"/>
-      <c r="AJ35" s="23"/>
-      <c r="AK35" s="23"/>
-      <c r="AL35" s="23"/>
-      <c r="AM35" s="23"/>
-      <c r="AN35" s="23"/>
-      <c r="AO35" s="23"/>
-      <c r="AP35" s="23"/>
-      <c r="AQ35" s="23"/>
-      <c r="AR35" s="23"/>
-      <c r="AS35" s="23"/>
+      <c r="U35" s="36"/>
+      <c r="V35" s="36"/>
+      <c r="W35" s="36"/>
+      <c r="X35" s="36"/>
+      <c r="Y35" s="36"/>
+      <c r="Z35" s="36"/>
+      <c r="AA35" s="36"/>
+      <c r="AB35" s="36"/>
+      <c r="AC35" s="36"/>
+      <c r="AD35" s="36"/>
+      <c r="AE35" s="36"/>
+      <c r="AF35" s="36"/>
+      <c r="AG35" s="36"/>
+      <c r="AH35" s="36"/>
+      <c r="AI35" s="36"/>
+      <c r="AJ35" s="36"/>
+      <c r="AK35" s="36"/>
+      <c r="AL35" s="36"/>
+      <c r="AM35" s="36"/>
+      <c r="AN35" s="36"/>
+      <c r="AO35" s="36"/>
+      <c r="AP35" s="36"/>
+      <c r="AQ35" s="36"/>
+      <c r="AR35" s="36"/>
+      <c r="AS35" s="36"/>
     </row>
     <row r="36" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="25" t="s">
+      <c r="A36" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="26"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="22"/>
-      <c r="J36" s="22"/>
-      <c r="K36" s="22"/>
-      <c r="L36" s="22"/>
-      <c r="M36" s="22"/>
-      <c r="N36" s="22"/>
-      <c r="O36" s="22"/>
-      <c r="P36" s="22"/>
-      <c r="Q36" s="22"/>
-      <c r="R36" s="22"/>
-      <c r="S36" s="22"/>
-      <c r="T36" s="24"/>
-      <c r="U36" s="24"/>
-      <c r="V36" s="24"/>
-      <c r="W36" s="24"/>
-      <c r="X36" s="24"/>
-      <c r="Y36" s="24"/>
-      <c r="Z36" s="24"/>
-      <c r="AA36" s="24"/>
-      <c r="AB36" s="24"/>
-      <c r="AC36" s="24"/>
-      <c r="AD36" s="24"/>
-      <c r="AE36" s="24"/>
-      <c r="AF36" s="24"/>
-      <c r="AG36" s="24"/>
-      <c r="AH36" s="24"/>
-      <c r="AI36" s="24"/>
-      <c r="AJ36" s="24"/>
-      <c r="AK36" s="24"/>
-      <c r="AL36" s="24"/>
-      <c r="AM36" s="24"/>
-      <c r="AN36" s="24"/>
-      <c r="AO36" s="24"/>
-      <c r="AP36" s="24"/>
-      <c r="AQ36" s="24"/>
-      <c r="AR36" s="24"/>
-      <c r="AS36" s="24"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="37"/>
+      <c r="I36" s="37"/>
+      <c r="J36" s="37"/>
+      <c r="K36" s="37"/>
+      <c r="L36" s="37"/>
+      <c r="M36" s="37"/>
+      <c r="N36" s="37"/>
+      <c r="O36" s="37"/>
+      <c r="P36" s="37"/>
+      <c r="Q36" s="37"/>
+      <c r="R36" s="37"/>
+      <c r="S36" s="37"/>
+      <c r="T36" s="47"/>
+      <c r="U36" s="47"/>
+      <c r="V36" s="47"/>
+      <c r="W36" s="47"/>
+      <c r="X36" s="47"/>
+      <c r="Y36" s="47"/>
+      <c r="Z36" s="47"/>
+      <c r="AA36" s="47"/>
+      <c r="AB36" s="47"/>
+      <c r="AC36" s="47"/>
+      <c r="AD36" s="47"/>
+      <c r="AE36" s="47"/>
+      <c r="AF36" s="47"/>
+      <c r="AG36" s="47"/>
+      <c r="AH36" s="47"/>
+      <c r="AI36" s="47"/>
+      <c r="AJ36" s="47"/>
+      <c r="AK36" s="47"/>
+      <c r="AL36" s="47"/>
+      <c r="AM36" s="47"/>
+      <c r="AN36" s="47"/>
+      <c r="AO36" s="47"/>
+      <c r="AP36" s="47"/>
+      <c r="AQ36" s="47"/>
+      <c r="AR36" s="47"/>
+      <c r="AS36" s="47"/>
     </row>
     <row r="37" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="25" t="s">
+      <c r="A37" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="26"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="22"/>
-      <c r="J37" s="22"/>
-      <c r="K37" s="22"/>
-      <c r="L37" s="22"/>
-      <c r="M37" s="22"/>
-      <c r="N37" s="22"/>
-      <c r="O37" s="22"/>
-      <c r="P37" s="22"/>
-      <c r="Q37" s="22"/>
-      <c r="R37" s="22"/>
-      <c r="S37" s="22"/>
-      <c r="T37" s="24"/>
-      <c r="U37" s="24"/>
-      <c r="V37" s="24"/>
-      <c r="W37" s="24"/>
-      <c r="X37" s="24"/>
-      <c r="Y37" s="24"/>
-      <c r="Z37" s="24"/>
-      <c r="AA37" s="24"/>
-      <c r="AB37" s="24"/>
-      <c r="AC37" s="24"/>
-      <c r="AD37" s="24"/>
-      <c r="AE37" s="24"/>
-      <c r="AF37" s="24"/>
-      <c r="AG37" s="24"/>
-      <c r="AH37" s="24"/>
-      <c r="AI37" s="24"/>
-      <c r="AJ37" s="24"/>
-      <c r="AK37" s="24"/>
-      <c r="AL37" s="24"/>
-      <c r="AM37" s="24"/>
-      <c r="AN37" s="24"/>
-      <c r="AO37" s="24"/>
-      <c r="AP37" s="24"/>
-      <c r="AQ37" s="24"/>
-      <c r="AR37" s="24"/>
-      <c r="AS37" s="24"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="37"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="37"/>
+      <c r="K37" s="37"/>
+      <c r="L37" s="37"/>
+      <c r="M37" s="37"/>
+      <c r="N37" s="37"/>
+      <c r="O37" s="37"/>
+      <c r="P37" s="37"/>
+      <c r="Q37" s="37"/>
+      <c r="R37" s="37"/>
+      <c r="S37" s="37"/>
+      <c r="T37" s="47"/>
+      <c r="U37" s="47"/>
+      <c r="V37" s="47"/>
+      <c r="W37" s="47"/>
+      <c r="X37" s="47"/>
+      <c r="Y37" s="47"/>
+      <c r="Z37" s="47"/>
+      <c r="AA37" s="47"/>
+      <c r="AB37" s="47"/>
+      <c r="AC37" s="47"/>
+      <c r="AD37" s="47"/>
+      <c r="AE37" s="47"/>
+      <c r="AF37" s="47"/>
+      <c r="AG37" s="47"/>
+      <c r="AH37" s="47"/>
+      <c r="AI37" s="47"/>
+      <c r="AJ37" s="47"/>
+      <c r="AK37" s="47"/>
+      <c r="AL37" s="47"/>
+      <c r="AM37" s="47"/>
+      <c r="AN37" s="47"/>
+      <c r="AO37" s="47"/>
+      <c r="AP37" s="47"/>
+      <c r="AQ37" s="47"/>
+      <c r="AR37" s="47"/>
+      <c r="AS37" s="47"/>
     </row>
     <row r="38" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="28" t="s">
+      <c r="A38" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="B38" s="29"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="22"/>
-      <c r="J38" s="22"/>
-      <c r="K38" s="22"/>
-      <c r="L38" s="22"/>
-      <c r="M38" s="22"/>
-      <c r="N38" s="22"/>
-      <c r="O38" s="22"/>
-      <c r="P38" s="22"/>
-      <c r="Q38" s="22"/>
-      <c r="R38" s="22"/>
-      <c r="S38" s="22"/>
-      <c r="T38" s="24"/>
-      <c r="U38" s="24"/>
-      <c r="V38" s="24"/>
-      <c r="W38" s="24"/>
-      <c r="X38" s="24"/>
-      <c r="Y38" s="24"/>
-      <c r="Z38" s="24"/>
-      <c r="AA38" s="24"/>
-      <c r="AB38" s="24"/>
-      <c r="AC38" s="24"/>
-      <c r="AD38" s="24"/>
-      <c r="AE38" s="24"/>
-      <c r="AF38" s="24"/>
-      <c r="AG38" s="24"/>
-      <c r="AH38" s="24"/>
-      <c r="AI38" s="24"/>
-      <c r="AJ38" s="24"/>
-      <c r="AK38" s="24"/>
-      <c r="AL38" s="24"/>
-      <c r="AM38" s="24"/>
-      <c r="AN38" s="24"/>
-      <c r="AO38" s="24"/>
-      <c r="AP38" s="24"/>
-      <c r="AQ38" s="24"/>
-      <c r="AR38" s="24"/>
-      <c r="AS38" s="24"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="37"/>
+      <c r="K38" s="37"/>
+      <c r="L38" s="37"/>
+      <c r="M38" s="37"/>
+      <c r="N38" s="37"/>
+      <c r="O38" s="37"/>
+      <c r="P38" s="37"/>
+      <c r="Q38" s="37"/>
+      <c r="R38" s="37"/>
+      <c r="S38" s="37"/>
+      <c r="T38" s="47"/>
+      <c r="U38" s="47"/>
+      <c r="V38" s="47"/>
+      <c r="W38" s="47"/>
+      <c r="X38" s="47"/>
+      <c r="Y38" s="47"/>
+      <c r="Z38" s="47"/>
+      <c r="AA38" s="47"/>
+      <c r="AB38" s="47"/>
+      <c r="AC38" s="47"/>
+      <c r="AD38" s="47"/>
+      <c r="AE38" s="47"/>
+      <c r="AF38" s="47"/>
+      <c r="AG38" s="47"/>
+      <c r="AH38" s="47"/>
+      <c r="AI38" s="47"/>
+      <c r="AJ38" s="47"/>
+      <c r="AK38" s="47"/>
+      <c r="AL38" s="47"/>
+      <c r="AM38" s="47"/>
+      <c r="AN38" s="47"/>
+      <c r="AO38" s="47"/>
+      <c r="AP38" s="47"/>
+      <c r="AQ38" s="47"/>
+      <c r="AR38" s="47"/>
+      <c r="AS38" s="47"/>
     </row>
     <row r="39" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="25" t="s">
+      <c r="A39" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="26"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="22"/>
-      <c r="I39" s="22"/>
-      <c r="J39" s="22"/>
-      <c r="K39" s="22"/>
-      <c r="L39" s="22"/>
-      <c r="M39" s="22"/>
-      <c r="N39" s="22"/>
-      <c r="O39" s="22"/>
-      <c r="P39" s="22"/>
-      <c r="Q39" s="22"/>
-      <c r="R39" s="22"/>
-      <c r="S39" s="22"/>
-      <c r="T39" s="24"/>
-      <c r="U39" s="24"/>
-      <c r="V39" s="24"/>
-      <c r="W39" s="24"/>
-      <c r="X39" s="24"/>
-      <c r="Y39" s="24"/>
-      <c r="Z39" s="24"/>
-      <c r="AA39" s="24"/>
-      <c r="AB39" s="24"/>
-      <c r="AC39" s="24"/>
-      <c r="AD39" s="24"/>
-      <c r="AE39" s="24"/>
-      <c r="AF39" s="24"/>
-      <c r="AG39" s="24"/>
-      <c r="AH39" s="24"/>
-      <c r="AI39" s="24"/>
-      <c r="AJ39" s="24"/>
-      <c r="AK39" s="24"/>
-      <c r="AL39" s="24"/>
-      <c r="AM39" s="24"/>
-      <c r="AN39" s="24"/>
-      <c r="AO39" s="24"/>
-      <c r="AP39" s="24"/>
-      <c r="AQ39" s="24"/>
-      <c r="AR39" s="24"/>
-      <c r="AS39" s="24"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="37"/>
+      <c r="K39" s="37"/>
+      <c r="L39" s="37"/>
+      <c r="M39" s="37"/>
+      <c r="N39" s="37"/>
+      <c r="O39" s="37"/>
+      <c r="P39" s="37"/>
+      <c r="Q39" s="37"/>
+      <c r="R39" s="37"/>
+      <c r="S39" s="37"/>
+      <c r="T39" s="47"/>
+      <c r="U39" s="47"/>
+      <c r="V39" s="47"/>
+      <c r="W39" s="47"/>
+      <c r="X39" s="47"/>
+      <c r="Y39" s="47"/>
+      <c r="Z39" s="47"/>
+      <c r="AA39" s="47"/>
+      <c r="AB39" s="47"/>
+      <c r="AC39" s="47"/>
+      <c r="AD39" s="47"/>
+      <c r="AE39" s="47"/>
+      <c r="AF39" s="47"/>
+      <c r="AG39" s="47"/>
+      <c r="AH39" s="47"/>
+      <c r="AI39" s="47"/>
+      <c r="AJ39" s="47"/>
+      <c r="AK39" s="47"/>
+      <c r="AL39" s="47"/>
+      <c r="AM39" s="47"/>
+      <c r="AN39" s="47"/>
+      <c r="AO39" s="47"/>
+      <c r="AP39" s="47"/>
+      <c r="AQ39" s="47"/>
+      <c r="AR39" s="47"/>
+      <c r="AS39" s="47"/>
     </row>
     <row r="40" spans="1:45" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="41" spans="1:45" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -13744,23 +13759,6 @@
     <row r="142" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="D39:L39"/>
-    <mergeCell ref="M39:S39"/>
-    <mergeCell ref="T39:AS39"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="D37:L37"/>
-    <mergeCell ref="M37:S37"/>
-    <mergeCell ref="T37:AS37"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="D38:L38"/>
-    <mergeCell ref="M38:S38"/>
-    <mergeCell ref="T38:AS38"/>
-    <mergeCell ref="AJ4:AS4"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="D35:L35"/>
-    <mergeCell ref="M35:S35"/>
-    <mergeCell ref="T35:AS35"/>
     <mergeCell ref="A36:C36"/>
     <mergeCell ref="D36:L36"/>
     <mergeCell ref="M36:S36"/>
@@ -13775,6 +13773,23 @@
     <mergeCell ref="AF3:AI3"/>
     <mergeCell ref="AJ3:AS3"/>
     <mergeCell ref="AF4:AI4"/>
+    <mergeCell ref="AJ4:AS4"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="D35:L35"/>
+    <mergeCell ref="M35:S35"/>
+    <mergeCell ref="T35:AS35"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="D39:L39"/>
+    <mergeCell ref="M39:S39"/>
+    <mergeCell ref="T39:AS39"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="D37:L37"/>
+    <mergeCell ref="M37:S37"/>
+    <mergeCell ref="T37:AS37"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="D38:L38"/>
+    <mergeCell ref="M38:S38"/>
+    <mergeCell ref="T38:AS38"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13797,206 +13812,206 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="46" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
-      <c r="U1" s="46"/>
-      <c r="V1" s="46"/>
-      <c r="W1" s="46"/>
-      <c r="X1" s="46"/>
-      <c r="Y1" s="46"/>
-      <c r="Z1" s="46"/>
-      <c r="AA1" s="46"/>
-      <c r="AB1" s="46"/>
-      <c r="AC1" s="46"/>
-      <c r="AD1" s="46"/>
-      <c r="AE1" s="46"/>
-      <c r="AF1" s="45" t="s">
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="AG1" s="45"/>
-      <c r="AH1" s="45"/>
-      <c r="AI1" s="45"/>
-      <c r="AJ1" s="35"/>
-      <c r="AK1" s="35"/>
-      <c r="AL1" s="35"/>
-      <c r="AM1" s="35"/>
-      <c r="AN1" s="35"/>
-      <c r="AO1" s="35"/>
-      <c r="AP1" s="35"/>
-      <c r="AQ1" s="35"/>
-      <c r="AR1" s="35"/>
-      <c r="AS1" s="35"/>
+      <c r="AG1" s="33"/>
+      <c r="AH1" s="33"/>
+      <c r="AI1" s="33"/>
+      <c r="AJ1" s="23"/>
+      <c r="AK1" s="23"/>
+      <c r="AL1" s="23"/>
+      <c r="AM1" s="23"/>
+      <c r="AN1" s="23"/>
+      <c r="AO1" s="23"/>
+      <c r="AP1" s="23"/>
+      <c r="AQ1" s="23"/>
+      <c r="AR1" s="23"/>
+      <c r="AS1" s="23"/>
     </row>
     <row r="2" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="39"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="47" t="s">
-        <v>22</v>
+      <c r="A2" s="27"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="35" t="s">
+        <v>20</v>
       </c>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47"/>
-      <c r="U2" s="47"/>
-      <c r="V2" s="47"/>
-      <c r="W2" s="47"/>
-      <c r="X2" s="47"/>
-      <c r="Y2" s="47"/>
-      <c r="Z2" s="47"/>
-      <c r="AA2" s="47"/>
-      <c r="AB2" s="47"/>
-      <c r="AC2" s="47"/>
-      <c r="AD2" s="47"/>
-      <c r="AE2" s="47"/>
-      <c r="AF2" s="45" t="s">
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="35"/>
+      <c r="V2" s="35"/>
+      <c r="W2" s="35"/>
+      <c r="X2" s="35"/>
+      <c r="Y2" s="35"/>
+      <c r="Z2" s="35"/>
+      <c r="AA2" s="35"/>
+      <c r="AB2" s="35"/>
+      <c r="AC2" s="35"/>
+      <c r="AD2" s="35"/>
+      <c r="AE2" s="35"/>
+      <c r="AF2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="45"/>
-      <c r="AH2" s="45"/>
-      <c r="AI2" s="45"/>
-      <c r="AJ2" s="34"/>
-      <c r="AK2" s="35"/>
-      <c r="AL2" s="35"/>
-      <c r="AM2" s="35"/>
-      <c r="AN2" s="35"/>
-      <c r="AO2" s="35"/>
-      <c r="AP2" s="35"/>
-      <c r="AQ2" s="35"/>
-      <c r="AR2" s="35"/>
-      <c r="AS2" s="35"/>
+      <c r="AG2" s="33"/>
+      <c r="AH2" s="33"/>
+      <c r="AI2" s="33"/>
+      <c r="AJ2" s="22"/>
+      <c r="AK2" s="23"/>
+      <c r="AL2" s="23"/>
+      <c r="AM2" s="23"/>
+      <c r="AN2" s="23"/>
+      <c r="AO2" s="23"/>
+      <c r="AP2" s="23"/>
+      <c r="AQ2" s="23"/>
+      <c r="AR2" s="23"/>
+      <c r="AS2" s="23"/>
     </row>
     <row r="3" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="39"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="47"/>
-      <c r="R3" s="47"/>
-      <c r="S3" s="47"/>
-      <c r="T3" s="47"/>
-      <c r="U3" s="47"/>
-      <c r="V3" s="47"/>
-      <c r="W3" s="47"/>
-      <c r="X3" s="47"/>
-      <c r="Y3" s="47"/>
-      <c r="Z3" s="47"/>
-      <c r="AA3" s="47"/>
-      <c r="AB3" s="47"/>
-      <c r="AC3" s="47"/>
-      <c r="AD3" s="47"/>
-      <c r="AE3" s="47"/>
-      <c r="AF3" s="45" t="s">
+      <c r="A3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="35"/>
+      <c r="S3" s="35"/>
+      <c r="T3" s="35"/>
+      <c r="U3" s="35"/>
+      <c r="V3" s="35"/>
+      <c r="W3" s="35"/>
+      <c r="X3" s="35"/>
+      <c r="Y3" s="35"/>
+      <c r="Z3" s="35"/>
+      <c r="AA3" s="35"/>
+      <c r="AB3" s="35"/>
+      <c r="AC3" s="35"/>
+      <c r="AD3" s="35"/>
+      <c r="AE3" s="35"/>
+      <c r="AF3" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="45"/>
-      <c r="AH3" s="45"/>
-      <c r="AI3" s="45"/>
-      <c r="AJ3" s="35"/>
-      <c r="AK3" s="35"/>
-      <c r="AL3" s="35"/>
-      <c r="AM3" s="35"/>
-      <c r="AN3" s="35"/>
-      <c r="AO3" s="35"/>
-      <c r="AP3" s="35"/>
-      <c r="AQ3" s="35"/>
-      <c r="AR3" s="35"/>
-      <c r="AS3" s="35"/>
+      <c r="AG3" s="33"/>
+      <c r="AH3" s="33"/>
+      <c r="AI3" s="33"/>
+      <c r="AJ3" s="23"/>
+      <c r="AK3" s="23"/>
+      <c r="AL3" s="23"/>
+      <c r="AM3" s="23"/>
+      <c r="AN3" s="23"/>
+      <c r="AO3" s="23"/>
+      <c r="AP3" s="23"/>
+      <c r="AQ3" s="23"/>
+      <c r="AR3" s="23"/>
+      <c r="AS3" s="23"/>
     </row>
     <row r="4" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="42"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="47"/>
-      <c r="S4" s="47"/>
-      <c r="T4" s="47"/>
-      <c r="U4" s="47"/>
-      <c r="V4" s="47"/>
-      <c r="W4" s="47"/>
-      <c r="X4" s="47"/>
-      <c r="Y4" s="47"/>
-      <c r="Z4" s="47"/>
-      <c r="AA4" s="47"/>
-      <c r="AB4" s="47"/>
-      <c r="AC4" s="47"/>
-      <c r="AD4" s="47"/>
-      <c r="AE4" s="47"/>
-      <c r="AF4" s="45" t="s">
+      <c r="A4" s="30"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="35"/>
+      <c r="T4" s="35"/>
+      <c r="U4" s="35"/>
+      <c r="V4" s="35"/>
+      <c r="W4" s="35"/>
+      <c r="X4" s="35"/>
+      <c r="Y4" s="35"/>
+      <c r="Z4" s="35"/>
+      <c r="AA4" s="35"/>
+      <c r="AB4" s="35"/>
+      <c r="AC4" s="35"/>
+      <c r="AD4" s="35"/>
+      <c r="AE4" s="35"/>
+      <c r="AF4" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="AG4" s="45"/>
-      <c r="AH4" s="45"/>
-      <c r="AI4" s="45"/>
-      <c r="AJ4" s="34"/>
-      <c r="AK4" s="35"/>
-      <c r="AL4" s="35"/>
-      <c r="AM4" s="35"/>
-      <c r="AN4" s="35"/>
-      <c r="AO4" s="35"/>
-      <c r="AP4" s="35"/>
-      <c r="AQ4" s="35"/>
-      <c r="AR4" s="35"/>
-      <c r="AS4" s="35"/>
+      <c r="AG4" s="33"/>
+      <c r="AH4" s="33"/>
+      <c r="AI4" s="33"/>
+      <c r="AJ4" s="22"/>
+      <c r="AK4" s="23"/>
+      <c r="AL4" s="23"/>
+      <c r="AM4" s="23"/>
+      <c r="AN4" s="23"/>
+      <c r="AO4" s="23"/>
+      <c r="AP4" s="23"/>
+      <c r="AQ4" s="23"/>
+      <c r="AR4" s="23"/>
+      <c r="AS4" s="23"/>
     </row>
     <row r="5" spans="1:45" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
@@ -15125,255 +15140,255 @@
       <c r="AH34" s="1"/>
     </row>
     <row r="35" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="31" t="s">
+      <c r="A35" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="32"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="23" t="s">
+      <c r="B35" s="45"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23"/>
-      <c r="K35" s="23"/>
-      <c r="L35" s="23"/>
-      <c r="M35" s="23" t="s">
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="36"/>
+      <c r="L35" s="36"/>
+      <c r="M35" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="N35" s="23"/>
-      <c r="O35" s="23"/>
-      <c r="P35" s="23"/>
-      <c r="Q35" s="23"/>
-      <c r="R35" s="23"/>
-      <c r="S35" s="23"/>
-      <c r="T35" s="23" t="s">
+      <c r="N35" s="36"/>
+      <c r="O35" s="36"/>
+      <c r="P35" s="36"/>
+      <c r="Q35" s="36"/>
+      <c r="R35" s="36"/>
+      <c r="S35" s="36"/>
+      <c r="T35" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="U35" s="23"/>
-      <c r="V35" s="23"/>
-      <c r="W35" s="23"/>
-      <c r="X35" s="23"/>
-      <c r="Y35" s="23"/>
-      <c r="Z35" s="23"/>
-      <c r="AA35" s="23"/>
-      <c r="AB35" s="23"/>
-      <c r="AC35" s="23"/>
-      <c r="AD35" s="23"/>
-      <c r="AE35" s="23"/>
-      <c r="AF35" s="23"/>
-      <c r="AG35" s="23"/>
-      <c r="AH35" s="23"/>
-      <c r="AI35" s="23"/>
-      <c r="AJ35" s="23"/>
-      <c r="AK35" s="23"/>
-      <c r="AL35" s="23"/>
-      <c r="AM35" s="23"/>
-      <c r="AN35" s="23"/>
-      <c r="AO35" s="23"/>
-      <c r="AP35" s="23"/>
-      <c r="AQ35" s="23"/>
-      <c r="AR35" s="23"/>
-      <c r="AS35" s="23"/>
+      <c r="U35" s="36"/>
+      <c r="V35" s="36"/>
+      <c r="W35" s="36"/>
+      <c r="X35" s="36"/>
+      <c r="Y35" s="36"/>
+      <c r="Z35" s="36"/>
+      <c r="AA35" s="36"/>
+      <c r="AB35" s="36"/>
+      <c r="AC35" s="36"/>
+      <c r="AD35" s="36"/>
+      <c r="AE35" s="36"/>
+      <c r="AF35" s="36"/>
+      <c r="AG35" s="36"/>
+      <c r="AH35" s="36"/>
+      <c r="AI35" s="36"/>
+      <c r="AJ35" s="36"/>
+      <c r="AK35" s="36"/>
+      <c r="AL35" s="36"/>
+      <c r="AM35" s="36"/>
+      <c r="AN35" s="36"/>
+      <c r="AO35" s="36"/>
+      <c r="AP35" s="36"/>
+      <c r="AQ35" s="36"/>
+      <c r="AR35" s="36"/>
+      <c r="AS35" s="36"/>
     </row>
     <row r="36" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="25" t="s">
+      <c r="A36" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="26"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="22"/>
-      <c r="J36" s="22"/>
-      <c r="K36" s="22"/>
-      <c r="L36" s="22"/>
-      <c r="M36" s="22"/>
-      <c r="N36" s="22"/>
-      <c r="O36" s="22"/>
-      <c r="P36" s="22"/>
-      <c r="Q36" s="22"/>
-      <c r="R36" s="22"/>
-      <c r="S36" s="22"/>
-      <c r="T36" s="24"/>
-      <c r="U36" s="24"/>
-      <c r="V36" s="24"/>
-      <c r="W36" s="24"/>
-      <c r="X36" s="24"/>
-      <c r="Y36" s="24"/>
-      <c r="Z36" s="24"/>
-      <c r="AA36" s="24"/>
-      <c r="AB36" s="24"/>
-      <c r="AC36" s="24"/>
-      <c r="AD36" s="24"/>
-      <c r="AE36" s="24"/>
-      <c r="AF36" s="24"/>
-      <c r="AG36" s="24"/>
-      <c r="AH36" s="24"/>
-      <c r="AI36" s="24"/>
-      <c r="AJ36" s="24"/>
-      <c r="AK36" s="24"/>
-      <c r="AL36" s="24"/>
-      <c r="AM36" s="24"/>
-      <c r="AN36" s="24"/>
-      <c r="AO36" s="24"/>
-      <c r="AP36" s="24"/>
-      <c r="AQ36" s="24"/>
-      <c r="AR36" s="24"/>
-      <c r="AS36" s="24"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="37"/>
+      <c r="I36" s="37"/>
+      <c r="J36" s="37"/>
+      <c r="K36" s="37"/>
+      <c r="L36" s="37"/>
+      <c r="M36" s="37"/>
+      <c r="N36" s="37"/>
+      <c r="O36" s="37"/>
+      <c r="P36" s="37"/>
+      <c r="Q36" s="37"/>
+      <c r="R36" s="37"/>
+      <c r="S36" s="37"/>
+      <c r="T36" s="47"/>
+      <c r="U36" s="47"/>
+      <c r="V36" s="47"/>
+      <c r="W36" s="47"/>
+      <c r="X36" s="47"/>
+      <c r="Y36" s="47"/>
+      <c r="Z36" s="47"/>
+      <c r="AA36" s="47"/>
+      <c r="AB36" s="47"/>
+      <c r="AC36" s="47"/>
+      <c r="AD36" s="47"/>
+      <c r="AE36" s="47"/>
+      <c r="AF36" s="47"/>
+      <c r="AG36" s="47"/>
+      <c r="AH36" s="47"/>
+      <c r="AI36" s="47"/>
+      <c r="AJ36" s="47"/>
+      <c r="AK36" s="47"/>
+      <c r="AL36" s="47"/>
+      <c r="AM36" s="47"/>
+      <c r="AN36" s="47"/>
+      <c r="AO36" s="47"/>
+      <c r="AP36" s="47"/>
+      <c r="AQ36" s="47"/>
+      <c r="AR36" s="47"/>
+      <c r="AS36" s="47"/>
     </row>
     <row r="37" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="25" t="s">
+      <c r="A37" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="26"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="22"/>
-      <c r="J37" s="22"/>
-      <c r="K37" s="22"/>
-      <c r="L37" s="22"/>
-      <c r="M37" s="22"/>
-      <c r="N37" s="22"/>
-      <c r="O37" s="22"/>
-      <c r="P37" s="22"/>
-      <c r="Q37" s="22"/>
-      <c r="R37" s="22"/>
-      <c r="S37" s="22"/>
-      <c r="T37" s="24"/>
-      <c r="U37" s="24"/>
-      <c r="V37" s="24"/>
-      <c r="W37" s="24"/>
-      <c r="X37" s="24"/>
-      <c r="Y37" s="24"/>
-      <c r="Z37" s="24"/>
-      <c r="AA37" s="24"/>
-      <c r="AB37" s="24"/>
-      <c r="AC37" s="24"/>
-      <c r="AD37" s="24"/>
-      <c r="AE37" s="24"/>
-      <c r="AF37" s="24"/>
-      <c r="AG37" s="24"/>
-      <c r="AH37" s="24"/>
-      <c r="AI37" s="24"/>
-      <c r="AJ37" s="24"/>
-      <c r="AK37" s="24"/>
-      <c r="AL37" s="24"/>
-      <c r="AM37" s="24"/>
-      <c r="AN37" s="24"/>
-      <c r="AO37" s="24"/>
-      <c r="AP37" s="24"/>
-      <c r="AQ37" s="24"/>
-      <c r="AR37" s="24"/>
-      <c r="AS37" s="24"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="37"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="37"/>
+      <c r="K37" s="37"/>
+      <c r="L37" s="37"/>
+      <c r="M37" s="37"/>
+      <c r="N37" s="37"/>
+      <c r="O37" s="37"/>
+      <c r="P37" s="37"/>
+      <c r="Q37" s="37"/>
+      <c r="R37" s="37"/>
+      <c r="S37" s="37"/>
+      <c r="T37" s="47"/>
+      <c r="U37" s="47"/>
+      <c r="V37" s="47"/>
+      <c r="W37" s="47"/>
+      <c r="X37" s="47"/>
+      <c r="Y37" s="47"/>
+      <c r="Z37" s="47"/>
+      <c r="AA37" s="47"/>
+      <c r="AB37" s="47"/>
+      <c r="AC37" s="47"/>
+      <c r="AD37" s="47"/>
+      <c r="AE37" s="47"/>
+      <c r="AF37" s="47"/>
+      <c r="AG37" s="47"/>
+      <c r="AH37" s="47"/>
+      <c r="AI37" s="47"/>
+      <c r="AJ37" s="47"/>
+      <c r="AK37" s="47"/>
+      <c r="AL37" s="47"/>
+      <c r="AM37" s="47"/>
+      <c r="AN37" s="47"/>
+      <c r="AO37" s="47"/>
+      <c r="AP37" s="47"/>
+      <c r="AQ37" s="47"/>
+      <c r="AR37" s="47"/>
+      <c r="AS37" s="47"/>
     </row>
     <row r="38" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="28" t="s">
+      <c r="A38" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="B38" s="29"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="22"/>
-      <c r="J38" s="22"/>
-      <c r="K38" s="22"/>
-      <c r="L38" s="22"/>
-      <c r="M38" s="22"/>
-      <c r="N38" s="22"/>
-      <c r="O38" s="22"/>
-      <c r="P38" s="22"/>
-      <c r="Q38" s="22"/>
-      <c r="R38" s="22"/>
-      <c r="S38" s="22"/>
-      <c r="T38" s="24"/>
-      <c r="U38" s="24"/>
-      <c r="V38" s="24"/>
-      <c r="W38" s="24"/>
-      <c r="X38" s="24"/>
-      <c r="Y38" s="24"/>
-      <c r="Z38" s="24"/>
-      <c r="AA38" s="24"/>
-      <c r="AB38" s="24"/>
-      <c r="AC38" s="24"/>
-      <c r="AD38" s="24"/>
-      <c r="AE38" s="24"/>
-      <c r="AF38" s="24"/>
-      <c r="AG38" s="24"/>
-      <c r="AH38" s="24"/>
-      <c r="AI38" s="24"/>
-      <c r="AJ38" s="24"/>
-      <c r="AK38" s="24"/>
-      <c r="AL38" s="24"/>
-      <c r="AM38" s="24"/>
-      <c r="AN38" s="24"/>
-      <c r="AO38" s="24"/>
-      <c r="AP38" s="24"/>
-      <c r="AQ38" s="24"/>
-      <c r="AR38" s="24"/>
-      <c r="AS38" s="24"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="37"/>
+      <c r="K38" s="37"/>
+      <c r="L38" s="37"/>
+      <c r="M38" s="37"/>
+      <c r="N38" s="37"/>
+      <c r="O38" s="37"/>
+      <c r="P38" s="37"/>
+      <c r="Q38" s="37"/>
+      <c r="R38" s="37"/>
+      <c r="S38" s="37"/>
+      <c r="T38" s="47"/>
+      <c r="U38" s="47"/>
+      <c r="V38" s="47"/>
+      <c r="W38" s="47"/>
+      <c r="X38" s="47"/>
+      <c r="Y38" s="47"/>
+      <c r="Z38" s="47"/>
+      <c r="AA38" s="47"/>
+      <c r="AB38" s="47"/>
+      <c r="AC38" s="47"/>
+      <c r="AD38" s="47"/>
+      <c r="AE38" s="47"/>
+      <c r="AF38" s="47"/>
+      <c r="AG38" s="47"/>
+      <c r="AH38" s="47"/>
+      <c r="AI38" s="47"/>
+      <c r="AJ38" s="47"/>
+      <c r="AK38" s="47"/>
+      <c r="AL38" s="47"/>
+      <c r="AM38" s="47"/>
+      <c r="AN38" s="47"/>
+      <c r="AO38" s="47"/>
+      <c r="AP38" s="47"/>
+      <c r="AQ38" s="47"/>
+      <c r="AR38" s="47"/>
+      <c r="AS38" s="47"/>
     </row>
     <row r="39" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="25" t="s">
+      <c r="A39" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="26"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="22"/>
-      <c r="I39" s="22"/>
-      <c r="J39" s="22"/>
-      <c r="K39" s="22"/>
-      <c r="L39" s="22"/>
-      <c r="M39" s="22"/>
-      <c r="N39" s="22"/>
-      <c r="O39" s="22"/>
-      <c r="P39" s="22"/>
-      <c r="Q39" s="22"/>
-      <c r="R39" s="22"/>
-      <c r="S39" s="22"/>
-      <c r="T39" s="24"/>
-      <c r="U39" s="24"/>
-      <c r="V39" s="24"/>
-      <c r="W39" s="24"/>
-      <c r="X39" s="24"/>
-      <c r="Y39" s="24"/>
-      <c r="Z39" s="24"/>
-      <c r="AA39" s="24"/>
-      <c r="AB39" s="24"/>
-      <c r="AC39" s="24"/>
-      <c r="AD39" s="24"/>
-      <c r="AE39" s="24"/>
-      <c r="AF39" s="24"/>
-      <c r="AG39" s="24"/>
-      <c r="AH39" s="24"/>
-      <c r="AI39" s="24"/>
-      <c r="AJ39" s="24"/>
-      <c r="AK39" s="24"/>
-      <c r="AL39" s="24"/>
-      <c r="AM39" s="24"/>
-      <c r="AN39" s="24"/>
-      <c r="AO39" s="24"/>
-      <c r="AP39" s="24"/>
-      <c r="AQ39" s="24"/>
-      <c r="AR39" s="24"/>
-      <c r="AS39" s="24"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="37"/>
+      <c r="K39" s="37"/>
+      <c r="L39" s="37"/>
+      <c r="M39" s="37"/>
+      <c r="N39" s="37"/>
+      <c r="O39" s="37"/>
+      <c r="P39" s="37"/>
+      <c r="Q39" s="37"/>
+      <c r="R39" s="37"/>
+      <c r="S39" s="37"/>
+      <c r="T39" s="47"/>
+      <c r="U39" s="47"/>
+      <c r="V39" s="47"/>
+      <c r="W39" s="47"/>
+      <c r="X39" s="47"/>
+      <c r="Y39" s="47"/>
+      <c r="Z39" s="47"/>
+      <c r="AA39" s="47"/>
+      <c r="AB39" s="47"/>
+      <c r="AC39" s="47"/>
+      <c r="AD39" s="47"/>
+      <c r="AE39" s="47"/>
+      <c r="AF39" s="47"/>
+      <c r="AG39" s="47"/>
+      <c r="AH39" s="47"/>
+      <c r="AI39" s="47"/>
+      <c r="AJ39" s="47"/>
+      <c r="AK39" s="47"/>
+      <c r="AL39" s="47"/>
+      <c r="AM39" s="47"/>
+      <c r="AN39" s="47"/>
+      <c r="AO39" s="47"/>
+      <c r="AP39" s="47"/>
+      <c r="AQ39" s="47"/>
+      <c r="AR39" s="47"/>
+      <c r="AS39" s="47"/>
     </row>
     <row r="40" spans="1:45" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="41" spans="1:45" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -15488,23 +15503,6 @@
     <row r="142" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="D39:L39"/>
-    <mergeCell ref="M39:S39"/>
-    <mergeCell ref="T39:AS39"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="D37:L37"/>
-    <mergeCell ref="M37:S37"/>
-    <mergeCell ref="T37:AS37"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="D38:L38"/>
-    <mergeCell ref="M38:S38"/>
-    <mergeCell ref="T38:AS38"/>
-    <mergeCell ref="AJ4:AS4"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="D35:L35"/>
-    <mergeCell ref="M35:S35"/>
-    <mergeCell ref="T35:AS35"/>
     <mergeCell ref="A36:C36"/>
     <mergeCell ref="D36:L36"/>
     <mergeCell ref="M36:S36"/>
@@ -15519,6 +15517,23 @@
     <mergeCell ref="AF3:AI3"/>
     <mergeCell ref="AJ3:AS3"/>
     <mergeCell ref="AF4:AI4"/>
+    <mergeCell ref="AJ4:AS4"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="D35:L35"/>
+    <mergeCell ref="M35:S35"/>
+    <mergeCell ref="T35:AS35"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="D39:L39"/>
+    <mergeCell ref="M39:S39"/>
+    <mergeCell ref="T39:AS39"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="D37:L37"/>
+    <mergeCell ref="M37:S37"/>
+    <mergeCell ref="T37:AS37"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="D38:L38"/>
+    <mergeCell ref="M38:S38"/>
+    <mergeCell ref="T38:AS38"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15531,7 +15546,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C205ACF0-B890-4E9F-9C6E-B8864E65EA9F}">
   <dimension ref="A1:CN142"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -15541,206 +15556,206 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="46" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
-      <c r="U1" s="46"/>
-      <c r="V1" s="46"/>
-      <c r="W1" s="46"/>
-      <c r="X1" s="46"/>
-      <c r="Y1" s="46"/>
-      <c r="Z1" s="46"/>
-      <c r="AA1" s="46"/>
-      <c r="AB1" s="46"/>
-      <c r="AC1" s="46"/>
-      <c r="AD1" s="46"/>
-      <c r="AE1" s="46"/>
-      <c r="AF1" s="45" t="s">
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="AG1" s="45"/>
-      <c r="AH1" s="45"/>
-      <c r="AI1" s="45"/>
-      <c r="AJ1" s="35"/>
-      <c r="AK1" s="35"/>
-      <c r="AL1" s="35"/>
-      <c r="AM1" s="35"/>
-      <c r="AN1" s="35"/>
-      <c r="AO1" s="35"/>
-      <c r="AP1" s="35"/>
-      <c r="AQ1" s="35"/>
-      <c r="AR1" s="35"/>
-      <c r="AS1" s="35"/>
+      <c r="AG1" s="33"/>
+      <c r="AH1" s="33"/>
+      <c r="AI1" s="33"/>
+      <c r="AJ1" s="23"/>
+      <c r="AK1" s="23"/>
+      <c r="AL1" s="23"/>
+      <c r="AM1" s="23"/>
+      <c r="AN1" s="23"/>
+      <c r="AO1" s="23"/>
+      <c r="AP1" s="23"/>
+      <c r="AQ1" s="23"/>
+      <c r="AR1" s="23"/>
+      <c r="AS1" s="23"/>
     </row>
     <row r="2" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="39"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="47" t="s">
-        <v>23</v>
+      <c r="A2" s="27"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="35" t="s">
+        <v>21</v>
       </c>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47"/>
-      <c r="U2" s="47"/>
-      <c r="V2" s="47"/>
-      <c r="W2" s="47"/>
-      <c r="X2" s="47"/>
-      <c r="Y2" s="47"/>
-      <c r="Z2" s="47"/>
-      <c r="AA2" s="47"/>
-      <c r="AB2" s="47"/>
-      <c r="AC2" s="47"/>
-      <c r="AD2" s="47"/>
-      <c r="AE2" s="47"/>
-      <c r="AF2" s="45" t="s">
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="35"/>
+      <c r="V2" s="35"/>
+      <c r="W2" s="35"/>
+      <c r="X2" s="35"/>
+      <c r="Y2" s="35"/>
+      <c r="Z2" s="35"/>
+      <c r="AA2" s="35"/>
+      <c r="AB2" s="35"/>
+      <c r="AC2" s="35"/>
+      <c r="AD2" s="35"/>
+      <c r="AE2" s="35"/>
+      <c r="AF2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="45"/>
-      <c r="AH2" s="45"/>
-      <c r="AI2" s="45"/>
-      <c r="AJ2" s="34"/>
-      <c r="AK2" s="35"/>
-      <c r="AL2" s="35"/>
-      <c r="AM2" s="35"/>
-      <c r="AN2" s="35"/>
-      <c r="AO2" s="35"/>
-      <c r="AP2" s="35"/>
-      <c r="AQ2" s="35"/>
-      <c r="AR2" s="35"/>
-      <c r="AS2" s="35"/>
+      <c r="AG2" s="33"/>
+      <c r="AH2" s="33"/>
+      <c r="AI2" s="33"/>
+      <c r="AJ2" s="22"/>
+      <c r="AK2" s="23"/>
+      <c r="AL2" s="23"/>
+      <c r="AM2" s="23"/>
+      <c r="AN2" s="23"/>
+      <c r="AO2" s="23"/>
+      <c r="AP2" s="23"/>
+      <c r="AQ2" s="23"/>
+      <c r="AR2" s="23"/>
+      <c r="AS2" s="23"/>
     </row>
     <row r="3" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="39"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="47"/>
-      <c r="R3" s="47"/>
-      <c r="S3" s="47"/>
-      <c r="T3" s="47"/>
-      <c r="U3" s="47"/>
-      <c r="V3" s="47"/>
-      <c r="W3" s="47"/>
-      <c r="X3" s="47"/>
-      <c r="Y3" s="47"/>
-      <c r="Z3" s="47"/>
-      <c r="AA3" s="47"/>
-      <c r="AB3" s="47"/>
-      <c r="AC3" s="47"/>
-      <c r="AD3" s="47"/>
-      <c r="AE3" s="47"/>
-      <c r="AF3" s="45" t="s">
+      <c r="A3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="35"/>
+      <c r="S3" s="35"/>
+      <c r="T3" s="35"/>
+      <c r="U3" s="35"/>
+      <c r="V3" s="35"/>
+      <c r="W3" s="35"/>
+      <c r="X3" s="35"/>
+      <c r="Y3" s="35"/>
+      <c r="Z3" s="35"/>
+      <c r="AA3" s="35"/>
+      <c r="AB3" s="35"/>
+      <c r="AC3" s="35"/>
+      <c r="AD3" s="35"/>
+      <c r="AE3" s="35"/>
+      <c r="AF3" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="45"/>
-      <c r="AH3" s="45"/>
-      <c r="AI3" s="45"/>
-      <c r="AJ3" s="35"/>
-      <c r="AK3" s="35"/>
-      <c r="AL3" s="35"/>
-      <c r="AM3" s="35"/>
-      <c r="AN3" s="35"/>
-      <c r="AO3" s="35"/>
-      <c r="AP3" s="35"/>
-      <c r="AQ3" s="35"/>
-      <c r="AR3" s="35"/>
-      <c r="AS3" s="35"/>
+      <c r="AG3" s="33"/>
+      <c r="AH3" s="33"/>
+      <c r="AI3" s="33"/>
+      <c r="AJ3" s="23"/>
+      <c r="AK3" s="23"/>
+      <c r="AL3" s="23"/>
+      <c r="AM3" s="23"/>
+      <c r="AN3" s="23"/>
+      <c r="AO3" s="23"/>
+      <c r="AP3" s="23"/>
+      <c r="AQ3" s="23"/>
+      <c r="AR3" s="23"/>
+      <c r="AS3" s="23"/>
     </row>
     <row r="4" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="42"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="47"/>
-      <c r="S4" s="47"/>
-      <c r="T4" s="47"/>
-      <c r="U4" s="47"/>
-      <c r="V4" s="47"/>
-      <c r="W4" s="47"/>
-      <c r="X4" s="47"/>
-      <c r="Y4" s="47"/>
-      <c r="Z4" s="47"/>
-      <c r="AA4" s="47"/>
-      <c r="AB4" s="47"/>
-      <c r="AC4" s="47"/>
-      <c r="AD4" s="47"/>
-      <c r="AE4" s="47"/>
-      <c r="AF4" s="45" t="s">
+      <c r="A4" s="30"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="35"/>
+      <c r="T4" s="35"/>
+      <c r="U4" s="35"/>
+      <c r="V4" s="35"/>
+      <c r="W4" s="35"/>
+      <c r="X4" s="35"/>
+      <c r="Y4" s="35"/>
+      <c r="Z4" s="35"/>
+      <c r="AA4" s="35"/>
+      <c r="AB4" s="35"/>
+      <c r="AC4" s="35"/>
+      <c r="AD4" s="35"/>
+      <c r="AE4" s="35"/>
+      <c r="AF4" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="AG4" s="45"/>
-      <c r="AH4" s="45"/>
-      <c r="AI4" s="45"/>
-      <c r="AJ4" s="34"/>
-      <c r="AK4" s="35"/>
-      <c r="AL4" s="35"/>
-      <c r="AM4" s="35"/>
-      <c r="AN4" s="35"/>
-      <c r="AO4" s="35"/>
-      <c r="AP4" s="35"/>
-      <c r="AQ4" s="35"/>
-      <c r="AR4" s="35"/>
-      <c r="AS4" s="35"/>
+      <c r="AG4" s="33"/>
+      <c r="AH4" s="33"/>
+      <c r="AI4" s="33"/>
+      <c r="AJ4" s="22"/>
+      <c r="AK4" s="23"/>
+      <c r="AL4" s="23"/>
+      <c r="AM4" s="23"/>
+      <c r="AN4" s="23"/>
+      <c r="AO4" s="23"/>
+      <c r="AP4" s="23"/>
+      <c r="AQ4" s="23"/>
+      <c r="AR4" s="23"/>
+      <c r="AS4" s="23"/>
     </row>
     <row r="5" spans="1:45" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
@@ -16869,255 +16884,255 @@
       <c r="AH34" s="1"/>
     </row>
     <row r="35" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="31" t="s">
+      <c r="A35" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="32"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="23" t="s">
+      <c r="B35" s="45"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23"/>
-      <c r="K35" s="23"/>
-      <c r="L35" s="23"/>
-      <c r="M35" s="23" t="s">
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="36"/>
+      <c r="L35" s="36"/>
+      <c r="M35" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="N35" s="23"/>
-      <c r="O35" s="23"/>
-      <c r="P35" s="23"/>
-      <c r="Q35" s="23"/>
-      <c r="R35" s="23"/>
-      <c r="S35" s="23"/>
-      <c r="T35" s="23" t="s">
+      <c r="N35" s="36"/>
+      <c r="O35" s="36"/>
+      <c r="P35" s="36"/>
+      <c r="Q35" s="36"/>
+      <c r="R35" s="36"/>
+      <c r="S35" s="36"/>
+      <c r="T35" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="U35" s="23"/>
-      <c r="V35" s="23"/>
-      <c r="W35" s="23"/>
-      <c r="X35" s="23"/>
-      <c r="Y35" s="23"/>
-      <c r="Z35" s="23"/>
-      <c r="AA35" s="23"/>
-      <c r="AB35" s="23"/>
-      <c r="AC35" s="23"/>
-      <c r="AD35" s="23"/>
-      <c r="AE35" s="23"/>
-      <c r="AF35" s="23"/>
-      <c r="AG35" s="23"/>
-      <c r="AH35" s="23"/>
-      <c r="AI35" s="23"/>
-      <c r="AJ35" s="23"/>
-      <c r="AK35" s="23"/>
-      <c r="AL35" s="23"/>
-      <c r="AM35" s="23"/>
-      <c r="AN35" s="23"/>
-      <c r="AO35" s="23"/>
-      <c r="AP35" s="23"/>
-      <c r="AQ35" s="23"/>
-      <c r="AR35" s="23"/>
-      <c r="AS35" s="23"/>
+      <c r="U35" s="36"/>
+      <c r="V35" s="36"/>
+      <c r="W35" s="36"/>
+      <c r="X35" s="36"/>
+      <c r="Y35" s="36"/>
+      <c r="Z35" s="36"/>
+      <c r="AA35" s="36"/>
+      <c r="AB35" s="36"/>
+      <c r="AC35" s="36"/>
+      <c r="AD35" s="36"/>
+      <c r="AE35" s="36"/>
+      <c r="AF35" s="36"/>
+      <c r="AG35" s="36"/>
+      <c r="AH35" s="36"/>
+      <c r="AI35" s="36"/>
+      <c r="AJ35" s="36"/>
+      <c r="AK35" s="36"/>
+      <c r="AL35" s="36"/>
+      <c r="AM35" s="36"/>
+      <c r="AN35" s="36"/>
+      <c r="AO35" s="36"/>
+      <c r="AP35" s="36"/>
+      <c r="AQ35" s="36"/>
+      <c r="AR35" s="36"/>
+      <c r="AS35" s="36"/>
     </row>
     <row r="36" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="25" t="s">
+      <c r="A36" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="26"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="22"/>
-      <c r="J36" s="22"/>
-      <c r="K36" s="22"/>
-      <c r="L36" s="22"/>
-      <c r="M36" s="22"/>
-      <c r="N36" s="22"/>
-      <c r="O36" s="22"/>
-      <c r="P36" s="22"/>
-      <c r="Q36" s="22"/>
-      <c r="R36" s="22"/>
-      <c r="S36" s="22"/>
-      <c r="T36" s="24"/>
-      <c r="U36" s="24"/>
-      <c r="V36" s="24"/>
-      <c r="W36" s="24"/>
-      <c r="X36" s="24"/>
-      <c r="Y36" s="24"/>
-      <c r="Z36" s="24"/>
-      <c r="AA36" s="24"/>
-      <c r="AB36" s="24"/>
-      <c r="AC36" s="24"/>
-      <c r="AD36" s="24"/>
-      <c r="AE36" s="24"/>
-      <c r="AF36" s="24"/>
-      <c r="AG36" s="24"/>
-      <c r="AH36" s="24"/>
-      <c r="AI36" s="24"/>
-      <c r="AJ36" s="24"/>
-      <c r="AK36" s="24"/>
-      <c r="AL36" s="24"/>
-      <c r="AM36" s="24"/>
-      <c r="AN36" s="24"/>
-      <c r="AO36" s="24"/>
-      <c r="AP36" s="24"/>
-      <c r="AQ36" s="24"/>
-      <c r="AR36" s="24"/>
-      <c r="AS36" s="24"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="37"/>
+      <c r="I36" s="37"/>
+      <c r="J36" s="37"/>
+      <c r="K36" s="37"/>
+      <c r="L36" s="37"/>
+      <c r="M36" s="37"/>
+      <c r="N36" s="37"/>
+      <c r="O36" s="37"/>
+      <c r="P36" s="37"/>
+      <c r="Q36" s="37"/>
+      <c r="R36" s="37"/>
+      <c r="S36" s="37"/>
+      <c r="T36" s="47"/>
+      <c r="U36" s="47"/>
+      <c r="V36" s="47"/>
+      <c r="W36" s="47"/>
+      <c r="X36" s="47"/>
+      <c r="Y36" s="47"/>
+      <c r="Z36" s="47"/>
+      <c r="AA36" s="47"/>
+      <c r="AB36" s="47"/>
+      <c r="AC36" s="47"/>
+      <c r="AD36" s="47"/>
+      <c r="AE36" s="47"/>
+      <c r="AF36" s="47"/>
+      <c r="AG36" s="47"/>
+      <c r="AH36" s="47"/>
+      <c r="AI36" s="47"/>
+      <c r="AJ36" s="47"/>
+      <c r="AK36" s="47"/>
+      <c r="AL36" s="47"/>
+      <c r="AM36" s="47"/>
+      <c r="AN36" s="47"/>
+      <c r="AO36" s="47"/>
+      <c r="AP36" s="47"/>
+      <c r="AQ36" s="47"/>
+      <c r="AR36" s="47"/>
+      <c r="AS36" s="47"/>
     </row>
     <row r="37" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="25" t="s">
+      <c r="A37" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="26"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="22"/>
-      <c r="J37" s="22"/>
-      <c r="K37" s="22"/>
-      <c r="L37" s="22"/>
-      <c r="M37" s="22"/>
-      <c r="N37" s="22"/>
-      <c r="O37" s="22"/>
-      <c r="P37" s="22"/>
-      <c r="Q37" s="22"/>
-      <c r="R37" s="22"/>
-      <c r="S37" s="22"/>
-      <c r="T37" s="24"/>
-      <c r="U37" s="24"/>
-      <c r="V37" s="24"/>
-      <c r="W37" s="24"/>
-      <c r="X37" s="24"/>
-      <c r="Y37" s="24"/>
-      <c r="Z37" s="24"/>
-      <c r="AA37" s="24"/>
-      <c r="AB37" s="24"/>
-      <c r="AC37" s="24"/>
-      <c r="AD37" s="24"/>
-      <c r="AE37" s="24"/>
-      <c r="AF37" s="24"/>
-      <c r="AG37" s="24"/>
-      <c r="AH37" s="24"/>
-      <c r="AI37" s="24"/>
-      <c r="AJ37" s="24"/>
-      <c r="AK37" s="24"/>
-      <c r="AL37" s="24"/>
-      <c r="AM37" s="24"/>
-      <c r="AN37" s="24"/>
-      <c r="AO37" s="24"/>
-      <c r="AP37" s="24"/>
-      <c r="AQ37" s="24"/>
-      <c r="AR37" s="24"/>
-      <c r="AS37" s="24"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="37"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="37"/>
+      <c r="K37" s="37"/>
+      <c r="L37" s="37"/>
+      <c r="M37" s="37"/>
+      <c r="N37" s="37"/>
+      <c r="O37" s="37"/>
+      <c r="P37" s="37"/>
+      <c r="Q37" s="37"/>
+      <c r="R37" s="37"/>
+      <c r="S37" s="37"/>
+      <c r="T37" s="47"/>
+      <c r="U37" s="47"/>
+      <c r="V37" s="47"/>
+      <c r="W37" s="47"/>
+      <c r="X37" s="47"/>
+      <c r="Y37" s="47"/>
+      <c r="Z37" s="47"/>
+      <c r="AA37" s="47"/>
+      <c r="AB37" s="47"/>
+      <c r="AC37" s="47"/>
+      <c r="AD37" s="47"/>
+      <c r="AE37" s="47"/>
+      <c r="AF37" s="47"/>
+      <c r="AG37" s="47"/>
+      <c r="AH37" s="47"/>
+      <c r="AI37" s="47"/>
+      <c r="AJ37" s="47"/>
+      <c r="AK37" s="47"/>
+      <c r="AL37" s="47"/>
+      <c r="AM37" s="47"/>
+      <c r="AN37" s="47"/>
+      <c r="AO37" s="47"/>
+      <c r="AP37" s="47"/>
+      <c r="AQ37" s="47"/>
+      <c r="AR37" s="47"/>
+      <c r="AS37" s="47"/>
     </row>
     <row r="38" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="28" t="s">
+      <c r="A38" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="B38" s="29"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="22"/>
-      <c r="J38" s="22"/>
-      <c r="K38" s="22"/>
-      <c r="L38" s="22"/>
-      <c r="M38" s="22"/>
-      <c r="N38" s="22"/>
-      <c r="O38" s="22"/>
-      <c r="P38" s="22"/>
-      <c r="Q38" s="22"/>
-      <c r="R38" s="22"/>
-      <c r="S38" s="22"/>
-      <c r="T38" s="24"/>
-      <c r="U38" s="24"/>
-      <c r="V38" s="24"/>
-      <c r="W38" s="24"/>
-      <c r="X38" s="24"/>
-      <c r="Y38" s="24"/>
-      <c r="Z38" s="24"/>
-      <c r="AA38" s="24"/>
-      <c r="AB38" s="24"/>
-      <c r="AC38" s="24"/>
-      <c r="AD38" s="24"/>
-      <c r="AE38" s="24"/>
-      <c r="AF38" s="24"/>
-      <c r="AG38" s="24"/>
-      <c r="AH38" s="24"/>
-      <c r="AI38" s="24"/>
-      <c r="AJ38" s="24"/>
-      <c r="AK38" s="24"/>
-      <c r="AL38" s="24"/>
-      <c r="AM38" s="24"/>
-      <c r="AN38" s="24"/>
-      <c r="AO38" s="24"/>
-      <c r="AP38" s="24"/>
-      <c r="AQ38" s="24"/>
-      <c r="AR38" s="24"/>
-      <c r="AS38" s="24"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="37"/>
+      <c r="K38" s="37"/>
+      <c r="L38" s="37"/>
+      <c r="M38" s="37"/>
+      <c r="N38" s="37"/>
+      <c r="O38" s="37"/>
+      <c r="P38" s="37"/>
+      <c r="Q38" s="37"/>
+      <c r="R38" s="37"/>
+      <c r="S38" s="37"/>
+      <c r="T38" s="47"/>
+      <c r="U38" s="47"/>
+      <c r="V38" s="47"/>
+      <c r="W38" s="47"/>
+      <c r="X38" s="47"/>
+      <c r="Y38" s="47"/>
+      <c r="Z38" s="47"/>
+      <c r="AA38" s="47"/>
+      <c r="AB38" s="47"/>
+      <c r="AC38" s="47"/>
+      <c r="AD38" s="47"/>
+      <c r="AE38" s="47"/>
+      <c r="AF38" s="47"/>
+      <c r="AG38" s="47"/>
+      <c r="AH38" s="47"/>
+      <c r="AI38" s="47"/>
+      <c r="AJ38" s="47"/>
+      <c r="AK38" s="47"/>
+      <c r="AL38" s="47"/>
+      <c r="AM38" s="47"/>
+      <c r="AN38" s="47"/>
+      <c r="AO38" s="47"/>
+      <c r="AP38" s="47"/>
+      <c r="AQ38" s="47"/>
+      <c r="AR38" s="47"/>
+      <c r="AS38" s="47"/>
     </row>
     <row r="39" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="25" t="s">
+      <c r="A39" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="26"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="22"/>
-      <c r="I39" s="22"/>
-      <c r="J39" s="22"/>
-      <c r="K39" s="22"/>
-      <c r="L39" s="22"/>
-      <c r="M39" s="22"/>
-      <c r="N39" s="22"/>
-      <c r="O39" s="22"/>
-      <c r="P39" s="22"/>
-      <c r="Q39" s="22"/>
-      <c r="R39" s="22"/>
-      <c r="S39" s="22"/>
-      <c r="T39" s="24"/>
-      <c r="U39" s="24"/>
-      <c r="V39" s="24"/>
-      <c r="W39" s="24"/>
-      <c r="X39" s="24"/>
-      <c r="Y39" s="24"/>
-      <c r="Z39" s="24"/>
-      <c r="AA39" s="24"/>
-      <c r="AB39" s="24"/>
-      <c r="AC39" s="24"/>
-      <c r="AD39" s="24"/>
-      <c r="AE39" s="24"/>
-      <c r="AF39" s="24"/>
-      <c r="AG39" s="24"/>
-      <c r="AH39" s="24"/>
-      <c r="AI39" s="24"/>
-      <c r="AJ39" s="24"/>
-      <c r="AK39" s="24"/>
-      <c r="AL39" s="24"/>
-      <c r="AM39" s="24"/>
-      <c r="AN39" s="24"/>
-      <c r="AO39" s="24"/>
-      <c r="AP39" s="24"/>
-      <c r="AQ39" s="24"/>
-      <c r="AR39" s="24"/>
-      <c r="AS39" s="24"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="37"/>
+      <c r="K39" s="37"/>
+      <c r="L39" s="37"/>
+      <c r="M39" s="37"/>
+      <c r="N39" s="37"/>
+      <c r="O39" s="37"/>
+      <c r="P39" s="37"/>
+      <c r="Q39" s="37"/>
+      <c r="R39" s="37"/>
+      <c r="S39" s="37"/>
+      <c r="T39" s="47"/>
+      <c r="U39" s="47"/>
+      <c r="V39" s="47"/>
+      <c r="W39" s="47"/>
+      <c r="X39" s="47"/>
+      <c r="Y39" s="47"/>
+      <c r="Z39" s="47"/>
+      <c r="AA39" s="47"/>
+      <c r="AB39" s="47"/>
+      <c r="AC39" s="47"/>
+      <c r="AD39" s="47"/>
+      <c r="AE39" s="47"/>
+      <c r="AF39" s="47"/>
+      <c r="AG39" s="47"/>
+      <c r="AH39" s="47"/>
+      <c r="AI39" s="47"/>
+      <c r="AJ39" s="47"/>
+      <c r="AK39" s="47"/>
+      <c r="AL39" s="47"/>
+      <c r="AM39" s="47"/>
+      <c r="AN39" s="47"/>
+      <c r="AO39" s="47"/>
+      <c r="AP39" s="47"/>
+      <c r="AQ39" s="47"/>
+      <c r="AR39" s="47"/>
+      <c r="AS39" s="47"/>
     </row>
     <row r="40" spans="1:45" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="41" spans="1:45" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -17232,23 +17247,6 @@
     <row r="142" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="D39:L39"/>
-    <mergeCell ref="M39:S39"/>
-    <mergeCell ref="T39:AS39"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="D37:L37"/>
-    <mergeCell ref="M37:S37"/>
-    <mergeCell ref="T37:AS37"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="D38:L38"/>
-    <mergeCell ref="M38:S38"/>
-    <mergeCell ref="T38:AS38"/>
-    <mergeCell ref="AJ4:AS4"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="D35:L35"/>
-    <mergeCell ref="M35:S35"/>
-    <mergeCell ref="T35:AS35"/>
     <mergeCell ref="A36:C36"/>
     <mergeCell ref="D36:L36"/>
     <mergeCell ref="M36:S36"/>
@@ -17263,6 +17261,23 @@
     <mergeCell ref="AF3:AI3"/>
     <mergeCell ref="AJ3:AS3"/>
     <mergeCell ref="AF4:AI4"/>
+    <mergeCell ref="AJ4:AS4"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="D35:L35"/>
+    <mergeCell ref="M35:S35"/>
+    <mergeCell ref="T35:AS35"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="D39:L39"/>
+    <mergeCell ref="M39:S39"/>
+    <mergeCell ref="T39:AS39"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="D37:L37"/>
+    <mergeCell ref="M37:S37"/>
+    <mergeCell ref="T37:AS37"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="D38:L38"/>
+    <mergeCell ref="M38:S38"/>
+    <mergeCell ref="T38:AS38"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/画面設計書_加藤.xlsx
+++ b/画面設計書_加藤.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k-kato\Desktop\commpany_money\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C33E7EF4-121F-4F20-B545-E0FB61217AA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74E5B9A8-A2AA-425C-951F-12FA4A77FDE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="3" activeTab="3" xr2:uid="{F6F11A3B-F159-4D6B-8CFC-F9D999D140F5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="4" activeTab="8" xr2:uid="{F6F11A3B-F159-4D6B-8CFC-F9D999D140F5}"/>
   </bookViews>
   <sheets>
     <sheet name="フォーマット" sheetId="2" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="77">
   <si>
     <t>画面設計書</t>
     <rPh sb="0" eb="4">
@@ -644,7 +644,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -736,6 +736,23 @@
     </font>
     <font>
       <sz val="20"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="24"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="3"/>
@@ -1019,7 +1036,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1200,6 +1217,39 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1224,9 +1274,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1245,17 +1292,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1269,8 +1310,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1293,34 +1340,70 @@
     <xf numFmtId="0" fontId="11" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3753,6 +3836,61 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>100853</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9E2C816-30BF-41CE-9468-325625694292}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8387603" y="2392456"/>
+          <a:ext cx="184731" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8181,34 +8319,34 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
-      <c r="L15" s="68" t="s">
+      <c r="L15" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="M15" s="68"/>
-      <c r="N15" s="68"/>
-      <c r="O15" s="68"/>
-      <c r="P15" s="68"/>
-      <c r="Q15" s="68"/>
-      <c r="R15" s="68"/>
-      <c r="S15" s="68"/>
-      <c r="T15" s="68"/>
-      <c r="U15" s="91"/>
-      <c r="V15" s="92"/>
-      <c r="W15" s="92"/>
-      <c r="X15" s="92"/>
-      <c r="Y15" s="92"/>
-      <c r="Z15" s="92"/>
-      <c r="AA15" s="92"/>
-      <c r="AB15" s="92"/>
-      <c r="AC15" s="92"/>
-      <c r="AD15" s="92"/>
-      <c r="AE15" s="92"/>
-      <c r="AF15" s="92"/>
-      <c r="AG15" s="93"/>
-      <c r="AH15" s="97" t="s">
+      <c r="M15" s="64"/>
+      <c r="N15" s="64"/>
+      <c r="O15" s="64"/>
+      <c r="P15" s="64"/>
+      <c r="Q15" s="64"/>
+      <c r="R15" s="64"/>
+      <c r="S15" s="64"/>
+      <c r="T15" s="64"/>
+      <c r="U15" s="65"/>
+      <c r="V15" s="66"/>
+      <c r="W15" s="66"/>
+      <c r="X15" s="66"/>
+      <c r="Y15" s="66"/>
+      <c r="Z15" s="66"/>
+      <c r="AA15" s="66"/>
+      <c r="AB15" s="66"/>
+      <c r="AC15" s="66"/>
+      <c r="AD15" s="66"/>
+      <c r="AE15" s="66"/>
+      <c r="AF15" s="66"/>
+      <c r="AG15" s="67"/>
+      <c r="AH15" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="AI15" s="98"/>
+      <c r="AI15" s="61"/>
       <c r="AR15" s="6"/>
     </row>
     <row r="16" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -8223,30 +8361,30 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="68"/>
-      <c r="M16" s="68"/>
-      <c r="N16" s="68"/>
-      <c r="O16" s="68"/>
-      <c r="P16" s="68"/>
-      <c r="Q16" s="68"/>
-      <c r="R16" s="68"/>
-      <c r="S16" s="68"/>
-      <c r="T16" s="68"/>
-      <c r="U16" s="94"/>
-      <c r="V16" s="95"/>
-      <c r="W16" s="95"/>
-      <c r="X16" s="95"/>
-      <c r="Y16" s="95"/>
-      <c r="Z16" s="95"/>
-      <c r="AA16" s="95"/>
-      <c r="AB16" s="95"/>
-      <c r="AC16" s="95"/>
-      <c r="AD16" s="95"/>
-      <c r="AE16" s="95"/>
-      <c r="AF16" s="95"/>
-      <c r="AG16" s="96"/>
-      <c r="AH16" s="99"/>
-      <c r="AI16" s="100"/>
+      <c r="L16" s="64"/>
+      <c r="M16" s="64"/>
+      <c r="N16" s="64"/>
+      <c r="O16" s="64"/>
+      <c r="P16" s="64"/>
+      <c r="Q16" s="64"/>
+      <c r="R16" s="64"/>
+      <c r="S16" s="64"/>
+      <c r="T16" s="64"/>
+      <c r="U16" s="68"/>
+      <c r="V16" s="69"/>
+      <c r="W16" s="69"/>
+      <c r="X16" s="69"/>
+      <c r="Y16" s="69"/>
+      <c r="Z16" s="69"/>
+      <c r="AA16" s="69"/>
+      <c r="AB16" s="69"/>
+      <c r="AC16" s="69"/>
+      <c r="AD16" s="69"/>
+      <c r="AE16" s="69"/>
+      <c r="AF16" s="69"/>
+      <c r="AG16" s="70"/>
+      <c r="AH16" s="62"/>
+      <c r="AI16" s="63"/>
       <c r="AR16" s="6"/>
     </row>
     <row r="17" spans="1:44" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -8335,34 +8473,34 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
-      <c r="L19" s="68" t="s">
+      <c r="L19" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="M19" s="68"/>
-      <c r="N19" s="68"/>
-      <c r="O19" s="68"/>
-      <c r="P19" s="68"/>
-      <c r="Q19" s="68"/>
-      <c r="R19" s="68"/>
-      <c r="S19" s="68"/>
-      <c r="T19" s="68"/>
-      <c r="U19" s="91"/>
-      <c r="V19" s="92"/>
-      <c r="W19" s="92"/>
-      <c r="X19" s="92"/>
-      <c r="Y19" s="92"/>
-      <c r="Z19" s="92"/>
-      <c r="AA19" s="92"/>
-      <c r="AB19" s="92"/>
-      <c r="AC19" s="92"/>
-      <c r="AD19" s="92"/>
-      <c r="AE19" s="92"/>
-      <c r="AF19" s="92"/>
-      <c r="AG19" s="93"/>
-      <c r="AH19" s="97" t="s">
+      <c r="M19" s="64"/>
+      <c r="N19" s="64"/>
+      <c r="O19" s="64"/>
+      <c r="P19" s="64"/>
+      <c r="Q19" s="64"/>
+      <c r="R19" s="64"/>
+      <c r="S19" s="64"/>
+      <c r="T19" s="64"/>
+      <c r="U19" s="65"/>
+      <c r="V19" s="66"/>
+      <c r="W19" s="66"/>
+      <c r="X19" s="66"/>
+      <c r="Y19" s="66"/>
+      <c r="Z19" s="66"/>
+      <c r="AA19" s="66"/>
+      <c r="AB19" s="66"/>
+      <c r="AC19" s="66"/>
+      <c r="AD19" s="66"/>
+      <c r="AE19" s="66"/>
+      <c r="AF19" s="66"/>
+      <c r="AG19" s="67"/>
+      <c r="AH19" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="AI19" s="98"/>
+      <c r="AI19" s="61"/>
       <c r="AR19" s="6"/>
     </row>
     <row r="20" spans="1:44" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -8377,30 +8515,30 @@
       <c r="I20" s="19"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
-      <c r="L20" s="68"/>
-      <c r="M20" s="68"/>
-      <c r="N20" s="68"/>
-      <c r="O20" s="68"/>
-      <c r="P20" s="68"/>
-      <c r="Q20" s="68"/>
-      <c r="R20" s="68"/>
-      <c r="S20" s="68"/>
-      <c r="T20" s="68"/>
-      <c r="U20" s="94"/>
-      <c r="V20" s="95"/>
-      <c r="W20" s="95"/>
-      <c r="X20" s="95"/>
-      <c r="Y20" s="95"/>
-      <c r="Z20" s="95"/>
-      <c r="AA20" s="95"/>
-      <c r="AB20" s="95"/>
-      <c r="AC20" s="95"/>
-      <c r="AD20" s="95"/>
-      <c r="AE20" s="95"/>
-      <c r="AF20" s="95"/>
-      <c r="AG20" s="96"/>
-      <c r="AH20" s="99"/>
-      <c r="AI20" s="100"/>
+      <c r="L20" s="64"/>
+      <c r="M20" s="64"/>
+      <c r="N20" s="64"/>
+      <c r="O20" s="64"/>
+      <c r="P20" s="64"/>
+      <c r="Q20" s="64"/>
+      <c r="R20" s="64"/>
+      <c r="S20" s="64"/>
+      <c r="T20" s="64"/>
+      <c r="U20" s="68"/>
+      <c r="V20" s="69"/>
+      <c r="W20" s="69"/>
+      <c r="X20" s="69"/>
+      <c r="Y20" s="69"/>
+      <c r="Z20" s="69"/>
+      <c r="AA20" s="69"/>
+      <c r="AB20" s="69"/>
+      <c r="AC20" s="69"/>
+      <c r="AD20" s="69"/>
+      <c r="AE20" s="69"/>
+      <c r="AF20" s="69"/>
+      <c r="AG20" s="70"/>
+      <c r="AH20" s="62"/>
+      <c r="AI20" s="63"/>
       <c r="AR20" s="6"/>
     </row>
     <row r="21" spans="1:44" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -8489,34 +8627,34 @@
       <c r="I23" s="19"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
-      <c r="L23" s="68" t="s">
+      <c r="L23" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="M23" s="68"/>
-      <c r="N23" s="68"/>
-      <c r="O23" s="68"/>
-      <c r="P23" s="68"/>
-      <c r="Q23" s="68"/>
-      <c r="R23" s="68"/>
-      <c r="S23" s="68"/>
-      <c r="T23" s="68"/>
-      <c r="U23" s="91"/>
-      <c r="V23" s="92"/>
-      <c r="W23" s="92"/>
-      <c r="X23" s="92"/>
-      <c r="Y23" s="92"/>
-      <c r="Z23" s="92"/>
-      <c r="AA23" s="92"/>
-      <c r="AB23" s="92"/>
-      <c r="AC23" s="92"/>
-      <c r="AD23" s="92"/>
-      <c r="AE23" s="92"/>
-      <c r="AF23" s="92"/>
-      <c r="AG23" s="93"/>
-      <c r="AH23" s="97" t="s">
+      <c r="M23" s="64"/>
+      <c r="N23" s="64"/>
+      <c r="O23" s="64"/>
+      <c r="P23" s="64"/>
+      <c r="Q23" s="64"/>
+      <c r="R23" s="64"/>
+      <c r="S23" s="64"/>
+      <c r="T23" s="64"/>
+      <c r="U23" s="65"/>
+      <c r="V23" s="66"/>
+      <c r="W23" s="66"/>
+      <c r="X23" s="66"/>
+      <c r="Y23" s="66"/>
+      <c r="Z23" s="66"/>
+      <c r="AA23" s="66"/>
+      <c r="AB23" s="66"/>
+      <c r="AC23" s="66"/>
+      <c r="AD23" s="66"/>
+      <c r="AE23" s="66"/>
+      <c r="AF23" s="66"/>
+      <c r="AG23" s="67"/>
+      <c r="AH23" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="AI23" s="98"/>
+      <c r="AI23" s="61"/>
       <c r="AR23" s="6"/>
     </row>
     <row r="24" spans="1:44" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -8531,30 +8669,30 @@
       <c r="I24" s="19"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
-      <c r="L24" s="68"/>
-      <c r="M24" s="68"/>
-      <c r="N24" s="68"/>
-      <c r="O24" s="68"/>
-      <c r="P24" s="68"/>
-      <c r="Q24" s="68"/>
-      <c r="R24" s="68"/>
-      <c r="S24" s="68"/>
-      <c r="T24" s="68"/>
-      <c r="U24" s="94"/>
-      <c r="V24" s="95"/>
-      <c r="W24" s="95"/>
-      <c r="X24" s="95"/>
-      <c r="Y24" s="95"/>
-      <c r="Z24" s="95"/>
-      <c r="AA24" s="95"/>
-      <c r="AB24" s="95"/>
-      <c r="AC24" s="95"/>
-      <c r="AD24" s="95"/>
-      <c r="AE24" s="95"/>
-      <c r="AF24" s="95"/>
-      <c r="AG24" s="96"/>
-      <c r="AH24" s="99"/>
-      <c r="AI24" s="100"/>
+      <c r="L24" s="64"/>
+      <c r="M24" s="64"/>
+      <c r="N24" s="64"/>
+      <c r="O24" s="64"/>
+      <c r="P24" s="64"/>
+      <c r="Q24" s="64"/>
+      <c r="R24" s="64"/>
+      <c r="S24" s="64"/>
+      <c r="T24" s="64"/>
+      <c r="U24" s="68"/>
+      <c r="V24" s="69"/>
+      <c r="W24" s="69"/>
+      <c r="X24" s="69"/>
+      <c r="Y24" s="69"/>
+      <c r="Z24" s="69"/>
+      <c r="AA24" s="69"/>
+      <c r="AB24" s="69"/>
+      <c r="AC24" s="69"/>
+      <c r="AD24" s="69"/>
+      <c r="AE24" s="69"/>
+      <c r="AF24" s="69"/>
+      <c r="AG24" s="70"/>
+      <c r="AH24" s="62"/>
+      <c r="AI24" s="63"/>
       <c r="AR24" s="6"/>
     </row>
     <row r="25" spans="1:44" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -8783,17 +8921,17 @@
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="5"/>
-      <c r="D31" s="68" t="s">
+      <c r="D31" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="E31" s="68"/>
-      <c r="F31" s="68"/>
-      <c r="G31" s="68"/>
-      <c r="H31" s="68"/>
-      <c r="I31" s="68"/>
-      <c r="J31" s="68"/>
-      <c r="K31" s="68"/>
-      <c r="L31" s="68"/>
+      <c r="E31" s="64"/>
+      <c r="F31" s="64"/>
+      <c r="G31" s="64"/>
+      <c r="H31" s="64"/>
+      <c r="I31" s="64"/>
+      <c r="J31" s="64"/>
+      <c r="K31" s="64"/>
+      <c r="L31" s="64"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
@@ -8816,32 +8954,32 @@
       <c r="AF31" s="1"/>
       <c r="AG31" s="1"/>
       <c r="AH31" s="1"/>
-      <c r="AI31" s="68" t="s">
+      <c r="AI31" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="AJ31" s="68"/>
-      <c r="AK31" s="68"/>
-      <c r="AL31" s="68"/>
-      <c r="AM31" s="68"/>
-      <c r="AN31" s="68"/>
-      <c r="AO31" s="68"/>
-      <c r="AP31" s="68"/>
-      <c r="AQ31" s="68"/>
+      <c r="AJ31" s="64"/>
+      <c r="AK31" s="64"/>
+      <c r="AL31" s="64"/>
+      <c r="AM31" s="64"/>
+      <c r="AN31" s="64"/>
+      <c r="AO31" s="64"/>
+      <c r="AP31" s="64"/>
+      <c r="AQ31" s="64"/>
       <c r="AR31" s="6"/>
     </row>
     <row r="32" spans="1:44" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="5"/>
-      <c r="D32" s="68"/>
-      <c r="E32" s="68"/>
-      <c r="F32" s="68"/>
-      <c r="G32" s="68"/>
-      <c r="H32" s="68"/>
-      <c r="I32" s="68"/>
-      <c r="J32" s="68"/>
-      <c r="K32" s="68"/>
-      <c r="L32" s="68"/>
+      <c r="D32" s="64"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="64"/>
+      <c r="G32" s="64"/>
+      <c r="H32" s="64"/>
+      <c r="I32" s="64"/>
+      <c r="J32" s="64"/>
+      <c r="K32" s="64"/>
+      <c r="L32" s="64"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
@@ -8864,15 +9002,15 @@
       <c r="AF32" s="1"/>
       <c r="AG32" s="1"/>
       <c r="AH32" s="1"/>
-      <c r="AI32" s="68"/>
-      <c r="AJ32" s="68"/>
-      <c r="AK32" s="68"/>
-      <c r="AL32" s="68"/>
-      <c r="AM32" s="68"/>
-      <c r="AN32" s="68"/>
-      <c r="AO32" s="68"/>
-      <c r="AP32" s="68"/>
-      <c r="AQ32" s="68"/>
+      <c r="AI32" s="64"/>
+      <c r="AJ32" s="64"/>
+      <c r="AK32" s="64"/>
+      <c r="AL32" s="64"/>
+      <c r="AM32" s="64"/>
+      <c r="AN32" s="64"/>
+      <c r="AO32" s="64"/>
+      <c r="AP32" s="64"/>
+      <c r="AQ32" s="64"/>
       <c r="AR32" s="6"/>
     </row>
     <row r="33" spans="1:45" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -9321,13 +9459,6 @@
     <row r="142" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="AI31:AQ32"/>
-    <mergeCell ref="L19:T20"/>
-    <mergeCell ref="U19:AG20"/>
-    <mergeCell ref="AH19:AI20"/>
-    <mergeCell ref="L23:T24"/>
-    <mergeCell ref="U23:AG24"/>
-    <mergeCell ref="AH23:AI24"/>
     <mergeCell ref="A39:C39"/>
     <mergeCell ref="D39:L39"/>
     <mergeCell ref="M39:S39"/>
@@ -9349,11 +9480,6 @@
     <mergeCell ref="D35:L35"/>
     <mergeCell ref="M35:S35"/>
     <mergeCell ref="T35:AS35"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="D36:L36"/>
-    <mergeCell ref="M36:S36"/>
-    <mergeCell ref="T36:AS36"/>
-    <mergeCell ref="AH15:AI16"/>
     <mergeCell ref="A1:F4"/>
     <mergeCell ref="G1:AE1"/>
     <mergeCell ref="AF1:AI1"/>
@@ -9364,6 +9490,18 @@
     <mergeCell ref="AF3:AI3"/>
     <mergeCell ref="AJ3:AS3"/>
     <mergeCell ref="AF4:AI4"/>
+    <mergeCell ref="AI31:AQ32"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="D36:L36"/>
+    <mergeCell ref="M36:S36"/>
+    <mergeCell ref="T36:AS36"/>
+    <mergeCell ref="AH15:AI16"/>
+    <mergeCell ref="L19:T20"/>
+    <mergeCell ref="U19:AG20"/>
+    <mergeCell ref="AH19:AI20"/>
+    <mergeCell ref="L23:T24"/>
+    <mergeCell ref="U23:AG24"/>
+    <mergeCell ref="AH23:AI24"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9376,7 +9514,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DE46F75-7812-4F58-A13D-46CA6D1B692E}">
   <dimension ref="A1:CN142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="D31" sqref="D31:L32"/>
     </sheetView>
   </sheetViews>
@@ -9786,12 +9924,12 @@
       <c r="AH9" s="53"/>
       <c r="AI9" s="53"/>
       <c r="AJ9" s="53"/>
-      <c r="AL9" s="60" t="s">
+      <c r="AL9" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="AM9" s="61"/>
-      <c r="AN9" s="61"/>
-      <c r="AO9" s="62"/>
+      <c r="AM9" s="72"/>
+      <c r="AN9" s="72"/>
+      <c r="AO9" s="73"/>
       <c r="AR9" s="6"/>
     </row>
     <row r="10" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -9831,10 +9969,10 @@
       <c r="AH10" s="53"/>
       <c r="AI10" s="53"/>
       <c r="AJ10" s="53"/>
-      <c r="AL10" s="63"/>
-      <c r="AM10" s="64"/>
-      <c r="AN10" s="64"/>
-      <c r="AO10" s="65"/>
+      <c r="AL10" s="74"/>
+      <c r="AM10" s="75"/>
+      <c r="AN10" s="75"/>
+      <c r="AO10" s="76"/>
       <c r="AR10" s="6"/>
     </row>
     <row r="11" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -9885,44 +10023,44 @@
         <v>40</v>
       </c>
       <c r="G12" s="38"/>
-      <c r="H12" s="76" t="s">
+      <c r="H12" s="85" t="s">
         <v>41</v>
       </c>
-      <c r="I12" s="76"/>
-      <c r="J12" s="76"/>
-      <c r="K12" s="76"/>
-      <c r="L12" s="76"/>
-      <c r="M12" s="76"/>
-      <c r="N12" s="76"/>
-      <c r="O12" s="77"/>
-      <c r="P12" s="75" t="s">
+      <c r="I12" s="85"/>
+      <c r="J12" s="85"/>
+      <c r="K12" s="85"/>
+      <c r="L12" s="85"/>
+      <c r="M12" s="85"/>
+      <c r="N12" s="85"/>
+      <c r="O12" s="86"/>
+      <c r="P12" s="93" t="s">
         <v>44</v>
       </c>
-      <c r="Q12" s="76"/>
-      <c r="R12" s="76"/>
-      <c r="S12" s="76"/>
-      <c r="T12" s="76"/>
-      <c r="U12" s="76"/>
-      <c r="V12" s="76"/>
-      <c r="W12" s="76"/>
-      <c r="X12" s="70" t="s">
+      <c r="Q12" s="85"/>
+      <c r="R12" s="85"/>
+      <c r="S12" s="85"/>
+      <c r="T12" s="85"/>
+      <c r="U12" s="85"/>
+      <c r="V12" s="85"/>
+      <c r="W12" s="85"/>
+      <c r="X12" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="Y12" s="71"/>
-      <c r="Z12" s="71"/>
-      <c r="AA12" s="71"/>
-      <c r="AB12" s="71"/>
-      <c r="AC12" s="71"/>
-      <c r="AD12" s="71"/>
-      <c r="AE12" s="72"/>
-      <c r="AF12" s="75" t="s">
+      <c r="Y12" s="81"/>
+      <c r="Z12" s="81"/>
+      <c r="AA12" s="81"/>
+      <c r="AB12" s="81"/>
+      <c r="AC12" s="81"/>
+      <c r="AD12" s="81"/>
+      <c r="AE12" s="82"/>
+      <c r="AF12" s="93" t="s">
         <v>45</v>
       </c>
-      <c r="AG12" s="76"/>
-      <c r="AH12" s="76"/>
-      <c r="AI12" s="76"/>
-      <c r="AJ12" s="76"/>
-      <c r="AK12" s="77"/>
+      <c r="AG12" s="85"/>
+      <c r="AH12" s="85"/>
+      <c r="AI12" s="85"/>
+      <c r="AJ12" s="85"/>
+      <c r="AK12" s="86"/>
       <c r="AL12" s="38" t="s">
         <v>46</v>
       </c>
@@ -9939,34 +10077,34 @@
       <c r="E13" s="1"/>
       <c r="F13" s="38"/>
       <c r="G13" s="38"/>
-      <c r="H13" s="79"/>
-      <c r="I13" s="79"/>
-      <c r="J13" s="79"/>
-      <c r="K13" s="79"/>
-      <c r="L13" s="79"/>
-      <c r="M13" s="79"/>
-      <c r="N13" s="79"/>
-      <c r="O13" s="80"/>
-      <c r="P13" s="84"/>
-      <c r="Q13" s="81"/>
-      <c r="R13" s="81"/>
-      <c r="S13" s="81"/>
-      <c r="T13" s="81"/>
-      <c r="U13" s="81"/>
-      <c r="V13" s="81"/>
-      <c r="W13" s="81"/>
+      <c r="H13" s="87"/>
+      <c r="I13" s="87"/>
+      <c r="J13" s="87"/>
+      <c r="K13" s="87"/>
+      <c r="L13" s="87"/>
+      <c r="M13" s="87"/>
+      <c r="N13" s="87"/>
+      <c r="O13" s="88"/>
+      <c r="P13" s="94"/>
+      <c r="Q13" s="89"/>
+      <c r="R13" s="89"/>
+      <c r="S13" s="89"/>
+      <c r="T13" s="89"/>
+      <c r="U13" s="89"/>
+      <c r="V13" s="89"/>
+      <c r="W13" s="89"/>
       <c r="X13" s="38" t="s">
         <v>52</v>
       </c>
       <c r="Y13" s="38"/>
       <c r="Z13" s="38"/>
       <c r="AA13" s="38"/>
-      <c r="AB13" s="70" t="s">
+      <c r="AB13" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="AC13" s="71"/>
-      <c r="AD13" s="71"/>
-      <c r="AE13" s="72"/>
+      <c r="AC13" s="81"/>
+      <c r="AD13" s="81"/>
+      <c r="AE13" s="82"/>
       <c r="AF13" s="25"/>
       <c r="AG13" s="26"/>
       <c r="AH13" s="26"/>
@@ -9989,14 +10127,14 @@
       <c r="E14" s="1"/>
       <c r="F14" s="38"/>
       <c r="G14" s="38"/>
-      <c r="H14" s="81"/>
-      <c r="I14" s="81"/>
-      <c r="J14" s="81"/>
-      <c r="K14" s="81"/>
-      <c r="L14" s="81"/>
-      <c r="M14" s="81"/>
-      <c r="N14" s="81"/>
-      <c r="O14" s="82"/>
+      <c r="H14" s="89"/>
+      <c r="I14" s="89"/>
+      <c r="J14" s="89"/>
+      <c r="K14" s="89"/>
+      <c r="L14" s="89"/>
+      <c r="M14" s="89"/>
+      <c r="N14" s="89"/>
+      <c r="O14" s="90"/>
       <c r="P14" s="38" t="s">
         <v>47</v>
       </c>
@@ -10071,16 +10209,16 @@
       <c r="M15" s="42"/>
       <c r="N15" s="42"/>
       <c r="O15" s="42"/>
-      <c r="P15" s="73"/>
-      <c r="Q15" s="73"/>
-      <c r="R15" s="73"/>
-      <c r="S15" s="73"/>
-      <c r="T15" s="73"/>
-      <c r="U15" s="73"/>
-      <c r="V15" s="74"/>
-      <c r="W15" s="74"/>
-      <c r="X15" s="73"/>
-      <c r="Y15" s="73"/>
+      <c r="P15" s="83"/>
+      <c r="Q15" s="83"/>
+      <c r="R15" s="83"/>
+      <c r="S15" s="83"/>
+      <c r="T15" s="83"/>
+      <c r="U15" s="83"/>
+      <c r="V15" s="84"/>
+      <c r="W15" s="84"/>
+      <c r="X15" s="83"/>
+      <c r="Y15" s="83"/>
       <c r="Z15" s="42"/>
       <c r="AA15" s="42"/>
       <c r="AB15" s="42"/>
@@ -10111,24 +10249,24 @@
       <c r="G16" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="H16" s="83"/>
-      <c r="I16" s="83"/>
-      <c r="J16" s="83"/>
-      <c r="K16" s="83"/>
-      <c r="L16" s="83"/>
-      <c r="M16" s="83"/>
-      <c r="N16" s="83"/>
-      <c r="O16" s="83"/>
-      <c r="P16" s="73"/>
-      <c r="Q16" s="73"/>
-      <c r="R16" s="73"/>
-      <c r="S16" s="73"/>
-      <c r="T16" s="73"/>
-      <c r="U16" s="73"/>
-      <c r="V16" s="74"/>
-      <c r="W16" s="74"/>
-      <c r="X16" s="73"/>
-      <c r="Y16" s="73"/>
+      <c r="H16" s="92"/>
+      <c r="I16" s="92"/>
+      <c r="J16" s="92"/>
+      <c r="K16" s="92"/>
+      <c r="L16" s="92"/>
+      <c r="M16" s="92"/>
+      <c r="N16" s="92"/>
+      <c r="O16" s="92"/>
+      <c r="P16" s="83"/>
+      <c r="Q16" s="83"/>
+      <c r="R16" s="83"/>
+      <c r="S16" s="83"/>
+      <c r="T16" s="83"/>
+      <c r="U16" s="83"/>
+      <c r="V16" s="84"/>
+      <c r="W16" s="84"/>
+      <c r="X16" s="83"/>
+      <c r="Y16" s="83"/>
       <c r="Z16" s="42"/>
       <c r="AA16" s="42"/>
       <c r="AB16" s="42"/>
@@ -10159,24 +10297,24 @@
       <c r="G17" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="H17" s="83"/>
-      <c r="I17" s="83"/>
-      <c r="J17" s="83"/>
-      <c r="K17" s="83"/>
-      <c r="L17" s="83"/>
-      <c r="M17" s="83"/>
-      <c r="N17" s="83"/>
-      <c r="O17" s="83"/>
-      <c r="P17" s="73"/>
-      <c r="Q17" s="73"/>
-      <c r="R17" s="73"/>
-      <c r="S17" s="73"/>
-      <c r="T17" s="73"/>
-      <c r="U17" s="73"/>
-      <c r="V17" s="74"/>
-      <c r="W17" s="74"/>
-      <c r="X17" s="73"/>
-      <c r="Y17" s="73"/>
+      <c r="H17" s="92"/>
+      <c r="I17" s="92"/>
+      <c r="J17" s="92"/>
+      <c r="K17" s="92"/>
+      <c r="L17" s="92"/>
+      <c r="M17" s="92"/>
+      <c r="N17" s="92"/>
+      <c r="O17" s="92"/>
+      <c r="P17" s="83"/>
+      <c r="Q17" s="83"/>
+      <c r="R17" s="83"/>
+      <c r="S17" s="83"/>
+      <c r="T17" s="83"/>
+      <c r="U17" s="83"/>
+      <c r="V17" s="84"/>
+      <c r="W17" s="84"/>
+      <c r="X17" s="83"/>
+      <c r="Y17" s="83"/>
       <c r="Z17" s="42"/>
       <c r="AA17" s="42"/>
       <c r="AB17" s="42"/>
@@ -10215,16 +10353,16 @@
       <c r="M18" s="42"/>
       <c r="N18" s="42"/>
       <c r="O18" s="42"/>
-      <c r="P18" s="73"/>
-      <c r="Q18" s="73"/>
-      <c r="R18" s="73"/>
-      <c r="S18" s="73"/>
-      <c r="T18" s="73"/>
-      <c r="U18" s="73"/>
-      <c r="V18" s="74"/>
-      <c r="W18" s="74"/>
-      <c r="X18" s="73"/>
-      <c r="Y18" s="73"/>
+      <c r="P18" s="83"/>
+      <c r="Q18" s="83"/>
+      <c r="R18" s="83"/>
+      <c r="S18" s="83"/>
+      <c r="T18" s="83"/>
+      <c r="U18" s="83"/>
+      <c r="V18" s="84"/>
+      <c r="W18" s="84"/>
+      <c r="X18" s="83"/>
+      <c r="Y18" s="83"/>
       <c r="Z18" s="42"/>
       <c r="AA18" s="42"/>
       <c r="AB18" s="42"/>
@@ -10263,16 +10401,16 @@
       <c r="M19" s="42"/>
       <c r="N19" s="42"/>
       <c r="O19" s="42"/>
-      <c r="P19" s="73"/>
-      <c r="Q19" s="73"/>
-      <c r="R19" s="73"/>
-      <c r="S19" s="73"/>
-      <c r="T19" s="73"/>
-      <c r="U19" s="73"/>
-      <c r="V19" s="74"/>
-      <c r="W19" s="74"/>
-      <c r="X19" s="73"/>
-      <c r="Y19" s="73"/>
+      <c r="P19" s="83"/>
+      <c r="Q19" s="83"/>
+      <c r="R19" s="83"/>
+      <c r="S19" s="83"/>
+      <c r="T19" s="83"/>
+      <c r="U19" s="83"/>
+      <c r="V19" s="84"/>
+      <c r="W19" s="84"/>
+      <c r="X19" s="83"/>
+      <c r="Y19" s="83"/>
       <c r="Z19" s="42"/>
       <c r="AA19" s="42"/>
       <c r="AB19" s="42"/>
@@ -10311,16 +10449,16 @@
       <c r="M20" s="42"/>
       <c r="N20" s="42"/>
       <c r="O20" s="42"/>
-      <c r="P20" s="73"/>
-      <c r="Q20" s="73"/>
-      <c r="R20" s="73"/>
-      <c r="S20" s="73"/>
-      <c r="T20" s="73"/>
-      <c r="U20" s="73"/>
-      <c r="V20" s="74"/>
-      <c r="W20" s="74"/>
-      <c r="X20" s="73"/>
-      <c r="Y20" s="73"/>
+      <c r="P20" s="83"/>
+      <c r="Q20" s="83"/>
+      <c r="R20" s="83"/>
+      <c r="S20" s="83"/>
+      <c r="T20" s="83"/>
+      <c r="U20" s="83"/>
+      <c r="V20" s="84"/>
+      <c r="W20" s="84"/>
+      <c r="X20" s="83"/>
+      <c r="Y20" s="83"/>
       <c r="Z20" s="42"/>
       <c r="AA20" s="42"/>
       <c r="AB20" s="42"/>
@@ -10359,16 +10497,16 @@
       <c r="M21" s="42"/>
       <c r="N21" s="42"/>
       <c r="O21" s="42"/>
-      <c r="P21" s="73"/>
-      <c r="Q21" s="73"/>
-      <c r="R21" s="73"/>
-      <c r="S21" s="73"/>
-      <c r="T21" s="73"/>
-      <c r="U21" s="73"/>
-      <c r="V21" s="74"/>
-      <c r="W21" s="74"/>
-      <c r="X21" s="73"/>
-      <c r="Y21" s="73"/>
+      <c r="P21" s="83"/>
+      <c r="Q21" s="83"/>
+      <c r="R21" s="83"/>
+      <c r="S21" s="83"/>
+      <c r="T21" s="83"/>
+      <c r="U21" s="83"/>
+      <c r="V21" s="84"/>
+      <c r="W21" s="84"/>
+      <c r="X21" s="83"/>
+      <c r="Y21" s="83"/>
       <c r="Z21" s="42"/>
       <c r="AA21" s="42"/>
       <c r="AB21" s="42"/>
@@ -10399,24 +10537,24 @@
       <c r="G22" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="H22" s="78"/>
-      <c r="I22" s="78"/>
-      <c r="J22" s="78"/>
-      <c r="K22" s="78"/>
-      <c r="L22" s="78"/>
-      <c r="M22" s="78"/>
-      <c r="N22" s="78"/>
-      <c r="O22" s="78"/>
-      <c r="P22" s="73"/>
-      <c r="Q22" s="73"/>
-      <c r="R22" s="73"/>
-      <c r="S22" s="73"/>
-      <c r="T22" s="73"/>
-      <c r="U22" s="73"/>
-      <c r="V22" s="74"/>
-      <c r="W22" s="74"/>
-      <c r="X22" s="73"/>
-      <c r="Y22" s="73"/>
+      <c r="H22" s="91"/>
+      <c r="I22" s="91"/>
+      <c r="J22" s="91"/>
+      <c r="K22" s="91"/>
+      <c r="L22" s="91"/>
+      <c r="M22" s="91"/>
+      <c r="N22" s="91"/>
+      <c r="O22" s="91"/>
+      <c r="P22" s="83"/>
+      <c r="Q22" s="83"/>
+      <c r="R22" s="83"/>
+      <c r="S22" s="83"/>
+      <c r="T22" s="83"/>
+      <c r="U22" s="83"/>
+      <c r="V22" s="84"/>
+      <c r="W22" s="84"/>
+      <c r="X22" s="83"/>
+      <c r="Y22" s="83"/>
       <c r="Z22" s="42"/>
       <c r="AA22" s="42"/>
       <c r="AB22" s="42"/>
@@ -10447,24 +10585,24 @@
       <c r="G23" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="H23" s="78"/>
-      <c r="I23" s="78"/>
-      <c r="J23" s="78"/>
-      <c r="K23" s="78"/>
-      <c r="L23" s="78"/>
-      <c r="M23" s="78"/>
-      <c r="N23" s="78"/>
-      <c r="O23" s="78"/>
-      <c r="P23" s="73"/>
-      <c r="Q23" s="73"/>
-      <c r="R23" s="73"/>
-      <c r="S23" s="73"/>
-      <c r="T23" s="73"/>
-      <c r="U23" s="73"/>
-      <c r="V23" s="74"/>
-      <c r="W23" s="74"/>
-      <c r="X23" s="73"/>
-      <c r="Y23" s="73"/>
+      <c r="H23" s="91"/>
+      <c r="I23" s="91"/>
+      <c r="J23" s="91"/>
+      <c r="K23" s="91"/>
+      <c r="L23" s="91"/>
+      <c r="M23" s="91"/>
+      <c r="N23" s="91"/>
+      <c r="O23" s="91"/>
+      <c r="P23" s="83"/>
+      <c r="Q23" s="83"/>
+      <c r="R23" s="83"/>
+      <c r="S23" s="83"/>
+      <c r="T23" s="83"/>
+      <c r="U23" s="83"/>
+      <c r="V23" s="84"/>
+      <c r="W23" s="84"/>
+      <c r="X23" s="83"/>
+      <c r="Y23" s="83"/>
       <c r="Z23" s="42"/>
       <c r="AA23" s="42"/>
       <c r="AB23" s="42"/>
@@ -10495,24 +10633,24 @@
       <c r="G24" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="H24" s="78"/>
-      <c r="I24" s="78"/>
-      <c r="J24" s="78"/>
-      <c r="K24" s="78"/>
-      <c r="L24" s="78"/>
-      <c r="M24" s="78"/>
-      <c r="N24" s="78"/>
-      <c r="O24" s="78"/>
-      <c r="P24" s="73"/>
-      <c r="Q24" s="73"/>
-      <c r="R24" s="73"/>
-      <c r="S24" s="73"/>
-      <c r="T24" s="73"/>
-      <c r="U24" s="73"/>
-      <c r="V24" s="74"/>
-      <c r="W24" s="74"/>
-      <c r="X24" s="73"/>
-      <c r="Y24" s="73"/>
+      <c r="H24" s="91"/>
+      <c r="I24" s="91"/>
+      <c r="J24" s="91"/>
+      <c r="K24" s="91"/>
+      <c r="L24" s="91"/>
+      <c r="M24" s="91"/>
+      <c r="N24" s="91"/>
+      <c r="O24" s="91"/>
+      <c r="P24" s="83"/>
+      <c r="Q24" s="83"/>
+      <c r="R24" s="83"/>
+      <c r="S24" s="83"/>
+      <c r="T24" s="83"/>
+      <c r="U24" s="83"/>
+      <c r="V24" s="84"/>
+      <c r="W24" s="84"/>
+      <c r="X24" s="83"/>
+      <c r="Y24" s="83"/>
       <c r="Z24" s="42"/>
       <c r="AA24" s="42"/>
       <c r="AB24" s="42"/>
@@ -10543,24 +10681,24 @@
       <c r="G25" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="H25" s="78"/>
-      <c r="I25" s="78"/>
-      <c r="J25" s="78"/>
-      <c r="K25" s="78"/>
-      <c r="L25" s="78"/>
-      <c r="M25" s="78"/>
-      <c r="N25" s="78"/>
-      <c r="O25" s="78"/>
-      <c r="P25" s="73"/>
-      <c r="Q25" s="73"/>
-      <c r="R25" s="73"/>
-      <c r="S25" s="73"/>
-      <c r="T25" s="73"/>
-      <c r="U25" s="73"/>
-      <c r="V25" s="74"/>
-      <c r="W25" s="74"/>
-      <c r="X25" s="73"/>
-      <c r="Y25" s="73"/>
+      <c r="H25" s="91"/>
+      <c r="I25" s="91"/>
+      <c r="J25" s="91"/>
+      <c r="K25" s="91"/>
+      <c r="L25" s="91"/>
+      <c r="M25" s="91"/>
+      <c r="N25" s="91"/>
+      <c r="O25" s="91"/>
+      <c r="P25" s="83"/>
+      <c r="Q25" s="83"/>
+      <c r="R25" s="83"/>
+      <c r="S25" s="83"/>
+      <c r="T25" s="83"/>
+      <c r="U25" s="83"/>
+      <c r="V25" s="84"/>
+      <c r="W25" s="84"/>
+      <c r="X25" s="83"/>
+      <c r="Y25" s="83"/>
       <c r="Z25" s="42"/>
       <c r="AA25" s="42"/>
       <c r="AB25" s="42"/>
@@ -10585,24 +10723,24 @@
       <c r="C26" s="5"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="70" t="s">
+      <c r="F26" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="G26" s="71"/>
-      <c r="H26" s="71"/>
-      <c r="I26" s="71"/>
-      <c r="J26" s="71"/>
-      <c r="K26" s="71"/>
-      <c r="L26" s="71"/>
-      <c r="M26" s="71"/>
-      <c r="N26" s="71"/>
-      <c r="O26" s="71"/>
-      <c r="P26" s="71"/>
-      <c r="Q26" s="71"/>
-      <c r="R26" s="71"/>
-      <c r="S26" s="71"/>
-      <c r="T26" s="71"/>
-      <c r="U26" s="72"/>
+      <c r="G26" s="81"/>
+      <c r="H26" s="81"/>
+      <c r="I26" s="81"/>
+      <c r="J26" s="81"/>
+      <c r="K26" s="81"/>
+      <c r="L26" s="81"/>
+      <c r="M26" s="81"/>
+      <c r="N26" s="81"/>
+      <c r="O26" s="81"/>
+      <c r="P26" s="81"/>
+      <c r="Q26" s="81"/>
+      <c r="R26" s="81"/>
+      <c r="S26" s="81"/>
+      <c r="T26" s="81"/>
+      <c r="U26" s="82"/>
       <c r="V26" s="28"/>
       <c r="W26" s="28"/>
       <c r="X26" s="28"/>
@@ -10676,11 +10814,11 @@
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
-      <c r="L28" s="66" t="s">
+      <c r="L28" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="M28" s="66"/>
-      <c r="N28" s="66"/>
+      <c r="M28" s="77"/>
+      <c r="N28" s="77"/>
       <c r="O28" s="42"/>
       <c r="P28" s="42"/>
       <c r="Q28" s="1"/>
@@ -10694,13 +10832,13 @@
       <c r="W28" s="38"/>
       <c r="X28" s="42"/>
       <c r="Y28" s="42"/>
-      <c r="Z28" s="67" t="s">
+      <c r="Z28" s="78" t="s">
         <v>67</v>
       </c>
-      <c r="AA28" s="67"/>
-      <c r="AB28" s="67"/>
-      <c r="AC28" s="67"/>
-      <c r="AD28" s="67"/>
+      <c r="AA28" s="78"/>
+      <c r="AB28" s="78"/>
+      <c r="AC28" s="78"/>
+      <c r="AD28" s="78"/>
       <c r="AE28" s="42"/>
       <c r="AF28" s="42"/>
       <c r="AG28" s="1"/>
@@ -10719,11 +10857,11 @@
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
-      <c r="L29" s="66" t="s">
+      <c r="L29" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="M29" s="66"/>
-      <c r="N29" s="66"/>
+      <c r="M29" s="77"/>
+      <c r="N29" s="77"/>
       <c r="O29" s="42"/>
       <c r="P29" s="42"/>
       <c r="Q29" s="1"/>
@@ -10737,13 +10875,13 @@
       <c r="W29" s="38"/>
       <c r="X29" s="42"/>
       <c r="Y29" s="42"/>
-      <c r="Z29" s="67" t="s">
+      <c r="Z29" s="78" t="s">
         <v>68</v>
       </c>
-      <c r="AA29" s="67"/>
-      <c r="AB29" s="67"/>
-      <c r="AC29" s="67"/>
-      <c r="AD29" s="67"/>
+      <c r="AA29" s="78"/>
+      <c r="AB29" s="78"/>
+      <c r="AC29" s="78"/>
+      <c r="AD29" s="78"/>
       <c r="AE29" s="42"/>
       <c r="AF29" s="42"/>
       <c r="AG29" s="1"/>
@@ -10791,17 +10929,17 @@
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="5"/>
-      <c r="D31" s="68" t="s">
+      <c r="D31" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="E31" s="68"/>
-      <c r="F31" s="68"/>
-      <c r="G31" s="68"/>
-      <c r="H31" s="68"/>
-      <c r="I31" s="68"/>
-      <c r="J31" s="68"/>
-      <c r="K31" s="68"/>
-      <c r="L31" s="68"/>
+      <c r="E31" s="64"/>
+      <c r="F31" s="64"/>
+      <c r="G31" s="64"/>
+      <c r="H31" s="64"/>
+      <c r="I31" s="64"/>
+      <c r="J31" s="64"/>
+      <c r="K31" s="64"/>
+      <c r="L31" s="64"/>
       <c r="M31" s="23"/>
       <c r="N31" s="23"/>
       <c r="O31" s="23"/>
@@ -10813,43 +10951,43 @@
       <c r="U31" s="1"/>
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
-      <c r="X31" s="69"/>
-      <c r="Y31" s="69"/>
-      <c r="Z31" s="69"/>
-      <c r="AA31" s="69"/>
-      <c r="AB31" s="69"/>
-      <c r="AC31" s="69"/>
-      <c r="AD31" s="69"/>
-      <c r="AE31" s="69"/>
-      <c r="AF31" s="69"/>
+      <c r="X31" s="79"/>
+      <c r="Y31" s="79"/>
+      <c r="Z31" s="79"/>
+      <c r="AA31" s="79"/>
+      <c r="AB31" s="79"/>
+      <c r="AC31" s="79"/>
+      <c r="AD31" s="79"/>
+      <c r="AE31" s="79"/>
+      <c r="AF31" s="79"/>
       <c r="AG31" s="1"/>
       <c r="AH31" s="1"/>
-      <c r="AI31" s="68" t="s">
+      <c r="AI31" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="AJ31" s="68"/>
-      <c r="AK31" s="68"/>
-      <c r="AL31" s="68"/>
-      <c r="AM31" s="68"/>
-      <c r="AN31" s="68"/>
-      <c r="AO31" s="68"/>
-      <c r="AP31" s="68"/>
-      <c r="AQ31" s="68"/>
+      <c r="AJ31" s="64"/>
+      <c r="AK31" s="64"/>
+      <c r="AL31" s="64"/>
+      <c r="AM31" s="64"/>
+      <c r="AN31" s="64"/>
+      <c r="AO31" s="64"/>
+      <c r="AP31" s="64"/>
+      <c r="AQ31" s="64"/>
       <c r="AR31" s="6"/>
     </row>
     <row r="32" spans="1:44" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="5"/>
-      <c r="D32" s="68"/>
-      <c r="E32" s="68"/>
-      <c r="F32" s="68"/>
-      <c r="G32" s="68"/>
-      <c r="H32" s="68"/>
-      <c r="I32" s="68"/>
-      <c r="J32" s="68"/>
-      <c r="K32" s="68"/>
-      <c r="L32" s="68"/>
+      <c r="D32" s="64"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="64"/>
+      <c r="G32" s="64"/>
+      <c r="H32" s="64"/>
+      <c r="I32" s="64"/>
+      <c r="J32" s="64"/>
+      <c r="K32" s="64"/>
+      <c r="L32" s="64"/>
       <c r="M32" s="23"/>
       <c r="N32" s="23"/>
       <c r="O32" s="23"/>
@@ -10861,26 +10999,26 @@
       <c r="U32" s="1"/>
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
-      <c r="X32" s="69"/>
-      <c r="Y32" s="69"/>
-      <c r="Z32" s="69"/>
-      <c r="AA32" s="69"/>
-      <c r="AB32" s="69"/>
-      <c r="AC32" s="69"/>
-      <c r="AD32" s="69"/>
-      <c r="AE32" s="69"/>
-      <c r="AF32" s="69"/>
+      <c r="X32" s="79"/>
+      <c r="Y32" s="79"/>
+      <c r="Z32" s="79"/>
+      <c r="AA32" s="79"/>
+      <c r="AB32" s="79"/>
+      <c r="AC32" s="79"/>
+      <c r="AD32" s="79"/>
+      <c r="AE32" s="79"/>
+      <c r="AF32" s="79"/>
       <c r="AG32" s="1"/>
       <c r="AH32" s="1"/>
-      <c r="AI32" s="68"/>
-      <c r="AJ32" s="68"/>
-      <c r="AK32" s="68"/>
-      <c r="AL32" s="68"/>
-      <c r="AM32" s="68"/>
-      <c r="AN32" s="68"/>
-      <c r="AO32" s="68"/>
-      <c r="AP32" s="68"/>
-      <c r="AQ32" s="68"/>
+      <c r="AI32" s="64"/>
+      <c r="AJ32" s="64"/>
+      <c r="AK32" s="64"/>
+      <c r="AL32" s="64"/>
+      <c r="AM32" s="64"/>
+      <c r="AN32" s="64"/>
+      <c r="AO32" s="64"/>
+      <c r="AP32" s="64"/>
+      <c r="AQ32" s="64"/>
       <c r="AR32" s="6"/>
     </row>
     <row r="33" spans="1:45" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -11373,16 +11511,6 @@
     <mergeCell ref="H23:O23"/>
     <mergeCell ref="H24:O24"/>
     <mergeCell ref="H25:O25"/>
-    <mergeCell ref="F12:G14"/>
-    <mergeCell ref="H12:O14"/>
-    <mergeCell ref="H22:O22"/>
-    <mergeCell ref="H17:O17"/>
-    <mergeCell ref="H18:O18"/>
-    <mergeCell ref="H19:O19"/>
-    <mergeCell ref="H20:O20"/>
-    <mergeCell ref="H21:O21"/>
-    <mergeCell ref="H15:O15"/>
-    <mergeCell ref="H16:O16"/>
     <mergeCell ref="AJ13:AK13"/>
     <mergeCell ref="AF12:AK12"/>
     <mergeCell ref="AL12:AO13"/>
@@ -11398,6 +11526,16 @@
     <mergeCell ref="P23:Q23"/>
     <mergeCell ref="P24:Q24"/>
     <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="F12:G14"/>
+    <mergeCell ref="H12:O14"/>
+    <mergeCell ref="H22:O22"/>
+    <mergeCell ref="H17:O17"/>
+    <mergeCell ref="H18:O18"/>
+    <mergeCell ref="H19:O19"/>
+    <mergeCell ref="H20:O20"/>
+    <mergeCell ref="H21:O21"/>
+    <mergeCell ref="H15:O15"/>
+    <mergeCell ref="H16:O16"/>
     <mergeCell ref="P20:Q20"/>
     <mergeCell ref="P21:Q21"/>
     <mergeCell ref="P15:Q15"/>
@@ -11576,7 +11714,7 @@
   <dimension ref="A1:CN142"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31:L32"/>
+      <selection activeCell="K9" sqref="K9:AJ13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -12256,46 +12394,46 @@
       <c r="C17" s="5"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="85" t="s">
+      <c r="F17" s="95" t="s">
         <v>28</v>
       </c>
-      <c r="G17" s="86"/>
-      <c r="H17" s="86"/>
-      <c r="I17" s="86"/>
-      <c r="J17" s="86"/>
-      <c r="K17" s="86"/>
-      <c r="L17" s="86"/>
-      <c r="M17" s="86"/>
-      <c r="N17" s="86"/>
-      <c r="O17" s="86"/>
-      <c r="P17" s="86"/>
-      <c r="Q17" s="86"/>
-      <c r="R17" s="86"/>
-      <c r="S17" s="86"/>
-      <c r="T17" s="86"/>
-      <c r="U17" s="87"/>
+      <c r="G17" s="96"/>
+      <c r="H17" s="96"/>
+      <c r="I17" s="96"/>
+      <c r="J17" s="96"/>
+      <c r="K17" s="96"/>
+      <c r="L17" s="96"/>
+      <c r="M17" s="96"/>
+      <c r="N17" s="96"/>
+      <c r="O17" s="96"/>
+      <c r="P17" s="96"/>
+      <c r="Q17" s="96"/>
+      <c r="R17" s="96"/>
+      <c r="S17" s="96"/>
+      <c r="T17" s="96"/>
+      <c r="U17" s="97"/>
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
-      <c r="Z17" s="85" t="s">
+      <c r="Z17" s="95" t="s">
         <v>29</v>
       </c>
-      <c r="AA17" s="86"/>
-      <c r="AB17" s="86"/>
-      <c r="AC17" s="86"/>
-      <c r="AD17" s="86"/>
-      <c r="AE17" s="86"/>
-      <c r="AF17" s="86"/>
-      <c r="AG17" s="86"/>
-      <c r="AH17" s="86"/>
-      <c r="AI17" s="86"/>
-      <c r="AJ17" s="86"/>
-      <c r="AK17" s="86"/>
-      <c r="AL17" s="86"/>
-      <c r="AM17" s="86"/>
-      <c r="AN17" s="86"/>
-      <c r="AO17" s="87"/>
+      <c r="AA17" s="96"/>
+      <c r="AB17" s="96"/>
+      <c r="AC17" s="96"/>
+      <c r="AD17" s="96"/>
+      <c r="AE17" s="96"/>
+      <c r="AF17" s="96"/>
+      <c r="AG17" s="96"/>
+      <c r="AH17" s="96"/>
+      <c r="AI17" s="96"/>
+      <c r="AJ17" s="96"/>
+      <c r="AK17" s="96"/>
+      <c r="AL17" s="96"/>
+      <c r="AM17" s="96"/>
+      <c r="AN17" s="96"/>
+      <c r="AO17" s="97"/>
       <c r="AR17" s="6"/>
     </row>
     <row r="18" spans="1:44" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -12304,42 +12442,42 @@
       <c r="C18" s="5"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="88"/>
-      <c r="G18" s="89"/>
-      <c r="H18" s="89"/>
-      <c r="I18" s="89"/>
-      <c r="J18" s="89"/>
-      <c r="K18" s="89"/>
-      <c r="L18" s="89"/>
-      <c r="M18" s="89"/>
-      <c r="N18" s="89"/>
-      <c r="O18" s="89"/>
-      <c r="P18" s="89"/>
-      <c r="Q18" s="89"/>
-      <c r="R18" s="89"/>
-      <c r="S18" s="89"/>
-      <c r="T18" s="89"/>
-      <c r="U18" s="90"/>
+      <c r="F18" s="98"/>
+      <c r="G18" s="99"/>
+      <c r="H18" s="99"/>
+      <c r="I18" s="99"/>
+      <c r="J18" s="99"/>
+      <c r="K18" s="99"/>
+      <c r="L18" s="99"/>
+      <c r="M18" s="99"/>
+      <c r="N18" s="99"/>
+      <c r="O18" s="99"/>
+      <c r="P18" s="99"/>
+      <c r="Q18" s="99"/>
+      <c r="R18" s="99"/>
+      <c r="S18" s="99"/>
+      <c r="T18" s="99"/>
+      <c r="U18" s="100"/>
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
-      <c r="Z18" s="88"/>
-      <c r="AA18" s="89"/>
-      <c r="AB18" s="89"/>
-      <c r="AC18" s="89"/>
-      <c r="AD18" s="89"/>
-      <c r="AE18" s="89"/>
-      <c r="AF18" s="89"/>
-      <c r="AG18" s="89"/>
-      <c r="AH18" s="89"/>
-      <c r="AI18" s="89"/>
-      <c r="AJ18" s="89"/>
-      <c r="AK18" s="89"/>
-      <c r="AL18" s="89"/>
-      <c r="AM18" s="89"/>
-      <c r="AN18" s="89"/>
-      <c r="AO18" s="90"/>
+      <c r="Z18" s="98"/>
+      <c r="AA18" s="99"/>
+      <c r="AB18" s="99"/>
+      <c r="AC18" s="99"/>
+      <c r="AD18" s="99"/>
+      <c r="AE18" s="99"/>
+      <c r="AF18" s="99"/>
+      <c r="AG18" s="99"/>
+      <c r="AH18" s="99"/>
+      <c r="AI18" s="99"/>
+      <c r="AJ18" s="99"/>
+      <c r="AK18" s="99"/>
+      <c r="AL18" s="99"/>
+      <c r="AM18" s="99"/>
+      <c r="AN18" s="99"/>
+      <c r="AO18" s="100"/>
       <c r="AR18" s="6"/>
     </row>
     <row r="19" spans="1:44" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -12496,46 +12634,46 @@
       <c r="C23" s="5"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="85" t="s">
+      <c r="F23" s="95" t="s">
         <v>31</v>
       </c>
-      <c r="G23" s="86"/>
-      <c r="H23" s="86"/>
-      <c r="I23" s="86"/>
-      <c r="J23" s="86"/>
-      <c r="K23" s="86"/>
-      <c r="L23" s="86"/>
-      <c r="M23" s="86"/>
-      <c r="N23" s="86"/>
-      <c r="O23" s="86"/>
-      <c r="P23" s="86"/>
-      <c r="Q23" s="86"/>
-      <c r="R23" s="86"/>
-      <c r="S23" s="86"/>
-      <c r="T23" s="86"/>
-      <c r="U23" s="87"/>
+      <c r="G23" s="96"/>
+      <c r="H23" s="96"/>
+      <c r="I23" s="96"/>
+      <c r="J23" s="96"/>
+      <c r="K23" s="96"/>
+      <c r="L23" s="96"/>
+      <c r="M23" s="96"/>
+      <c r="N23" s="96"/>
+      <c r="O23" s="96"/>
+      <c r="P23" s="96"/>
+      <c r="Q23" s="96"/>
+      <c r="R23" s="96"/>
+      <c r="S23" s="96"/>
+      <c r="T23" s="96"/>
+      <c r="U23" s="97"/>
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
-      <c r="Z23" s="85" t="s">
+      <c r="Z23" s="95" t="s">
         <v>30</v>
       </c>
-      <c r="AA23" s="86"/>
-      <c r="AB23" s="86"/>
-      <c r="AC23" s="86"/>
-      <c r="AD23" s="86"/>
-      <c r="AE23" s="86"/>
-      <c r="AF23" s="86"/>
-      <c r="AG23" s="86"/>
-      <c r="AH23" s="86"/>
-      <c r="AI23" s="86"/>
-      <c r="AJ23" s="86"/>
-      <c r="AK23" s="86"/>
-      <c r="AL23" s="86"/>
-      <c r="AM23" s="86"/>
-      <c r="AN23" s="86"/>
-      <c r="AO23" s="87"/>
+      <c r="AA23" s="96"/>
+      <c r="AB23" s="96"/>
+      <c r="AC23" s="96"/>
+      <c r="AD23" s="96"/>
+      <c r="AE23" s="96"/>
+      <c r="AF23" s="96"/>
+      <c r="AG23" s="96"/>
+      <c r="AH23" s="96"/>
+      <c r="AI23" s="96"/>
+      <c r="AJ23" s="96"/>
+      <c r="AK23" s="96"/>
+      <c r="AL23" s="96"/>
+      <c r="AM23" s="96"/>
+      <c r="AN23" s="96"/>
+      <c r="AO23" s="97"/>
       <c r="AR23" s="6"/>
     </row>
     <row r="24" spans="1:44" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -12544,42 +12682,42 @@
       <c r="C24" s="5"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="88"/>
-      <c r="G24" s="89"/>
-      <c r="H24" s="89"/>
-      <c r="I24" s="89"/>
-      <c r="J24" s="89"/>
-      <c r="K24" s="89"/>
-      <c r="L24" s="89"/>
-      <c r="M24" s="89"/>
-      <c r="N24" s="89"/>
-      <c r="O24" s="89"/>
-      <c r="P24" s="89"/>
-      <c r="Q24" s="89"/>
-      <c r="R24" s="89"/>
-      <c r="S24" s="89"/>
-      <c r="T24" s="89"/>
-      <c r="U24" s="90"/>
+      <c r="F24" s="98"/>
+      <c r="G24" s="99"/>
+      <c r="H24" s="99"/>
+      <c r="I24" s="99"/>
+      <c r="J24" s="99"/>
+      <c r="K24" s="99"/>
+      <c r="L24" s="99"/>
+      <c r="M24" s="99"/>
+      <c r="N24" s="99"/>
+      <c r="O24" s="99"/>
+      <c r="P24" s="99"/>
+      <c r="Q24" s="99"/>
+      <c r="R24" s="99"/>
+      <c r="S24" s="99"/>
+      <c r="T24" s="99"/>
+      <c r="U24" s="100"/>
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
-      <c r="Z24" s="88"/>
-      <c r="AA24" s="89"/>
-      <c r="AB24" s="89"/>
-      <c r="AC24" s="89"/>
-      <c r="AD24" s="89"/>
-      <c r="AE24" s="89"/>
-      <c r="AF24" s="89"/>
-      <c r="AG24" s="89"/>
-      <c r="AH24" s="89"/>
-      <c r="AI24" s="89"/>
-      <c r="AJ24" s="89"/>
-      <c r="AK24" s="89"/>
-      <c r="AL24" s="89"/>
-      <c r="AM24" s="89"/>
-      <c r="AN24" s="89"/>
-      <c r="AO24" s="90"/>
+      <c r="Z24" s="98"/>
+      <c r="AA24" s="99"/>
+      <c r="AB24" s="99"/>
+      <c r="AC24" s="99"/>
+      <c r="AD24" s="99"/>
+      <c r="AE24" s="99"/>
+      <c r="AF24" s="99"/>
+      <c r="AG24" s="99"/>
+      <c r="AH24" s="99"/>
+      <c r="AI24" s="99"/>
+      <c r="AJ24" s="99"/>
+      <c r="AK24" s="99"/>
+      <c r="AL24" s="99"/>
+      <c r="AM24" s="99"/>
+      <c r="AN24" s="99"/>
+      <c r="AO24" s="100"/>
       <c r="AR24" s="6"/>
     </row>
     <row r="25" spans="1:44" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -12808,17 +12946,17 @@
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="5"/>
-      <c r="D31" s="68" t="s">
+      <c r="D31" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="E31" s="68"/>
-      <c r="F31" s="68"/>
-      <c r="G31" s="68"/>
-      <c r="H31" s="68"/>
-      <c r="I31" s="68"/>
-      <c r="J31" s="68"/>
-      <c r="K31" s="68"/>
-      <c r="L31" s="68"/>
+      <c r="E31" s="64"/>
+      <c r="F31" s="64"/>
+      <c r="G31" s="64"/>
+      <c r="H31" s="64"/>
+      <c r="I31" s="64"/>
+      <c r="J31" s="64"/>
+      <c r="K31" s="64"/>
+      <c r="L31" s="64"/>
       <c r="M31" s="23"/>
       <c r="N31" s="23"/>
       <c r="O31" s="23"/>
@@ -12847,15 +12985,15 @@
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="5"/>
-      <c r="D32" s="68"/>
-      <c r="E32" s="68"/>
-      <c r="F32" s="68"/>
-      <c r="G32" s="68"/>
-      <c r="H32" s="68"/>
-      <c r="I32" s="68"/>
-      <c r="J32" s="68"/>
-      <c r="K32" s="68"/>
-      <c r="L32" s="68"/>
+      <c r="D32" s="64"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="64"/>
+      <c r="G32" s="64"/>
+      <c r="H32" s="64"/>
+      <c r="I32" s="64"/>
+      <c r="J32" s="64"/>
+      <c r="K32" s="64"/>
+      <c r="L32" s="64"/>
       <c r="M32" s="23"/>
       <c r="N32" s="23"/>
       <c r="O32" s="23"/>
@@ -13326,7 +13464,6 @@
     <row r="142" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="D36:L36"/>
     <mergeCell ref="M36:S36"/>
     <mergeCell ref="T36:AS36"/>
     <mergeCell ref="A1:F4"/>
@@ -13357,6 +13494,7 @@
     <mergeCell ref="M38:S38"/>
     <mergeCell ref="T38:AS38"/>
     <mergeCell ref="A36:C36"/>
+    <mergeCell ref="D36:L36"/>
     <mergeCell ref="D31:L32"/>
     <mergeCell ref="K9:AJ13"/>
     <mergeCell ref="F17:U18"/>
@@ -15076,7 +15214,6 @@
     <row r="142" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="D36:L36"/>
     <mergeCell ref="M36:S36"/>
     <mergeCell ref="T36:AS36"/>
     <mergeCell ref="A1:F4"/>
@@ -15107,6 +15244,7 @@
     <mergeCell ref="M38:S38"/>
     <mergeCell ref="T38:AS38"/>
     <mergeCell ref="A36:C36"/>
+    <mergeCell ref="D36:L36"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16820,7 +16958,6 @@
     <row r="142" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="D36:L36"/>
     <mergeCell ref="M36:S36"/>
     <mergeCell ref="T36:AS36"/>
     <mergeCell ref="A1:F4"/>
@@ -16851,6 +16988,7 @@
     <mergeCell ref="M38:S38"/>
     <mergeCell ref="T38:AS38"/>
     <mergeCell ref="A36:C36"/>
+    <mergeCell ref="D36:L36"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18564,7 +18702,6 @@
     <row r="142" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="D36:L36"/>
     <mergeCell ref="M36:S36"/>
     <mergeCell ref="T36:AS36"/>
     <mergeCell ref="A1:F4"/>
@@ -18595,6 +18732,7 @@
     <mergeCell ref="M38:S38"/>
     <mergeCell ref="T38:AS38"/>
     <mergeCell ref="A36:C36"/>
+    <mergeCell ref="D36:L36"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18607,8 +18745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C205ACF0-B890-4E9F-9C6E-B8864E65EA9F}">
   <dimension ref="A1:CN142"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AB31" sqref="AB31"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="U11" sqref="U11:V12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -18911,30 +19049,34 @@
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
       <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="15"/>
-      <c r="U7" s="15"/>
-      <c r="V7" s="15"/>
-      <c r="W7" s="15"/>
-      <c r="X7" s="15"/>
-      <c r="Y7" s="15"/>
-      <c r="Z7" s="15"/>
-      <c r="AA7" s="15"/>
-      <c r="AB7" s="15"/>
-      <c r="AC7" s="15"/>
-      <c r="AD7" s="15"/>
-      <c r="AE7" s="15"/>
-      <c r="AF7" s="15"/>
-      <c r="AG7" s="1"/>
-      <c r="AH7" s="1"/>
+      <c r="K7" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="53"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="53"/>
+      <c r="O7" s="53"/>
+      <c r="P7" s="53"/>
+      <c r="Q7" s="53"/>
+      <c r="R7" s="53"/>
+      <c r="S7" s="53"/>
+      <c r="T7" s="53"/>
+      <c r="U7" s="53"/>
+      <c r="V7" s="53"/>
+      <c r="W7" s="53"/>
+      <c r="X7" s="53"/>
+      <c r="Y7" s="53"/>
+      <c r="Z7" s="53"/>
+      <c r="AA7" s="53"/>
+      <c r="AB7" s="53"/>
+      <c r="AC7" s="53"/>
+      <c r="AD7" s="53"/>
+      <c r="AE7" s="53"/>
+      <c r="AF7" s="53"/>
+      <c r="AG7" s="53"/>
+      <c r="AH7" s="53"/>
+      <c r="AI7" s="53"/>
+      <c r="AJ7" s="53"/>
       <c r="AR7" s="6"/>
     </row>
     <row r="8" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -18948,30 +19090,32 @@
       <c r="H8" s="15"/>
       <c r="I8" s="15"/>
       <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="15"/>
-      <c r="S8" s="15"/>
-      <c r="T8" s="15"/>
-      <c r="U8" s="15"/>
-      <c r="V8" s="15"/>
-      <c r="W8" s="15"/>
-      <c r="X8" s="15"/>
-      <c r="Y8" s="15"/>
-      <c r="Z8" s="15"/>
-      <c r="AA8" s="15"/>
-      <c r="AB8" s="15"/>
-      <c r="AC8" s="15"/>
-      <c r="AD8" s="15"/>
-      <c r="AE8" s="15"/>
-      <c r="AF8" s="15"/>
-      <c r="AG8" s="1"/>
-      <c r="AH8" s="1"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="53"/>
+      <c r="O8" s="53"/>
+      <c r="P8" s="53"/>
+      <c r="Q8" s="53"/>
+      <c r="R8" s="53"/>
+      <c r="S8" s="53"/>
+      <c r="T8" s="53"/>
+      <c r="U8" s="53"/>
+      <c r="V8" s="53"/>
+      <c r="W8" s="53"/>
+      <c r="X8" s="53"/>
+      <c r="Y8" s="53"/>
+      <c r="Z8" s="53"/>
+      <c r="AA8" s="53"/>
+      <c r="AB8" s="53"/>
+      <c r="AC8" s="53"/>
+      <c r="AD8" s="53"/>
+      <c r="AE8" s="53"/>
+      <c r="AF8" s="53"/>
+      <c r="AG8" s="53"/>
+      <c r="AH8" s="53"/>
+      <c r="AI8" s="53"/>
+      <c r="AJ8" s="53"/>
       <c r="AR8" s="6"/>
     </row>
     <row r="9" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -18985,30 +19129,32 @@
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
       <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="15"/>
-      <c r="S9" s="15"/>
-      <c r="T9" s="15"/>
-      <c r="U9" s="15"/>
-      <c r="V9" s="15"/>
-      <c r="W9" s="15"/>
-      <c r="X9" s="15"/>
-      <c r="Y9" s="15"/>
-      <c r="Z9" s="15"/>
-      <c r="AA9" s="15"/>
-      <c r="AB9" s="15"/>
-      <c r="AC9" s="15"/>
-      <c r="AD9" s="15"/>
-      <c r="AE9" s="15"/>
-      <c r="AF9" s="15"/>
-      <c r="AG9" s="1"/>
-      <c r="AH9" s="1"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="53"/>
+      <c r="P9" s="53"/>
+      <c r="Q9" s="53"/>
+      <c r="R9" s="53"/>
+      <c r="S9" s="53"/>
+      <c r="T9" s="53"/>
+      <c r="U9" s="53"/>
+      <c r="V9" s="53"/>
+      <c r="W9" s="53"/>
+      <c r="X9" s="53"/>
+      <c r="Y9" s="53"/>
+      <c r="Z9" s="53"/>
+      <c r="AA9" s="53"/>
+      <c r="AB9" s="53"/>
+      <c r="AC9" s="53"/>
+      <c r="AD9" s="53"/>
+      <c r="AE9" s="53"/>
+      <c r="AF9" s="53"/>
+      <c r="AG9" s="53"/>
+      <c r="AH9" s="53"/>
+      <c r="AI9" s="53"/>
+      <c r="AJ9" s="53"/>
       <c r="AR9" s="6"/>
     </row>
     <row r="10" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -19027,25 +19173,27 @@
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="14"/>
-      <c r="V10" s="15"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
-      <c r="AA10" s="1"/>
-      <c r="AB10" s="1"/>
-      <c r="AC10" s="1"/>
-      <c r="AD10" s="1"/>
-      <c r="AE10" s="1"/>
-      <c r="AF10" s="1"/>
-      <c r="AG10" s="1"/>
-      <c r="AH10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="110"/>
+      <c r="X10" s="110"/>
+      <c r="Y10" s="110"/>
+      <c r="Z10" s="110"/>
+      <c r="AA10" s="110"/>
+      <c r="AB10" s="110"/>
+      <c r="AC10" s="110"/>
+      <c r="AD10" s="110"/>
+      <c r="AE10" s="110"/>
+      <c r="AF10" s="110"/>
+      <c r="AG10" s="110"/>
+      <c r="AH10" s="110"/>
+      <c r="AI10" s="110"/>
+      <c r="AJ10" s="110"/>
       <c r="AR10" s="6"/>
     </row>
     <row r="11" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -19059,30 +19207,35 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="14"/>
-      <c r="T11" s="14"/>
-      <c r="U11" s="14"/>
-      <c r="V11" s="15"/>
-      <c r="W11" s="1"/>
+      <c r="K11" s="117" t="s">
+        <v>75</v>
+      </c>
+      <c r="L11" s="118"/>
+      <c r="M11" s="119"/>
+      <c r="N11" s="111"/>
+      <c r="O11" s="111"/>
+      <c r="P11" s="111"/>
+      <c r="Q11" s="111"/>
+      <c r="R11" s="111"/>
+      <c r="S11" s="111"/>
+      <c r="T11" s="111"/>
+      <c r="U11" s="113" t="s">
+        <v>72</v>
+      </c>
+      <c r="V11" s="114"/>
+      <c r="W11" s="110"/>
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
       <c r="AC11" s="1"/>
-      <c r="AD11" s="14"/>
-      <c r="AE11" s="14"/>
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="1"/>
       <c r="AF11" s="1"/>
       <c r="AG11" s="1"/>
       <c r="AH11" s="1"/>
+      <c r="AJ11" s="110"/>
       <c r="AR11" s="6"/>
     </row>
     <row r="12" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -19096,18 +19249,18 @@
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
       <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
+      <c r="K12" s="120"/>
+      <c r="L12" s="121"/>
+      <c r="M12" s="122"/>
+      <c r="N12" s="112"/>
+      <c r="O12" s="112"/>
+      <c r="P12" s="112"/>
+      <c r="Q12" s="112"/>
+      <c r="R12" s="112"/>
+      <c r="S12" s="112"/>
+      <c r="T12" s="112"/>
+      <c r="U12" s="115"/>
+      <c r="V12" s="116"/>
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
@@ -19133,13 +19286,13 @@
       <c r="H13" s="17"/>
       <c r="I13" s="17"/>
       <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -19170,30 +19323,34 @@
       <c r="H14" s="17"/>
       <c r="I14" s="17"/>
       <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
-      <c r="X14" s="1"/>
-      <c r="Y14" s="1"/>
-      <c r="Z14" s="1"/>
-      <c r="AA14" s="1"/>
-      <c r="AB14" s="1"/>
-      <c r="AC14" s="1"/>
-      <c r="AD14" s="1"/>
-      <c r="AE14" s="1"/>
-      <c r="AF14" s="1"/>
-      <c r="AG14" s="1"/>
-      <c r="AH14" s="1"/>
+      <c r="K14" s="101" t="s">
+        <v>30</v>
+      </c>
+      <c r="L14" s="102"/>
+      <c r="M14" s="102"/>
+      <c r="N14" s="102"/>
+      <c r="O14" s="102"/>
+      <c r="P14" s="102"/>
+      <c r="Q14" s="102"/>
+      <c r="R14" s="102"/>
+      <c r="S14" s="102"/>
+      <c r="T14" s="102"/>
+      <c r="U14" s="102"/>
+      <c r="V14" s="102"/>
+      <c r="W14" s="102"/>
+      <c r="X14" s="102"/>
+      <c r="Y14" s="102"/>
+      <c r="Z14" s="102"/>
+      <c r="AA14" s="102"/>
+      <c r="AB14" s="102"/>
+      <c r="AC14" s="102"/>
+      <c r="AD14" s="102"/>
+      <c r="AE14" s="102"/>
+      <c r="AF14" s="102"/>
+      <c r="AG14" s="102"/>
+      <c r="AH14" s="102"/>
+      <c r="AI14" s="102"/>
+      <c r="AJ14" s="103"/>
       <c r="AR14" s="6"/>
     </row>
     <row r="15" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -19207,30 +19364,32 @@
       <c r="H15" s="17"/>
       <c r="I15" s="17"/>
       <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="18"/>
-      <c r="W15" s="1"/>
-      <c r="X15" s="1"/>
-      <c r="Y15" s="1"/>
-      <c r="Z15" s="1"/>
-      <c r="AA15" s="1"/>
-      <c r="AB15" s="1"/>
-      <c r="AC15" s="1"/>
-      <c r="AD15" s="1"/>
-      <c r="AE15" s="1"/>
-      <c r="AF15" s="1"/>
-      <c r="AG15" s="1"/>
-      <c r="AH15" s="1"/>
+      <c r="K15" s="104"/>
+      <c r="L15" s="105"/>
+      <c r="M15" s="105"/>
+      <c r="N15" s="105"/>
+      <c r="O15" s="105"/>
+      <c r="P15" s="105"/>
+      <c r="Q15" s="105"/>
+      <c r="R15" s="105"/>
+      <c r="S15" s="105"/>
+      <c r="T15" s="105"/>
+      <c r="U15" s="105"/>
+      <c r="V15" s="105"/>
+      <c r="W15" s="105"/>
+      <c r="X15" s="105"/>
+      <c r="Y15" s="105"/>
+      <c r="Z15" s="105"/>
+      <c r="AA15" s="105"/>
+      <c r="AB15" s="105"/>
+      <c r="AC15" s="105"/>
+      <c r="AD15" s="105"/>
+      <c r="AE15" s="105"/>
+      <c r="AF15" s="105"/>
+      <c r="AG15" s="105"/>
+      <c r="AH15" s="105"/>
+      <c r="AI15" s="105"/>
+      <c r="AJ15" s="106"/>
       <c r="AR15" s="6"/>
     </row>
     <row r="16" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -19244,30 +19403,32 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
-      <c r="W16" s="1"/>
-      <c r="X16" s="1"/>
-      <c r="Y16" s="1"/>
-      <c r="Z16" s="1"/>
-      <c r="AA16" s="1"/>
-      <c r="AB16" s="1"/>
-      <c r="AC16" s="1"/>
-      <c r="AD16" s="1"/>
-      <c r="AE16" s="1"/>
-      <c r="AF16" s="1"/>
-      <c r="AG16" s="1"/>
-      <c r="AH16" s="1"/>
+      <c r="K16" s="104"/>
+      <c r="L16" s="105"/>
+      <c r="M16" s="105"/>
+      <c r="N16" s="105"/>
+      <c r="O16" s="105"/>
+      <c r="P16" s="105"/>
+      <c r="Q16" s="105"/>
+      <c r="R16" s="105"/>
+      <c r="S16" s="105"/>
+      <c r="T16" s="105"/>
+      <c r="U16" s="105"/>
+      <c r="V16" s="105"/>
+      <c r="W16" s="105"/>
+      <c r="X16" s="105"/>
+      <c r="Y16" s="105"/>
+      <c r="Z16" s="105"/>
+      <c r="AA16" s="105"/>
+      <c r="AB16" s="105"/>
+      <c r="AC16" s="105"/>
+      <c r="AD16" s="105"/>
+      <c r="AE16" s="105"/>
+      <c r="AF16" s="105"/>
+      <c r="AG16" s="105"/>
+      <c r="AH16" s="105"/>
+      <c r="AI16" s="105"/>
+      <c r="AJ16" s="106"/>
       <c r="AR16" s="6"/>
     </row>
     <row r="17" spans="1:44" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -19281,30 +19442,32 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
-      <c r="V17" s="1"/>
-      <c r="W17" s="1"/>
-      <c r="X17" s="1"/>
-      <c r="Y17" s="1"/>
-      <c r="Z17" s="1"/>
-      <c r="AA17" s="1"/>
-      <c r="AB17" s="1"/>
-      <c r="AC17" s="1"/>
-      <c r="AD17" s="1"/>
-      <c r="AE17" s="1"/>
-      <c r="AF17" s="1"/>
-      <c r="AG17" s="1"/>
-      <c r="AH17" s="1"/>
+      <c r="K17" s="104"/>
+      <c r="L17" s="105"/>
+      <c r="M17" s="105"/>
+      <c r="N17" s="105"/>
+      <c r="O17" s="105"/>
+      <c r="P17" s="105"/>
+      <c r="Q17" s="105"/>
+      <c r="R17" s="105"/>
+      <c r="S17" s="105"/>
+      <c r="T17" s="105"/>
+      <c r="U17" s="105"/>
+      <c r="V17" s="105"/>
+      <c r="W17" s="105"/>
+      <c r="X17" s="105"/>
+      <c r="Y17" s="105"/>
+      <c r="Z17" s="105"/>
+      <c r="AA17" s="105"/>
+      <c r="AB17" s="105"/>
+      <c r="AC17" s="105"/>
+      <c r="AD17" s="105"/>
+      <c r="AE17" s="105"/>
+      <c r="AF17" s="105"/>
+      <c r="AG17" s="105"/>
+      <c r="AH17" s="105"/>
+      <c r="AI17" s="105"/>
+      <c r="AJ17" s="106"/>
       <c r="AR17" s="6"/>
     </row>
     <row r="18" spans="1:44" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -19318,30 +19481,32 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
-      <c r="T18" s="1"/>
-      <c r="U18" s="1"/>
-      <c r="V18" s="1"/>
-      <c r="W18" s="1"/>
-      <c r="X18" s="1"/>
-      <c r="Y18" s="1"/>
-      <c r="Z18" s="1"/>
-      <c r="AA18" s="1"/>
-      <c r="AB18" s="1"/>
-      <c r="AC18" s="1"/>
-      <c r="AD18" s="1"/>
-      <c r="AE18" s="1"/>
-      <c r="AF18" s="1"/>
-      <c r="AG18" s="1"/>
-      <c r="AH18" s="1"/>
+      <c r="K18" s="104"/>
+      <c r="L18" s="105"/>
+      <c r="M18" s="105"/>
+      <c r="N18" s="105"/>
+      <c r="O18" s="105"/>
+      <c r="P18" s="105"/>
+      <c r="Q18" s="105"/>
+      <c r="R18" s="105"/>
+      <c r="S18" s="105"/>
+      <c r="T18" s="105"/>
+      <c r="U18" s="105"/>
+      <c r="V18" s="105"/>
+      <c r="W18" s="105"/>
+      <c r="X18" s="105"/>
+      <c r="Y18" s="105"/>
+      <c r="Z18" s="105"/>
+      <c r="AA18" s="105"/>
+      <c r="AB18" s="105"/>
+      <c r="AC18" s="105"/>
+      <c r="AD18" s="105"/>
+      <c r="AE18" s="105"/>
+      <c r="AF18" s="105"/>
+      <c r="AG18" s="105"/>
+      <c r="AH18" s="105"/>
+      <c r="AI18" s="105"/>
+      <c r="AJ18" s="106"/>
       <c r="AR18" s="6"/>
     </row>
     <row r="19" spans="1:44" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -19355,30 +19520,32 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
-      <c r="V19" s="1"/>
-      <c r="W19" s="1"/>
-      <c r="X19" s="1"/>
-      <c r="Y19" s="1"/>
-      <c r="Z19" s="1"/>
-      <c r="AA19" s="1"/>
-      <c r="AB19" s="1"/>
-      <c r="AC19" s="1"/>
-      <c r="AD19" s="1"/>
-      <c r="AE19" s="1"/>
-      <c r="AF19" s="1"/>
-      <c r="AG19" s="1"/>
-      <c r="AH19" s="1"/>
+      <c r="K19" s="104"/>
+      <c r="L19" s="105"/>
+      <c r="M19" s="105"/>
+      <c r="N19" s="105"/>
+      <c r="O19" s="105"/>
+      <c r="P19" s="105"/>
+      <c r="Q19" s="105"/>
+      <c r="R19" s="105"/>
+      <c r="S19" s="105"/>
+      <c r="T19" s="105"/>
+      <c r="U19" s="105"/>
+      <c r="V19" s="105"/>
+      <c r="W19" s="105"/>
+      <c r="X19" s="105"/>
+      <c r="Y19" s="105"/>
+      <c r="Z19" s="105"/>
+      <c r="AA19" s="105"/>
+      <c r="AB19" s="105"/>
+      <c r="AC19" s="105"/>
+      <c r="AD19" s="105"/>
+      <c r="AE19" s="105"/>
+      <c r="AF19" s="105"/>
+      <c r="AG19" s="105"/>
+      <c r="AH19" s="105"/>
+      <c r="AI19" s="105"/>
+      <c r="AJ19" s="106"/>
       <c r="AR19" s="6"/>
     </row>
     <row r="20" spans="1:44" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -19392,30 +19559,32 @@
       <c r="H20" s="1"/>
       <c r="I20" s="19"/>
       <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="13"/>
-      <c r="S20" s="13"/>
-      <c r="T20" s="13"/>
-      <c r="U20" s="1"/>
-      <c r="V20" s="1"/>
-      <c r="W20" s="1"/>
-      <c r="X20" s="1"/>
-      <c r="Y20" s="1"/>
-      <c r="Z20" s="1"/>
-      <c r="AA20" s="1"/>
-      <c r="AB20" s="1"/>
-      <c r="AC20" s="1"/>
-      <c r="AD20" s="13"/>
-      <c r="AE20" s="13"/>
-      <c r="AF20" s="1"/>
-      <c r="AG20" s="1"/>
-      <c r="AH20" s="1"/>
+      <c r="K20" s="104"/>
+      <c r="L20" s="105"/>
+      <c r="M20" s="105"/>
+      <c r="N20" s="105"/>
+      <c r="O20" s="105"/>
+      <c r="P20" s="105"/>
+      <c r="Q20" s="105"/>
+      <c r="R20" s="105"/>
+      <c r="S20" s="105"/>
+      <c r="T20" s="105"/>
+      <c r="U20" s="105"/>
+      <c r="V20" s="105"/>
+      <c r="W20" s="105"/>
+      <c r="X20" s="105"/>
+      <c r="Y20" s="105"/>
+      <c r="Z20" s="105"/>
+      <c r="AA20" s="105"/>
+      <c r="AB20" s="105"/>
+      <c r="AC20" s="105"/>
+      <c r="AD20" s="105"/>
+      <c r="AE20" s="105"/>
+      <c r="AF20" s="105"/>
+      <c r="AG20" s="105"/>
+      <c r="AH20" s="105"/>
+      <c r="AI20" s="105"/>
+      <c r="AJ20" s="106"/>
       <c r="AR20" s="6"/>
     </row>
     <row r="21" spans="1:44" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -19429,30 +19598,32 @@
       <c r="H21" s="1"/>
       <c r="I21" s="19"/>
       <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="13"/>
-      <c r="S21" s="13"/>
-      <c r="T21" s="13"/>
-      <c r="U21" s="1"/>
-      <c r="V21" s="1"/>
-      <c r="W21" s="1"/>
-      <c r="X21" s="1"/>
-      <c r="Y21" s="1"/>
-      <c r="Z21" s="1"/>
-      <c r="AA21" s="1"/>
-      <c r="AB21" s="1"/>
-      <c r="AC21" s="1"/>
-      <c r="AD21" s="13"/>
-      <c r="AE21" s="13"/>
-      <c r="AF21" s="1"/>
-      <c r="AG21" s="1"/>
-      <c r="AH21" s="1"/>
+      <c r="K21" s="104"/>
+      <c r="L21" s="105"/>
+      <c r="M21" s="105"/>
+      <c r="N21" s="105"/>
+      <c r="O21" s="105"/>
+      <c r="P21" s="105"/>
+      <c r="Q21" s="105"/>
+      <c r="R21" s="105"/>
+      <c r="S21" s="105"/>
+      <c r="T21" s="105"/>
+      <c r="U21" s="105"/>
+      <c r="V21" s="105"/>
+      <c r="W21" s="105"/>
+      <c r="X21" s="105"/>
+      <c r="Y21" s="105"/>
+      <c r="Z21" s="105"/>
+      <c r="AA21" s="105"/>
+      <c r="AB21" s="105"/>
+      <c r="AC21" s="105"/>
+      <c r="AD21" s="105"/>
+      <c r="AE21" s="105"/>
+      <c r="AF21" s="105"/>
+      <c r="AG21" s="105"/>
+      <c r="AH21" s="105"/>
+      <c r="AI21" s="105"/>
+      <c r="AJ21" s="106"/>
       <c r="AR21" s="6"/>
     </row>
     <row r="22" spans="1:44" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -19466,30 +19637,32 @@
       <c r="H22" s="1"/>
       <c r="I22" s="19"/>
       <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="13"/>
-      <c r="S22" s="13"/>
-      <c r="T22" s="13"/>
-      <c r="U22" s="1"/>
-      <c r="V22" s="1"/>
-      <c r="W22" s="1"/>
-      <c r="X22" s="1"/>
-      <c r="Y22" s="1"/>
-      <c r="Z22" s="1"/>
-      <c r="AA22" s="1"/>
-      <c r="AB22" s="1"/>
-      <c r="AC22" s="1"/>
-      <c r="AD22" s="13"/>
-      <c r="AE22" s="13"/>
-      <c r="AF22" s="1"/>
-      <c r="AG22" s="1"/>
-      <c r="AH22" s="1"/>
+      <c r="K22" s="104"/>
+      <c r="L22" s="105"/>
+      <c r="M22" s="105"/>
+      <c r="N22" s="105"/>
+      <c r="O22" s="105"/>
+      <c r="P22" s="105"/>
+      <c r="Q22" s="105"/>
+      <c r="R22" s="105"/>
+      <c r="S22" s="105"/>
+      <c r="T22" s="105"/>
+      <c r="U22" s="105"/>
+      <c r="V22" s="105"/>
+      <c r="W22" s="105"/>
+      <c r="X22" s="105"/>
+      <c r="Y22" s="105"/>
+      <c r="Z22" s="105"/>
+      <c r="AA22" s="105"/>
+      <c r="AB22" s="105"/>
+      <c r="AC22" s="105"/>
+      <c r="AD22" s="105"/>
+      <c r="AE22" s="105"/>
+      <c r="AF22" s="105"/>
+      <c r="AG22" s="105"/>
+      <c r="AH22" s="105"/>
+      <c r="AI22" s="105"/>
+      <c r="AJ22" s="106"/>
       <c r="AR22" s="6"/>
     </row>
     <row r="23" spans="1:44" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -19503,30 +19676,32 @@
       <c r="H23" s="1"/>
       <c r="I23" s="19"/>
       <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="13"/>
-      <c r="R23" s="13"/>
-      <c r="S23" s="13"/>
-      <c r="T23" s="13"/>
-      <c r="U23" s="1"/>
-      <c r="V23" s="1"/>
-      <c r="W23" s="1"/>
-      <c r="X23" s="1"/>
-      <c r="Y23" s="1"/>
-      <c r="Z23" s="1"/>
-      <c r="AA23" s="1"/>
-      <c r="AB23" s="1"/>
-      <c r="AC23" s="1"/>
-      <c r="AD23" s="13"/>
-      <c r="AE23" s="13"/>
-      <c r="AF23" s="1"/>
-      <c r="AG23" s="1"/>
-      <c r="AH23" s="1"/>
+      <c r="K23" s="104"/>
+      <c r="L23" s="105"/>
+      <c r="M23" s="105"/>
+      <c r="N23" s="105"/>
+      <c r="O23" s="105"/>
+      <c r="P23" s="105"/>
+      <c r="Q23" s="105"/>
+      <c r="R23" s="105"/>
+      <c r="S23" s="105"/>
+      <c r="T23" s="105"/>
+      <c r="U23" s="105"/>
+      <c r="V23" s="105"/>
+      <c r="W23" s="105"/>
+      <c r="X23" s="105"/>
+      <c r="Y23" s="105"/>
+      <c r="Z23" s="105"/>
+      <c r="AA23" s="105"/>
+      <c r="AB23" s="105"/>
+      <c r="AC23" s="105"/>
+      <c r="AD23" s="105"/>
+      <c r="AE23" s="105"/>
+      <c r="AF23" s="105"/>
+      <c r="AG23" s="105"/>
+      <c r="AH23" s="105"/>
+      <c r="AI23" s="105"/>
+      <c r="AJ23" s="106"/>
       <c r="AR23" s="6"/>
     </row>
     <row r="24" spans="1:44" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -19540,30 +19715,32 @@
       <c r="H24" s="1"/>
       <c r="I24" s="19"/>
       <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="13"/>
-      <c r="R24" s="13"/>
-      <c r="S24" s="13"/>
-      <c r="T24" s="13"/>
-      <c r="U24" s="1"/>
-      <c r="V24" s="1"/>
-      <c r="W24" s="1"/>
-      <c r="X24" s="1"/>
-      <c r="Y24" s="1"/>
-      <c r="Z24" s="1"/>
-      <c r="AA24" s="1"/>
-      <c r="AB24" s="1"/>
-      <c r="AC24" s="1"/>
-      <c r="AD24" s="13"/>
-      <c r="AE24" s="13"/>
-      <c r="AF24" s="1"/>
-      <c r="AG24" s="1"/>
-      <c r="AH24" s="1"/>
+      <c r="K24" s="104"/>
+      <c r="L24" s="105"/>
+      <c r="M24" s="105"/>
+      <c r="N24" s="105"/>
+      <c r="O24" s="105"/>
+      <c r="P24" s="105"/>
+      <c r="Q24" s="105"/>
+      <c r="R24" s="105"/>
+      <c r="S24" s="105"/>
+      <c r="T24" s="105"/>
+      <c r="U24" s="105"/>
+      <c r="V24" s="105"/>
+      <c r="W24" s="105"/>
+      <c r="X24" s="105"/>
+      <c r="Y24" s="105"/>
+      <c r="Z24" s="105"/>
+      <c r="AA24" s="105"/>
+      <c r="AB24" s="105"/>
+      <c r="AC24" s="105"/>
+      <c r="AD24" s="105"/>
+      <c r="AE24" s="105"/>
+      <c r="AF24" s="105"/>
+      <c r="AG24" s="105"/>
+      <c r="AH24" s="105"/>
+      <c r="AI24" s="105"/>
+      <c r="AJ24" s="106"/>
       <c r="AR24" s="6"/>
     </row>
     <row r="25" spans="1:44" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -19577,30 +19754,32 @@
       <c r="H25" s="1"/>
       <c r="I25" s="19"/>
       <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="13"/>
-      <c r="R25" s="13"/>
-      <c r="S25" s="13"/>
-      <c r="T25" s="13"/>
-      <c r="U25" s="1"/>
-      <c r="V25" s="1"/>
-      <c r="W25" s="1"/>
-      <c r="X25" s="1"/>
-      <c r="Y25" s="1"/>
-      <c r="Z25" s="1"/>
-      <c r="AA25" s="1"/>
-      <c r="AB25" s="1"/>
-      <c r="AC25" s="1"/>
-      <c r="AD25" s="13"/>
-      <c r="AE25" s="13"/>
-      <c r="AF25" s="1"/>
-      <c r="AG25" s="1"/>
-      <c r="AH25" s="1"/>
+      <c r="K25" s="104"/>
+      <c r="L25" s="105"/>
+      <c r="M25" s="105"/>
+      <c r="N25" s="105"/>
+      <c r="O25" s="105"/>
+      <c r="P25" s="105"/>
+      <c r="Q25" s="105"/>
+      <c r="R25" s="105"/>
+      <c r="S25" s="105"/>
+      <c r="T25" s="105"/>
+      <c r="U25" s="105"/>
+      <c r="V25" s="105"/>
+      <c r="W25" s="105"/>
+      <c r="X25" s="105"/>
+      <c r="Y25" s="105"/>
+      <c r="Z25" s="105"/>
+      <c r="AA25" s="105"/>
+      <c r="AB25" s="105"/>
+      <c r="AC25" s="105"/>
+      <c r="AD25" s="105"/>
+      <c r="AE25" s="105"/>
+      <c r="AF25" s="105"/>
+      <c r="AG25" s="105"/>
+      <c r="AH25" s="105"/>
+      <c r="AI25" s="105"/>
+      <c r="AJ25" s="106"/>
       <c r="AR25" s="6"/>
     </row>
     <row r="26" spans="1:44" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -19614,30 +19793,32 @@
       <c r="H26" s="1"/>
       <c r="I26" s="19"/>
       <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="13"/>
-      <c r="R26" s="13"/>
-      <c r="S26" s="13"/>
-      <c r="T26" s="13"/>
-      <c r="U26" s="1"/>
-      <c r="V26" s="1"/>
-      <c r="W26" s="1"/>
-      <c r="X26" s="1"/>
-      <c r="Y26" s="1"/>
-      <c r="Z26" s="1"/>
-      <c r="AA26" s="1"/>
-      <c r="AB26" s="1"/>
-      <c r="AC26" s="1"/>
-      <c r="AD26" s="13"/>
-      <c r="AE26" s="13"/>
-      <c r="AF26" s="1"/>
-      <c r="AG26" s="1"/>
-      <c r="AH26" s="1"/>
+      <c r="K26" s="104"/>
+      <c r="L26" s="105"/>
+      <c r="M26" s="105"/>
+      <c r="N26" s="105"/>
+      <c r="O26" s="105"/>
+      <c r="P26" s="105"/>
+      <c r="Q26" s="105"/>
+      <c r="R26" s="105"/>
+      <c r="S26" s="105"/>
+      <c r="T26" s="105"/>
+      <c r="U26" s="105"/>
+      <c r="V26" s="105"/>
+      <c r="W26" s="105"/>
+      <c r="X26" s="105"/>
+      <c r="Y26" s="105"/>
+      <c r="Z26" s="105"/>
+      <c r="AA26" s="105"/>
+      <c r="AB26" s="105"/>
+      <c r="AC26" s="105"/>
+      <c r="AD26" s="105"/>
+      <c r="AE26" s="105"/>
+      <c r="AF26" s="105"/>
+      <c r="AG26" s="105"/>
+      <c r="AH26" s="105"/>
+      <c r="AI26" s="105"/>
+      <c r="AJ26" s="106"/>
       <c r="AR26" s="6"/>
     </row>
     <row r="27" spans="1:44" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -19651,30 +19832,32 @@
       <c r="H27" s="1"/>
       <c r="I27" s="19"/>
       <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="13"/>
-      <c r="R27" s="13"/>
-      <c r="S27" s="13"/>
-      <c r="T27" s="13"/>
-      <c r="U27" s="1"/>
-      <c r="V27" s="1"/>
-      <c r="W27" s="1"/>
-      <c r="X27" s="1"/>
-      <c r="Y27" s="1"/>
-      <c r="Z27" s="1"/>
-      <c r="AA27" s="1"/>
-      <c r="AB27" s="1"/>
-      <c r="AC27" s="1"/>
-      <c r="AD27" s="13"/>
-      <c r="AE27" s="13"/>
-      <c r="AF27" s="1"/>
-      <c r="AG27" s="1"/>
-      <c r="AH27" s="1"/>
+      <c r="K27" s="104"/>
+      <c r="L27" s="105"/>
+      <c r="M27" s="105"/>
+      <c r="N27" s="105"/>
+      <c r="O27" s="105"/>
+      <c r="P27" s="105"/>
+      <c r="Q27" s="105"/>
+      <c r="R27" s="105"/>
+      <c r="S27" s="105"/>
+      <c r="T27" s="105"/>
+      <c r="U27" s="105"/>
+      <c r="V27" s="105"/>
+      <c r="W27" s="105"/>
+      <c r="X27" s="105"/>
+      <c r="Y27" s="105"/>
+      <c r="Z27" s="105"/>
+      <c r="AA27" s="105"/>
+      <c r="AB27" s="105"/>
+      <c r="AC27" s="105"/>
+      <c r="AD27" s="105"/>
+      <c r="AE27" s="105"/>
+      <c r="AF27" s="105"/>
+      <c r="AG27" s="105"/>
+      <c r="AH27" s="105"/>
+      <c r="AI27" s="105"/>
+      <c r="AJ27" s="106"/>
       <c r="AR27" s="6"/>
     </row>
     <row r="28" spans="1:44" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -19688,30 +19871,32 @@
       <c r="H28" s="1"/>
       <c r="I28" s="19"/>
       <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="13"/>
-      <c r="R28" s="13"/>
-      <c r="S28" s="13"/>
-      <c r="T28" s="13"/>
-      <c r="U28" s="1"/>
-      <c r="V28" s="1"/>
-      <c r="W28" s="1"/>
-      <c r="X28" s="1"/>
-      <c r="Y28" s="1"/>
-      <c r="Z28" s="1"/>
-      <c r="AA28" s="1"/>
-      <c r="AB28" s="1"/>
-      <c r="AC28" s="1"/>
-      <c r="AD28" s="13"/>
-      <c r="AE28" s="13"/>
-      <c r="AF28" s="1"/>
-      <c r="AG28" s="1"/>
-      <c r="AH28" s="1"/>
+      <c r="K28" s="107"/>
+      <c r="L28" s="108"/>
+      <c r="M28" s="108"/>
+      <c r="N28" s="108"/>
+      <c r="O28" s="108"/>
+      <c r="P28" s="108"/>
+      <c r="Q28" s="108"/>
+      <c r="R28" s="108"/>
+      <c r="S28" s="108"/>
+      <c r="T28" s="108"/>
+      <c r="U28" s="108"/>
+      <c r="V28" s="108"/>
+      <c r="W28" s="108"/>
+      <c r="X28" s="108"/>
+      <c r="Y28" s="108"/>
+      <c r="Z28" s="108"/>
+      <c r="AA28" s="108"/>
+      <c r="AB28" s="108"/>
+      <c r="AC28" s="108"/>
+      <c r="AD28" s="108"/>
+      <c r="AE28" s="108"/>
+      <c r="AF28" s="108"/>
+      <c r="AG28" s="108"/>
+      <c r="AH28" s="108"/>
+      <c r="AI28" s="108"/>
+      <c r="AJ28" s="109"/>
       <c r="AR28" s="6"/>
     </row>
     <row r="29" spans="1:44" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -19792,17 +19977,17 @@
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="5"/>
-      <c r="D31" s="68" t="s">
+      <c r="D31" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="E31" s="68"/>
-      <c r="F31" s="68"/>
-      <c r="G31" s="68"/>
-      <c r="H31" s="68"/>
-      <c r="I31" s="68"/>
-      <c r="J31" s="68"/>
-      <c r="K31" s="68"/>
-      <c r="L31" s="68"/>
+      <c r="E31" s="64"/>
+      <c r="F31" s="64"/>
+      <c r="G31" s="64"/>
+      <c r="H31" s="64"/>
+      <c r="I31" s="64"/>
+      <c r="J31" s="64"/>
+      <c r="K31" s="64"/>
+      <c r="L31" s="64"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
@@ -19831,15 +20016,15 @@
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="5"/>
-      <c r="D32" s="68"/>
-      <c r="E32" s="68"/>
-      <c r="F32" s="68"/>
-      <c r="G32" s="68"/>
-      <c r="H32" s="68"/>
-      <c r="I32" s="68"/>
-      <c r="J32" s="68"/>
-      <c r="K32" s="68"/>
-      <c r="L32" s="68"/>
+      <c r="D32" s="64"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="64"/>
+      <c r="G32" s="64"/>
+      <c r="H32" s="64"/>
+      <c r="I32" s="64"/>
+      <c r="J32" s="64"/>
+      <c r="K32" s="64"/>
+      <c r="L32" s="64"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
@@ -20309,7 +20494,11 @@
     <row r="141" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="142" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="36">
+    <mergeCell ref="K14:AJ28"/>
+    <mergeCell ref="K7:AJ9"/>
+    <mergeCell ref="U11:V12"/>
+    <mergeCell ref="K11:M12"/>
     <mergeCell ref="D36:L36"/>
     <mergeCell ref="M36:S36"/>
     <mergeCell ref="T36:AS36"/>
